--- a/name/vnindex/20230118/VNINDEX_HOSE_5p_20230118.xlsx
+++ b/name/vnindex/20230118/VNINDEX_HOSE_5p_20230118.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2407 +454,5807 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1674033300000</v>
+        <v>1674033240000</v>
       </c>
       <c r="B2">
-        <v>7645800</v>
+        <v>2795400</v>
       </c>
       <c r="C2">
-        <v>9205800</v>
+        <v>2738100</v>
       </c>
       <c r="D2">
-        <v>3804300</v>
+        <v>3733900</v>
       </c>
       <c r="E2">
-        <v>129598012000</v>
+        <v>45463965000</v>
       </c>
       <c r="F2">
-        <v>164857741000</v>
+        <v>46793988000</v>
       </c>
       <c r="G2">
-        <v>64705519000</v>
+        <v>63564819000</v>
       </c>
       <c r="H2">
-        <v>20655900</v>
+        <v>9267400</v>
       </c>
       <c r="I2">
-        <v>359161272000</v>
+        <v>155822772000</v>
       </c>
       <c r="J2" t="str">
-        <v>2023-01-18T09:15:00.000Z</v>
+        <v>2023-01-18T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>359161272000</v>
+        <v>155822772000</v>
       </c>
       <c r="L2">
-        <v>20655900</v>
+        <v>9267400</v>
       </c>
       <c r="M2">
-        <v>1560000</v>
+        <v>-57300</v>
       </c>
       <c r="N2">
-        <v>35259729000</v>
+        <v>1330023000</v>
       </c>
       <c r="O2">
-        <v>1560000</v>
+        <v>-57300</v>
       </c>
       <c r="P2">
-        <v>35259729000</v>
+        <v>1330023000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1674033600000</v>
+        <v>1674033360000</v>
       </c>
       <c r="B3">
-        <v>6747400</v>
+        <v>2198000</v>
       </c>
       <c r="C3">
-        <v>6080900</v>
+        <v>3207300</v>
       </c>
       <c r="D3">
-        <v>75300</v>
+        <v>54800</v>
       </c>
       <c r="E3">
-        <v>110157528000</v>
+        <v>38606212000</v>
       </c>
       <c r="F3">
-        <v>111416395000</v>
+        <v>58375618000</v>
       </c>
       <c r="G3">
-        <v>664379000</v>
+        <v>906167000</v>
       </c>
       <c r="H3">
-        <v>12903600</v>
+        <v>5460100</v>
       </c>
       <c r="I3">
-        <v>222238302000</v>
+        <v>97887997000</v>
       </c>
       <c r="J3" t="str">
-        <v>2023-01-18T09:20:00.000Z</v>
+        <v>2023-01-18T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>581399574000</v>
+        <v>253710769000</v>
       </c>
       <c r="L3">
-        <v>33559500</v>
+        <v>14727500</v>
       </c>
       <c r="M3">
-        <v>-666500</v>
+        <v>1009300</v>
       </c>
       <c r="N3">
-        <v>1258867000</v>
+        <v>19769406000</v>
       </c>
       <c r="O3">
-        <v>893500</v>
+        <v>952000</v>
       </c>
       <c r="P3">
-        <v>36518596000</v>
+        <v>21099429000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1674033900000</v>
+        <v>1674033480000</v>
       </c>
       <c r="B4">
-        <v>7454000</v>
+        <v>2652400</v>
       </c>
       <c r="C4">
-        <v>5001900</v>
+        <v>3260400</v>
       </c>
       <c r="D4">
-        <v>32200</v>
+        <v>15600</v>
       </c>
       <c r="E4">
-        <v>122953089000</v>
+        <v>45527835000</v>
       </c>
       <c r="F4">
-        <v>99869937000</v>
+        <v>59688135000</v>
       </c>
       <c r="G4">
-        <v>820706000</v>
+        <v>234533000</v>
       </c>
       <c r="H4">
-        <v>12488100</v>
+        <v>5928400</v>
       </c>
       <c r="I4">
-        <v>223643732000</v>
+        <v>105450503000</v>
       </c>
       <c r="J4" t="str">
-        <v>2023-01-18T09:25:00.000Z</v>
+        <v>2023-01-18T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>805043306000</v>
+        <v>359161272000</v>
       </c>
       <c r="L4">
-        <v>46047600</v>
+        <v>20655900</v>
       </c>
       <c r="M4">
-        <v>-2452100</v>
+        <v>608000</v>
       </c>
       <c r="N4">
-        <v>-23083152000</v>
+        <v>14160300000</v>
       </c>
       <c r="O4">
-        <v>-1558600</v>
+        <v>1560000</v>
       </c>
       <c r="P4">
-        <v>13435444000</v>
+        <v>35259729000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1674034200000</v>
+        <v>1674033600000</v>
       </c>
       <c r="B5">
-        <v>7135500</v>
+        <v>2830700</v>
       </c>
       <c r="C5">
-        <v>4537300</v>
+        <v>2369800</v>
       </c>
       <c r="D5">
-        <v>43700</v>
+        <v>24400</v>
       </c>
       <c r="E5">
-        <v>113068868000</v>
+        <v>43525325000</v>
       </c>
       <c r="F5">
-        <v>90588558000</v>
+        <v>42539665000</v>
       </c>
       <c r="G5">
-        <v>689075000</v>
+        <v>284560000</v>
       </c>
       <c r="H5">
-        <v>11716500</v>
+        <v>5224900</v>
       </c>
       <c r="I5">
-        <v>204346501000</v>
+        <v>86349550000</v>
       </c>
       <c r="J5" t="str">
-        <v>2023-01-18T09:30:00.000Z</v>
+        <v>2023-01-18T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>1009389807000</v>
+        <v>445510822000</v>
       </c>
       <c r="L5">
-        <v>57764100</v>
+        <v>25880800</v>
       </c>
       <c r="M5">
-        <v>-2598200</v>
+        <v>-460900</v>
       </c>
       <c r="N5">
-        <v>-22480310000</v>
+        <v>-985660000</v>
       </c>
       <c r="O5">
-        <v>-4156800</v>
+        <v>1099100</v>
       </c>
       <c r="P5">
-        <v>-9044866000</v>
+        <v>34274069000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1674034500000</v>
+        <v>1674033720000</v>
       </c>
       <c r="B6">
-        <v>5247900</v>
+        <v>2557400</v>
       </c>
       <c r="C6">
-        <v>4321500</v>
+        <v>2442000</v>
       </c>
       <c r="D6">
-        <v>107800</v>
+        <v>49600</v>
       </c>
       <c r="E6">
-        <v>100359751000</v>
+        <v>43207367000</v>
       </c>
       <c r="F6">
-        <v>79025992000</v>
+        <v>44130437000</v>
       </c>
       <c r="G6">
-        <v>1200219000</v>
+        <v>332850000</v>
       </c>
       <c r="H6">
-        <v>9677200</v>
+        <v>5049000</v>
       </c>
       <c r="I6">
-        <v>180585962000</v>
+        <v>87670654000</v>
       </c>
       <c r="J6" t="str">
-        <v>2023-01-18T09:35:00.000Z</v>
+        <v>2023-01-18T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>1189975769000</v>
+        <v>533181476000</v>
       </c>
       <c r="L6">
-        <v>67441300</v>
+        <v>30929800</v>
       </c>
       <c r="M6">
-        <v>-926400</v>
+        <v>-115400</v>
       </c>
       <c r="N6">
-        <v>-21333759000</v>
+        <v>923070000</v>
       </c>
       <c r="O6">
-        <v>-5083200</v>
+        <v>983700</v>
       </c>
       <c r="P6">
-        <v>-30378625000</v>
+        <v>35197139000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1674034800000</v>
+        <v>1674033840000</v>
       </c>
       <c r="B7">
-        <v>3793400</v>
+        <v>2290400</v>
       </c>
       <c r="C7">
-        <v>7137200</v>
+        <v>2478300</v>
       </c>
       <c r="D7">
-        <v>15100</v>
+        <v>8500</v>
       </c>
       <c r="E7">
-        <v>62144757000</v>
+        <v>38206287000</v>
       </c>
       <c r="F7">
-        <v>131910616000</v>
+        <v>50557691000</v>
       </c>
       <c r="G7">
-        <v>226458000</v>
+        <v>405889000</v>
       </c>
       <c r="H7">
-        <v>10945700</v>
+        <v>4777200</v>
       </c>
       <c r="I7">
-        <v>194281831000</v>
+        <v>89169867000</v>
       </c>
       <c r="J7" t="str">
-        <v>2023-01-18T09:40:00.000Z</v>
+        <v>2023-01-18T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1384257600000</v>
+        <v>622351343000</v>
       </c>
       <c r="L7">
-        <v>78387000</v>
+        <v>35707000</v>
       </c>
       <c r="M7">
-        <v>3343800</v>
+        <v>187900</v>
       </c>
       <c r="N7">
-        <v>69765859000</v>
+        <v>12351404000</v>
       </c>
       <c r="O7">
-        <v>-1739400</v>
+        <v>1171600</v>
       </c>
       <c r="P7">
-        <v>39387234000</v>
+        <v>47548543000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1674035100000</v>
+        <v>1674033960000</v>
       </c>
       <c r="B8">
-        <v>3159800</v>
+        <v>2641100</v>
       </c>
       <c r="C8">
-        <v>9713800</v>
+        <v>2307000</v>
       </c>
       <c r="D8">
-        <v>55900</v>
+        <v>18500</v>
       </c>
       <c r="E8">
-        <v>52306685000</v>
+        <v>41147624000</v>
       </c>
       <c r="F8">
-        <v>165343410000</v>
+        <v>43168643000</v>
       </c>
       <c r="G8">
-        <v>805601000</v>
+        <v>349392000</v>
       </c>
       <c r="H8">
-        <v>12929500</v>
+        <v>4966600</v>
       </c>
       <c r="I8">
-        <v>218455696000</v>
+        <v>84665659000</v>
       </c>
       <c r="J8" t="str">
-        <v>2023-01-18T09:45:00.000Z</v>
+        <v>2023-01-18T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>1602713296000</v>
+        <v>707017002000</v>
       </c>
       <c r="L8">
-        <v>91316500</v>
+        <v>40673600</v>
       </c>
       <c r="M8">
-        <v>6554000</v>
+        <v>-334100</v>
       </c>
       <c r="N8">
-        <v>113036725000</v>
+        <v>2021019000</v>
       </c>
       <c r="O8">
-        <v>4814600</v>
+        <v>837500</v>
       </c>
       <c r="P8">
-        <v>152423959000</v>
+        <v>49569562000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1674035400000</v>
+        <v>1674034080000</v>
       </c>
       <c r="B9">
-        <v>4765800</v>
+        <v>3881800</v>
       </c>
       <c r="C9">
-        <v>4505800</v>
+        <v>1485700</v>
       </c>
       <c r="D9">
-        <v>43700</v>
+        <v>6500</v>
       </c>
       <c r="E9">
-        <v>78166039000</v>
+        <v>67024014000</v>
       </c>
       <c r="F9">
-        <v>87100785000</v>
+        <v>30889896000</v>
       </c>
       <c r="G9">
-        <v>909592000</v>
+        <v>112394000</v>
       </c>
       <c r="H9">
-        <v>9315300</v>
+        <v>5374000</v>
       </c>
       <c r="I9">
-        <v>166176416000</v>
+        <v>98026304000</v>
       </c>
       <c r="J9" t="str">
-        <v>2023-01-18T09:50:00.000Z</v>
+        <v>2023-01-18T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>1768889712000</v>
+        <v>805043306000</v>
       </c>
       <c r="L9">
-        <v>100631800</v>
+        <v>46047600</v>
       </c>
       <c r="M9">
-        <v>-260000</v>
+        <v>-2396100</v>
       </c>
       <c r="N9">
-        <v>8934746000</v>
+        <v>-36134118000</v>
       </c>
       <c r="O9">
-        <v>4554600</v>
+        <v>-1558600</v>
       </c>
       <c r="P9">
-        <v>161358705000</v>
+        <v>13435444000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1674035700000</v>
+        <v>1674034200000</v>
       </c>
       <c r="B10">
-        <v>4008600</v>
+        <v>4313700</v>
       </c>
       <c r="C10">
-        <v>4960400</v>
+        <v>1767500</v>
       </c>
       <c r="D10">
-        <v>47100</v>
+        <v>30800</v>
       </c>
       <c r="E10">
-        <v>63829316000</v>
+        <v>61476341000</v>
       </c>
       <c r="F10">
-        <v>96334894000</v>
+        <v>35470280000</v>
       </c>
       <c r="G10">
-        <v>819369000</v>
+        <v>474945000</v>
       </c>
       <c r="H10">
-        <v>9016100</v>
+        <v>6112000</v>
       </c>
       <c r="I10">
-        <v>160983579000</v>
+        <v>97421566000</v>
       </c>
       <c r="J10" t="str">
-        <v>2023-01-18T09:55:00.000Z</v>
+        <v>2023-01-18T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1929873291000</v>
+        <v>902464872000</v>
       </c>
       <c r="L10">
-        <v>109647900</v>
+        <v>52159600</v>
       </c>
       <c r="M10">
-        <v>951800</v>
+        <v>-2546200</v>
       </c>
       <c r="N10">
-        <v>32505578000</v>
+        <v>-26006061000</v>
       </c>
       <c r="O10">
-        <v>5506400</v>
+        <v>-4104800</v>
       </c>
       <c r="P10">
-        <v>193864283000</v>
+        <v>-12570617000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1674036000000</v>
+        <v>1674034320000</v>
       </c>
       <c r="B11">
-        <v>6629300</v>
+        <v>1830500</v>
       </c>
       <c r="C11">
-        <v>2748600</v>
+        <v>1854600</v>
       </c>
       <c r="D11">
-        <v>50500</v>
+        <v>11300</v>
       </c>
       <c r="E11">
-        <v>121839746000</v>
+        <v>33135083000</v>
       </c>
       <c r="F11">
-        <v>54370159000</v>
+        <v>38207497000</v>
       </c>
       <c r="G11">
-        <v>1439935000</v>
+        <v>184572000</v>
       </c>
       <c r="H11">
-        <v>9428400</v>
+        <v>3696400</v>
       </c>
       <c r="I11">
-        <v>177649840000</v>
+        <v>71527152000</v>
       </c>
       <c r="J11" t="str">
-        <v>2023-01-18T10:00:00.000Z</v>
+        <v>2023-01-18T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>2107523131000</v>
+        <v>973992024000</v>
       </c>
       <c r="L11">
-        <v>119076300</v>
+        <v>55856000</v>
       </c>
       <c r="M11">
-        <v>-3880700</v>
+        <v>24100</v>
       </c>
       <c r="N11">
-        <v>-67469587000</v>
+        <v>5072414000</v>
       </c>
       <c r="O11">
-        <v>1625700</v>
+        <v>-4080700</v>
       </c>
       <c r="P11">
-        <v>126394696000</v>
+        <v>-7498203000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1674036300000</v>
+        <v>1674034440000</v>
       </c>
       <c r="B12">
-        <v>5110500</v>
+        <v>1997800</v>
       </c>
       <c r="C12">
-        <v>3149100</v>
+        <v>1746700</v>
       </c>
       <c r="D12">
-        <v>58800</v>
+        <v>13000</v>
       </c>
       <c r="E12">
-        <v>93955970000</v>
+        <v>36700819000</v>
       </c>
       <c r="F12">
-        <v>62584341000</v>
+        <v>34015081000</v>
       </c>
       <c r="G12">
-        <v>882137000</v>
+        <v>300684000</v>
       </c>
       <c r="H12">
-        <v>8318400</v>
+        <v>3757500</v>
       </c>
       <c r="I12">
-        <v>157422448000</v>
+        <v>71016584000</v>
       </c>
       <c r="J12" t="str">
-        <v>2023-01-18T10:05:00.000Z</v>
+        <v>2023-01-18T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>2264945579000</v>
+        <v>1045008608000</v>
       </c>
       <c r="L12">
-        <v>127394700</v>
+        <v>59613500</v>
       </c>
       <c r="M12">
-        <v>-1961400</v>
+        <v>-251100</v>
       </c>
       <c r="N12">
-        <v>-31371629000</v>
+        <v>-2685738000</v>
       </c>
       <c r="O12">
-        <v>-335700</v>
+        <v>-4331800</v>
       </c>
       <c r="P12">
-        <v>95023067000</v>
+        <v>-10183941000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1674036600000</v>
+        <v>1674034560000</v>
       </c>
       <c r="B13">
-        <v>4789500</v>
+        <v>2159100</v>
       </c>
       <c r="C13">
-        <v>3322700</v>
+        <v>1499300</v>
       </c>
       <c r="D13">
-        <v>10400</v>
+        <v>6000</v>
       </c>
       <c r="E13">
-        <v>91370422000</v>
+        <v>41992951000</v>
       </c>
       <c r="F13">
-        <v>68414396000</v>
+        <v>28071171000</v>
       </c>
       <c r="G13">
-        <v>347584000</v>
+        <v>73561000</v>
       </c>
       <c r="H13">
-        <v>8122600</v>
+        <v>3664400</v>
       </c>
       <c r="I13">
-        <v>160132402000</v>
+        <v>70137683000</v>
       </c>
       <c r="J13" t="str">
-        <v>2023-01-18T10:10:00.000Z</v>
+        <v>2023-01-18T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>2425077981000</v>
+        <v>1115146291000</v>
       </c>
       <c r="L13">
-        <v>135517300</v>
+        <v>63277900</v>
       </c>
       <c r="M13">
-        <v>-1466800</v>
+        <v>-659800</v>
       </c>
       <c r="N13">
-        <v>-22956026000</v>
+        <v>-13921780000</v>
       </c>
       <c r="O13">
-        <v>-1802500</v>
+        <v>-4991600</v>
       </c>
       <c r="P13">
-        <v>72067041000</v>
+        <v>-24105721000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1674036900000</v>
+        <v>1674034680000</v>
       </c>
       <c r="B14">
-        <v>4097700</v>
+        <v>2082300</v>
       </c>
       <c r="C14">
-        <v>5377500</v>
+        <v>1990700</v>
       </c>
       <c r="D14">
-        <v>55500</v>
+        <v>90400</v>
       </c>
       <c r="E14">
-        <v>82795770000</v>
+        <v>40123425000</v>
       </c>
       <c r="F14">
-        <v>112364236000</v>
+        <v>33850521000</v>
       </c>
       <c r="G14">
-        <v>1105867000</v>
+        <v>855532000</v>
       </c>
       <c r="H14">
-        <v>9530700</v>
+        <v>4163400</v>
       </c>
       <c r="I14">
-        <v>196265873000</v>
+        <v>74829478000</v>
       </c>
       <c r="J14" t="str">
-        <v>2023-01-18T10:15:00.000Z</v>
+        <v>2023-01-18T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>2621343854000</v>
+        <v>1189975769000</v>
       </c>
       <c r="L14">
-        <v>145048000</v>
+        <v>67441300</v>
       </c>
       <c r="M14">
-        <v>1279800</v>
+        <v>-91600</v>
       </c>
       <c r="N14">
-        <v>29568466000</v>
+        <v>-6272904000</v>
       </c>
       <c r="O14">
-        <v>-522700</v>
+        <v>-5083200</v>
       </c>
       <c r="P14">
-        <v>101635507000</v>
+        <v>-30378625000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1674037200000</v>
+        <v>1674034800000</v>
       </c>
       <c r="B15">
-        <v>3265000</v>
+        <v>2002700</v>
       </c>
       <c r="C15">
-        <v>2960200</v>
+        <v>2438600</v>
       </c>
       <c r="D15">
-        <v>111200</v>
+        <v>1900</v>
       </c>
       <c r="E15">
-        <v>61933935000</v>
+        <v>34839571000</v>
       </c>
       <c r="F15">
-        <v>55902779000</v>
+        <v>48071628000</v>
       </c>
       <c r="G15">
-        <v>1182868000</v>
+        <v>43100000</v>
       </c>
       <c r="H15">
-        <v>6336400</v>
+        <v>4443200</v>
       </c>
       <c r="I15">
-        <v>119019582000</v>
+        <v>82954299000</v>
       </c>
       <c r="J15" t="str">
-        <v>2023-01-18T10:20:00.000Z</v>
+        <v>2023-01-18T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>2740363436000</v>
+        <v>1272930068000</v>
       </c>
       <c r="L15">
-        <v>151384400</v>
+        <v>71884500</v>
       </c>
       <c r="M15">
-        <v>-304800</v>
+        <v>435900</v>
       </c>
       <c r="N15">
-        <v>-6031156000</v>
+        <v>13232057000</v>
       </c>
       <c r="O15">
-        <v>-827500</v>
+        <v>-4647300</v>
       </c>
       <c r="P15">
-        <v>95604351000</v>
+        <v>-17146568000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1674037500000</v>
+        <v>1674034920000</v>
       </c>
       <c r="B16">
-        <v>3363000</v>
+        <v>1240200</v>
       </c>
       <c r="C16">
-        <v>2472700</v>
+        <v>3183600</v>
       </c>
       <c r="D16">
-        <v>15600</v>
+        <v>3100</v>
       </c>
       <c r="E16">
-        <v>65990994000</v>
+        <v>18353980000</v>
       </c>
       <c r="F16">
-        <v>49166262000</v>
+        <v>54830947000</v>
       </c>
       <c r="G16">
-        <v>293543000</v>
+        <v>36552000</v>
       </c>
       <c r="H16">
-        <v>5851300</v>
+        <v>4426900</v>
       </c>
       <c r="I16">
-        <v>115450799000</v>
+        <v>73221479000</v>
       </c>
       <c r="J16" t="str">
-        <v>2023-01-18T10:25:00.000Z</v>
+        <v>2023-01-18T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>2855814235000</v>
+        <v>1346151547000</v>
       </c>
       <c r="L16">
-        <v>157235700</v>
+        <v>76311400</v>
       </c>
       <c r="M16">
-        <v>-890300</v>
+        <v>1943400</v>
       </c>
       <c r="N16">
-        <v>-16824732000</v>
+        <v>36476967000</v>
       </c>
       <c r="O16">
-        <v>-1717800</v>
+        <v>-2703900</v>
       </c>
       <c r="P16">
-        <v>78779619000</v>
+        <v>19330399000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1674037800000</v>
+        <v>1674035040000</v>
       </c>
       <c r="B17">
-        <v>2530600</v>
+        <v>1251700</v>
       </c>
       <c r="C17">
-        <v>3327500</v>
+        <v>3860600</v>
       </c>
       <c r="D17">
-        <v>23900</v>
+        <v>12500</v>
       </c>
       <c r="E17">
-        <v>41575115000</v>
+        <v>20397550000</v>
       </c>
       <c r="F17">
-        <v>65641716000</v>
+        <v>67268670000</v>
       </c>
       <c r="G17">
-        <v>457629000</v>
+        <v>210886000</v>
       </c>
       <c r="H17">
-        <v>5882000</v>
+        <v>5124800</v>
       </c>
       <c r="I17">
-        <v>107674460000</v>
+        <v>87877106000</v>
       </c>
       <c r="J17" t="str">
-        <v>2023-01-18T10:30:00.000Z</v>
+        <v>2023-01-18T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>2963488695000</v>
+        <v>1434028653000</v>
       </c>
       <c r="L17">
-        <v>163117700</v>
+        <v>81436200</v>
       </c>
       <c r="M17">
-        <v>796900</v>
+        <v>2608900</v>
       </c>
       <c r="N17">
-        <v>24066601000</v>
+        <v>46871120000</v>
       </c>
       <c r="O17">
-        <v>-920900</v>
+        <v>-95000</v>
       </c>
       <c r="P17">
-        <v>102846220000</v>
+        <v>66201519000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1674038100000</v>
+        <v>1674035160000</v>
       </c>
       <c r="B18">
-        <v>2062100</v>
+        <v>1052100</v>
       </c>
       <c r="C18">
-        <v>6302400</v>
+        <v>4437100</v>
       </c>
       <c r="D18">
-        <v>25700</v>
+        <v>3300</v>
       </c>
       <c r="E18">
-        <v>33360937000</v>
+        <v>19083977000</v>
       </c>
       <c r="F18">
-        <v>132821000000</v>
+        <v>77388949000</v>
       </c>
       <c r="G18">
-        <v>476756000</v>
+        <v>141373000</v>
       </c>
       <c r="H18">
-        <v>8390200</v>
+        <v>5492500</v>
       </c>
       <c r="I18">
-        <v>166658693000</v>
+        <v>96614299000</v>
       </c>
       <c r="J18" t="str">
-        <v>2023-01-18T10:35:00.000Z</v>
+        <v>2023-01-18T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>3130147388000</v>
+        <v>1530642952000</v>
       </c>
       <c r="L18">
-        <v>171507900</v>
+        <v>86928700</v>
       </c>
       <c r="M18">
-        <v>4240300</v>
+        <v>3385000</v>
       </c>
       <c r="N18">
-        <v>99460063000</v>
+        <v>58304972000</v>
       </c>
       <c r="O18">
-        <v>3319400</v>
+        <v>3290000</v>
       </c>
       <c r="P18">
-        <v>202306283000</v>
+        <v>124506491000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1674038400000</v>
+        <v>1674035280000</v>
       </c>
       <c r="B19">
-        <v>2182700</v>
+        <v>1406500</v>
       </c>
       <c r="C19">
-        <v>7901300</v>
+        <v>2931100</v>
       </c>
       <c r="D19">
-        <v>9200</v>
+        <v>50200</v>
       </c>
       <c r="E19">
-        <v>34108519000</v>
+        <v>21776364000</v>
       </c>
       <c r="F19">
-        <v>136328798000</v>
+        <v>49693832000</v>
       </c>
       <c r="G19">
-        <v>151031000</v>
+        <v>600148000</v>
       </c>
       <c r="H19">
-        <v>10093200</v>
+        <v>4387800</v>
       </c>
       <c r="I19">
-        <v>170588348000</v>
+        <v>72070344000</v>
       </c>
       <c r="J19" t="str">
-        <v>2023-01-18T10:40:00.000Z</v>
+        <v>2023-01-18T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>3300735736000</v>
+        <v>1602713296000</v>
       </c>
       <c r="L19">
-        <v>181601100</v>
+        <v>91316500</v>
       </c>
       <c r="M19">
-        <v>5718600</v>
+        <v>1524600</v>
       </c>
       <c r="N19">
-        <v>102220279000</v>
+        <v>27917468000</v>
       </c>
       <c r="O19">
-        <v>9038000</v>
+        <v>4814600</v>
       </c>
       <c r="P19">
-        <v>304526562000</v>
+        <v>152423959000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1674038700000</v>
+        <v>1674035400000</v>
       </c>
       <c r="B20">
-        <v>3368100</v>
+        <v>1954500</v>
       </c>
       <c r="C20">
-        <v>6825400</v>
+        <v>1829100</v>
       </c>
       <c r="D20">
-        <v>18300</v>
+        <v>6200</v>
       </c>
       <c r="E20">
-        <v>57411153000</v>
+        <v>33500824000</v>
       </c>
       <c r="F20">
-        <v>103486449000</v>
+        <v>38644018000</v>
       </c>
       <c r="G20">
-        <v>303990000</v>
+        <v>237325000</v>
       </c>
       <c r="H20">
-        <v>10211800</v>
+        <v>3789800</v>
       </c>
       <c r="I20">
-        <v>161201592000</v>
+        <v>72382167000</v>
       </c>
       <c r="J20" t="str">
-        <v>2023-01-18T10:45:00.000Z</v>
+        <v>2023-01-18T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>3461937328000</v>
+        <v>1675095463000</v>
       </c>
       <c r="L20">
-        <v>191812900</v>
+        <v>95106300</v>
       </c>
       <c r="M20">
-        <v>3457300</v>
+        <v>-125400</v>
       </c>
       <c r="N20">
-        <v>46075296000</v>
+        <v>5143194000</v>
       </c>
       <c r="O20">
-        <v>12495300</v>
+        <v>4689200</v>
       </c>
       <c r="P20">
-        <v>350601858000</v>
+        <v>157567153000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1674039000000</v>
+        <v>1674035520000</v>
       </c>
       <c r="B21">
-        <v>3424600</v>
+        <v>1943100</v>
       </c>
       <c r="C21">
-        <v>7748300</v>
+        <v>1751800</v>
       </c>
       <c r="D21">
-        <v>83200</v>
+        <v>32100</v>
       </c>
       <c r="E21">
-        <v>55519760000</v>
+        <v>33555904000</v>
       </c>
       <c r="F21">
-        <v>145426224000</v>
+        <v>32479042000</v>
       </c>
       <c r="G21">
-        <v>958161000</v>
+        <v>496952000</v>
       </c>
       <c r="H21">
-        <v>11256100</v>
+        <v>3727000</v>
       </c>
       <c r="I21">
-        <v>201904145000</v>
+        <v>66531898000</v>
       </c>
       <c r="J21" t="str">
-        <v>2023-01-18T10:50:00.000Z</v>
+        <v>2023-01-18T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>3663841473000</v>
+        <v>1741627361000</v>
       </c>
       <c r="L21">
-        <v>203069000</v>
+        <v>98833300</v>
       </c>
       <c r="M21">
-        <v>4323700</v>
+        <v>-191300</v>
       </c>
       <c r="N21">
-        <v>89906464000</v>
+        <v>-1076862000</v>
       </c>
       <c r="O21">
-        <v>16819000</v>
+        <v>4497900</v>
       </c>
       <c r="P21">
-        <v>440508322000</v>
+        <v>156490291000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1674039300000</v>
+        <v>1674035640000</v>
       </c>
       <c r="B22">
-        <v>4898800</v>
+        <v>1642700</v>
       </c>
       <c r="C22">
-        <v>4626900</v>
+        <v>1850900</v>
       </c>
       <c r="D22">
-        <v>53600</v>
+        <v>7500</v>
       </c>
       <c r="E22">
-        <v>82030481000</v>
+        <v>24388932000</v>
       </c>
       <c r="F22">
-        <v>72062492000</v>
+        <v>31246563000</v>
       </c>
       <c r="G22">
-        <v>1284087000</v>
+        <v>229183000</v>
       </c>
       <c r="H22">
-        <v>9579300</v>
+        <v>3501100</v>
       </c>
       <c r="I22">
-        <v>155377060000</v>
+        <v>55864678000</v>
       </c>
       <c r="J22" t="str">
-        <v>2023-01-18T10:55:00.000Z</v>
+        <v>2023-01-18T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>3819218533000</v>
+        <v>1797492039000</v>
       </c>
       <c r="L22">
-        <v>212648300</v>
+        <v>102334400</v>
       </c>
       <c r="M22">
-        <v>-271900</v>
+        <v>208200</v>
       </c>
       <c r="N22">
-        <v>-9967989000</v>
+        <v>6857631000</v>
       </c>
       <c r="O22">
-        <v>16547100</v>
+        <v>4706100</v>
       </c>
       <c r="P22">
-        <v>430540333000</v>
+        <v>163347922000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1674039600000</v>
+        <v>1674035760000</v>
       </c>
       <c r="B23">
-        <v>4919600</v>
+        <v>1912400</v>
       </c>
       <c r="C23">
-        <v>3593900</v>
+        <v>1643200</v>
       </c>
       <c r="D23">
-        <v>30000</v>
+        <v>43900</v>
       </c>
       <c r="E23">
-        <v>83454122000</v>
+        <v>29071166000</v>
       </c>
       <c r="F23">
-        <v>61423133000</v>
+        <v>32511840000</v>
       </c>
       <c r="G23">
-        <v>442696000</v>
+        <v>754570000</v>
       </c>
       <c r="H23">
-        <v>8543500</v>
+        <v>3599500</v>
       </c>
       <c r="I23">
-        <v>145319951000</v>
+        <v>62337576000</v>
       </c>
       <c r="J23" t="str">
-        <v>2023-01-18T11:00:00.000Z</v>
+        <v>2023-01-18T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>3964538484000</v>
+        <v>1859829615000</v>
       </c>
       <c r="L23">
-        <v>221191800</v>
+        <v>105933900</v>
       </c>
       <c r="M23">
-        <v>-1325700</v>
+        <v>-269200</v>
       </c>
       <c r="N23">
-        <v>-22030989000</v>
+        <v>3440674000</v>
       </c>
       <c r="O23">
-        <v>15221400</v>
+        <v>4436900</v>
       </c>
       <c r="P23">
-        <v>408509344000</v>
+        <v>166788596000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1674039900000</v>
+        <v>1674035880000</v>
       </c>
       <c r="B24">
-        <v>4133100</v>
+        <v>1321700</v>
       </c>
       <c r="C24">
-        <v>6559300</v>
+        <v>2391200</v>
       </c>
       <c r="D24">
-        <v>12400</v>
+        <v>1100</v>
       </c>
       <c r="E24">
-        <v>72705402000</v>
+        <v>21478529000</v>
       </c>
       <c r="F24">
-        <v>91085931000</v>
+        <v>48554216000</v>
       </c>
       <c r="G24">
-        <v>134510000</v>
+        <v>10931000</v>
       </c>
       <c r="H24">
-        <v>10704800</v>
+        <v>3714000</v>
       </c>
       <c r="I24">
-        <v>163925843000</v>
+        <v>70043676000</v>
       </c>
       <c r="J24" t="str">
-        <v>2023-01-18T11:05:00.000Z</v>
+        <v>2023-01-18T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>4128464327000</v>
+        <v>1929873291000</v>
       </c>
       <c r="L24">
-        <v>231896600</v>
+        <v>109647900</v>
       </c>
       <c r="M24">
-        <v>2426200</v>
+        <v>1069500</v>
       </c>
       <c r="N24">
-        <v>18380529000</v>
+        <v>27075687000</v>
       </c>
       <c r="O24">
-        <v>17647600</v>
+        <v>5506400</v>
       </c>
       <c r="P24">
-        <v>426889873000</v>
+        <v>193864283000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1674040200000</v>
+        <v>1674036000000</v>
       </c>
       <c r="B25">
-        <v>3338900</v>
+        <v>1831800</v>
       </c>
       <c r="C25">
-        <v>4711900</v>
+        <v>1154400</v>
       </c>
       <c r="D25">
-        <v>36900</v>
+        <v>7400</v>
       </c>
       <c r="E25">
-        <v>53025003000</v>
+        <v>33809577000</v>
       </c>
       <c r="F25">
-        <v>68643644000</v>
+        <v>22277196000</v>
       </c>
       <c r="G25">
-        <v>459819000</v>
+        <v>217940000</v>
       </c>
       <c r="H25">
-        <v>8087700</v>
+        <v>2993600</v>
       </c>
       <c r="I25">
-        <v>122128466000</v>
+        <v>56304713000</v>
       </c>
       <c r="J25" t="str">
-        <v>2023-01-18T11:10:00.000Z</v>
+        <v>2023-01-18T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>4250592793000</v>
+        <v>1986178004000</v>
       </c>
       <c r="L25">
-        <v>239984300</v>
+        <v>112641500</v>
       </c>
       <c r="M25">
-        <v>1373000</v>
+        <v>-677400</v>
       </c>
       <c r="N25">
-        <v>15618641000</v>
+        <v>-11532381000</v>
       </c>
       <c r="O25">
-        <v>19020600</v>
+        <v>4829000</v>
       </c>
       <c r="P25">
-        <v>442508514000</v>
+        <v>182331902000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1674040500000</v>
+        <v>1674036120000</v>
       </c>
       <c r="B26">
-        <v>2990200</v>
+        <v>2647900</v>
       </c>
       <c r="C26">
-        <v>5478900</v>
+        <v>1143100</v>
       </c>
       <c r="D26">
-        <v>13200</v>
+        <v>16900</v>
       </c>
       <c r="E26">
-        <v>50707414000</v>
+        <v>50530297000</v>
       </c>
       <c r="F26">
-        <v>95079883000</v>
+        <v>22303921000</v>
       </c>
       <c r="G26">
-        <v>266471000</v>
+        <v>388910000</v>
       </c>
       <c r="H26">
-        <v>8482300</v>
+        <v>3807900</v>
       </c>
       <c r="I26">
-        <v>146053768000</v>
+        <v>73223128000</v>
       </c>
       <c r="J26" t="str">
-        <v>2023-01-18T11:15:00.000Z</v>
+        <v>2023-01-18T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>4396646561000</v>
+        <v>2059401132000</v>
       </c>
       <c r="L26">
-        <v>248466600</v>
+        <v>116449400</v>
       </c>
       <c r="M26">
-        <v>2488700</v>
+        <v>-1504800</v>
       </c>
       <c r="N26">
-        <v>44372469000</v>
+        <v>-28226376000</v>
       </c>
       <c r="O26">
-        <v>21509300</v>
+        <v>3324200</v>
       </c>
       <c r="P26">
-        <v>486880983000</v>
+        <v>154105526000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1674040800000</v>
+        <v>1674036240000</v>
       </c>
       <c r="B27">
-        <v>2354300</v>
+        <v>3117100</v>
       </c>
       <c r="C27">
-        <v>4033900</v>
+        <v>1060600</v>
       </c>
       <c r="D27">
-        <v>44600</v>
+        <v>31000</v>
       </c>
       <c r="E27">
-        <v>41770684000</v>
+        <v>55734142000</v>
       </c>
       <c r="F27">
-        <v>76218752000</v>
+        <v>23181465000</v>
       </c>
       <c r="G27">
-        <v>1284429000</v>
+        <v>878395000</v>
       </c>
       <c r="H27">
-        <v>6432800</v>
+        <v>4208700</v>
       </c>
       <c r="I27">
-        <v>119273865000</v>
+        <v>79794002000</v>
       </c>
       <c r="J27" t="str">
-        <v>2023-01-18T11:20:00.000Z</v>
+        <v>2023-01-18T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>4515920426000</v>
+        <v>2139195134000</v>
       </c>
       <c r="L27">
-        <v>254899400</v>
+        <v>120658100</v>
       </c>
       <c r="M27">
-        <v>1679600</v>
+        <v>-2056500</v>
       </c>
       <c r="N27">
-        <v>34448068000</v>
+        <v>-32552677000</v>
       </c>
       <c r="O27">
-        <v>23188900</v>
+        <v>1267700</v>
       </c>
       <c r="P27">
-        <v>521329051000</v>
+        <v>121552849000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1674041100000</v>
+        <v>1674036360000</v>
       </c>
       <c r="B28">
-        <v>2432400</v>
+        <v>2156500</v>
       </c>
       <c r="C28">
-        <v>3120300</v>
+        <v>1251000</v>
       </c>
       <c r="D28">
-        <v>14900</v>
+        <v>23400</v>
       </c>
       <c r="E28">
-        <v>39847210000</v>
+        <v>40410391000</v>
       </c>
       <c r="F28">
-        <v>56277853000</v>
+        <v>26161146000</v>
       </c>
       <c r="G28">
-        <v>377623000</v>
+        <v>388260000</v>
       </c>
       <c r="H28">
-        <v>5567600</v>
+        <v>3430900</v>
       </c>
       <c r="I28">
-        <v>96502686000</v>
+        <v>66959797000</v>
       </c>
       <c r="J28" t="str">
-        <v>2023-01-18T11:25:00.000Z</v>
+        <v>2023-01-18T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>4612423112000</v>
+        <v>2206154931000</v>
       </c>
       <c r="L28">
-        <v>260467000</v>
+        <v>124089000</v>
       </c>
       <c r="M28">
-        <v>687900</v>
+        <v>-905500</v>
       </c>
       <c r="N28">
-        <v>16430643000</v>
+        <v>-14249245000</v>
       </c>
       <c r="O28">
-        <v>23876800</v>
+        <v>362200</v>
       </c>
       <c r="P28">
-        <v>537759694000</v>
+        <v>107303604000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1674041400000</v>
+        <v>1674036480000</v>
       </c>
       <c r="B29">
-        <v>300</v>
+        <v>1986500</v>
       </c>
       <c r="C29">
-        <v>1100</v>
+        <v>1288600</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>30600</v>
       </c>
       <c r="E29">
-        <v>3286000</v>
+        <v>35311309000</v>
       </c>
       <c r="F29">
-        <v>17600000</v>
+        <v>23030772000</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>448567000</v>
       </c>
       <c r="H29">
-        <v>1400</v>
+        <v>3305700</v>
       </c>
       <c r="I29">
-        <v>20886000</v>
+        <v>58790648000</v>
       </c>
       <c r="J29" t="str">
-        <v>2023-01-18T11:30:00.000Z</v>
+        <v>2023-01-18T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>4612443998000</v>
+        <v>2264945579000</v>
       </c>
       <c r="L29">
-        <v>260468400</v>
+        <v>127394700</v>
       </c>
       <c r="M29">
-        <v>800</v>
+        <v>-697900</v>
       </c>
       <c r="N29">
-        <v>14314000</v>
+        <v>-12280537000</v>
       </c>
       <c r="O29">
-        <v>23877600</v>
+        <v>-335700</v>
       </c>
       <c r="P29">
-        <v>537774008000</v>
+        <v>95023067000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1674046800000</v>
+        <v>1674036600000</v>
       </c>
       <c r="B30">
-        <v>8908900</v>
+        <v>1851400</v>
       </c>
       <c r="C30">
-        <v>7286500</v>
+        <v>1660300</v>
       </c>
       <c r="D30">
-        <v>310700</v>
+        <v>6100</v>
       </c>
       <c r="E30">
-        <v>130886568000</v>
+        <v>37156455000</v>
       </c>
       <c r="F30">
-        <v>134597278000</v>
+        <v>37240939000</v>
       </c>
       <c r="G30">
-        <v>5132860000</v>
+        <v>246687000</v>
       </c>
       <c r="H30">
-        <v>16506100</v>
+        <v>3517800</v>
       </c>
       <c r="I30">
-        <v>270616706000</v>
+        <v>74644081000</v>
       </c>
       <c r="J30" t="str">
-        <v>2023-01-18T13:00:00.000Z</v>
+        <v>2023-01-18T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>4883060704000</v>
+        <v>2339589660000</v>
       </c>
       <c r="L30">
-        <v>276974500</v>
+        <v>130912500</v>
       </c>
       <c r="M30">
-        <v>-1622400</v>
+        <v>-191100</v>
       </c>
       <c r="N30">
-        <v>3710710000</v>
+        <v>84484000</v>
       </c>
       <c r="O30">
-        <v>22255200</v>
+        <v>-526800</v>
       </c>
       <c r="P30">
-        <v>541484718000</v>
+        <v>95107551000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1674047100000</v>
+        <v>1674036720000</v>
       </c>
       <c r="B31">
-        <v>6164200</v>
+        <v>2072800</v>
       </c>
       <c r="C31">
-        <v>3604000</v>
+        <v>1165300</v>
       </c>
       <c r="D31">
-        <v>117900</v>
+        <v>3900</v>
       </c>
       <c r="E31">
-        <v>103198950000</v>
+        <v>40070166000</v>
       </c>
       <c r="F31">
-        <v>60083500000</v>
+        <v>20937216000</v>
       </c>
       <c r="G31">
-        <v>1000039000</v>
+        <v>92537000</v>
       </c>
       <c r="H31">
-        <v>9886100</v>
+        <v>3242000</v>
       </c>
       <c r="I31">
-        <v>164282489000</v>
+        <v>61099919000</v>
       </c>
       <c r="J31" t="str">
-        <v>2023-01-18T13:05:00.000Z</v>
+        <v>2023-01-18T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>5047343193000</v>
+        <v>2400689579000</v>
       </c>
       <c r="L31">
-        <v>286860600</v>
+        <v>134154500</v>
       </c>
       <c r="M31">
-        <v>-2560200</v>
+        <v>-907500</v>
       </c>
       <c r="N31">
-        <v>-43115450000</v>
+        <v>-19132950000</v>
       </c>
       <c r="O31">
-        <v>19695000</v>
+        <v>-1434300</v>
       </c>
       <c r="P31">
-        <v>498369268000</v>
+        <v>75974601000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1674047400000</v>
+        <v>1674036840000</v>
       </c>
       <c r="B32">
-        <v>6029600</v>
+        <v>1960400</v>
       </c>
       <c r="C32">
-        <v>3990000</v>
+        <v>1306900</v>
       </c>
       <c r="D32">
-        <v>73300</v>
+        <v>10500</v>
       </c>
       <c r="E32">
-        <v>96695905000</v>
+        <v>35053306000</v>
       </c>
       <c r="F32">
-        <v>71288232000</v>
+        <v>29100504000</v>
       </c>
       <c r="G32">
-        <v>691713000</v>
+        <v>201264000</v>
       </c>
       <c r="H32">
-        <v>10092900</v>
+        <v>3277800</v>
       </c>
       <c r="I32">
-        <v>168675850000</v>
+        <v>64355074000</v>
       </c>
       <c r="J32" t="str">
-        <v>2023-01-18T13:10:00.000Z</v>
+        <v>2023-01-18T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>5216019043000</v>
+        <v>2465044653000</v>
       </c>
       <c r="L32">
-        <v>296953500</v>
+        <v>137432300</v>
       </c>
       <c r="M32">
-        <v>-2039600</v>
+        <v>-653500</v>
       </c>
       <c r="N32">
-        <v>-25407673000</v>
+        <v>-5952802000</v>
       </c>
       <c r="O32">
-        <v>17655400</v>
+        <v>-2087800</v>
       </c>
       <c r="P32">
-        <v>472961595000</v>
+        <v>70021799000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1674047700000</v>
+        <v>1674036960000</v>
       </c>
       <c r="B33">
-        <v>3520300</v>
+        <v>1767300</v>
       </c>
       <c r="C33">
-        <v>3727800</v>
+        <v>2626600</v>
       </c>
       <c r="D33">
-        <v>37800</v>
+        <v>32400</v>
       </c>
       <c r="E33">
-        <v>58121202000</v>
+        <v>36710812000</v>
       </c>
       <c r="F33">
-        <v>64111953000</v>
+        <v>57853729000</v>
       </c>
       <c r="G33">
-        <v>893123000</v>
+        <v>607164000</v>
       </c>
       <c r="H33">
-        <v>7285900</v>
+        <v>4426300</v>
       </c>
       <c r="I33">
-        <v>123126278000</v>
+        <v>95171705000</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-01-18T13:15:00.000Z</v>
+        <v>2023-01-18T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>5339145321000</v>
+        <v>2560216358000</v>
       </c>
       <c r="L33">
-        <v>304239400</v>
+        <v>141858600</v>
       </c>
       <c r="M33">
-        <v>207500</v>
+        <v>859300</v>
       </c>
       <c r="N33">
-        <v>5990751000</v>
+        <v>21142917000</v>
       </c>
       <c r="O33">
-        <v>17862900</v>
+        <v>-1228500</v>
       </c>
       <c r="P33">
-        <v>478952346000</v>
+        <v>91164716000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1674048000000</v>
+        <v>1674037080000</v>
       </c>
       <c r="B34">
-        <v>8969400</v>
+        <v>1235300</v>
       </c>
       <c r="C34">
-        <v>3425600</v>
+        <v>1941100</v>
       </c>
       <c r="D34">
-        <v>55400</v>
+        <v>13000</v>
       </c>
       <c r="E34">
-        <v>144201273000</v>
+        <v>25175453000</v>
       </c>
       <c r="F34">
-        <v>70694898000</v>
+        <v>35646244000</v>
       </c>
       <c r="G34">
-        <v>589388000</v>
+        <v>305799000</v>
       </c>
       <c r="H34">
-        <v>12450400</v>
+        <v>3189400</v>
       </c>
       <c r="I34">
-        <v>215485559000</v>
+        <v>61127496000</v>
       </c>
       <c r="J34" t="str">
-        <v>2023-01-18T13:20:00.000Z</v>
+        <v>2023-01-18T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>5554630880000</v>
+        <v>2621343854000</v>
       </c>
       <c r="L34">
-        <v>316689800</v>
+        <v>145048000</v>
       </c>
       <c r="M34">
-        <v>-5543800</v>
+        <v>705800</v>
       </c>
       <c r="N34">
-        <v>-73506375000</v>
+        <v>10470791000</v>
       </c>
       <c r="O34">
-        <v>12319100</v>
+        <v>-522700</v>
       </c>
       <c r="P34">
-        <v>405445971000</v>
+        <v>101635507000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1674048300000</v>
+        <v>1674037200000</v>
       </c>
       <c r="B35">
-        <v>4455600</v>
+        <v>1386300</v>
       </c>
       <c r="C35">
-        <v>8110100</v>
+        <v>1292800</v>
       </c>
       <c r="D35">
-        <v>50800</v>
+        <v>5400</v>
       </c>
       <c r="E35">
-        <v>67796437000</v>
+        <v>26491003000</v>
       </c>
       <c r="F35">
-        <v>160819848000</v>
+        <v>22645081000</v>
       </c>
       <c r="G35">
-        <v>741016000</v>
+        <v>145303000</v>
       </c>
       <c r="H35">
-        <v>12616500</v>
+        <v>2684500</v>
       </c>
       <c r="I35">
-        <v>229357301000</v>
+        <v>49281387000</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-01-18T13:25:00.000Z</v>
+        <v>2023-01-18T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>5783988181000</v>
+        <v>2670625241000</v>
       </c>
       <c r="L35">
-        <v>329306300</v>
+        <v>147732500</v>
       </c>
       <c r="M35">
-        <v>3654500</v>
+        <v>-93500</v>
       </c>
       <c r="N35">
-        <v>93023411000</v>
+        <v>-3845922000</v>
       </c>
       <c r="O35">
-        <v>15973600</v>
+        <v>-616200</v>
       </c>
       <c r="P35">
-        <v>498469382000</v>
+        <v>97789585000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1674048600000</v>
+        <v>1674037320000</v>
       </c>
       <c r="B36">
-        <v>5122600</v>
+        <v>1204200</v>
       </c>
       <c r="C36">
-        <v>5964200</v>
+        <v>1187200</v>
       </c>
       <c r="D36">
-        <v>40100</v>
+        <v>103500</v>
       </c>
       <c r="E36">
-        <v>87748329000</v>
+        <v>22593131000</v>
       </c>
       <c r="F36">
-        <v>105055314000</v>
+        <v>24368804000</v>
       </c>
       <c r="G36">
-        <v>752726000</v>
+        <v>1012903000</v>
       </c>
       <c r="H36">
-        <v>11126900</v>
+        <v>2494900</v>
       </c>
       <c r="I36">
-        <v>193556369000</v>
+        <v>47974838000</v>
       </c>
       <c r="J36" t="str">
-        <v>2023-01-18T13:30:00.000Z</v>
+        <v>2023-01-18T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>5977544550000</v>
+        <v>2718600079000</v>
       </c>
       <c r="L36">
-        <v>340433200</v>
+        <v>150227400</v>
       </c>
       <c r="M36">
-        <v>841600</v>
+        <v>-17000</v>
       </c>
       <c r="N36">
-        <v>17306985000</v>
+        <v>1775673000</v>
       </c>
       <c r="O36">
-        <v>16815200</v>
+        <v>-633200</v>
       </c>
       <c r="P36">
-        <v>515776367000</v>
+        <v>99565258000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1674048900000</v>
+        <v>1674037440000</v>
       </c>
       <c r="B37">
-        <v>3842000</v>
+        <v>1600600</v>
       </c>
       <c r="C37">
-        <v>6224600</v>
+        <v>1007600</v>
       </c>
       <c r="D37">
-        <v>137800</v>
+        <v>5800</v>
       </c>
       <c r="E37">
-        <v>62806300000</v>
+        <v>30898123000</v>
       </c>
       <c r="F37">
-        <v>111576798000</v>
+        <v>21639960000</v>
       </c>
       <c r="G37">
-        <v>764159000</v>
+        <v>99279000</v>
       </c>
       <c r="H37">
-        <v>10204400</v>
+        <v>2614000</v>
       </c>
       <c r="I37">
-        <v>175147257000</v>
+        <v>52637362000</v>
       </c>
       <c r="J37" t="str">
-        <v>2023-01-18T13:35:00.000Z</v>
+        <v>2023-01-18T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>6152691807000</v>
+        <v>2771237441000</v>
       </c>
       <c r="L37">
-        <v>350637600</v>
+        <v>152841400</v>
       </c>
       <c r="M37">
-        <v>2382600</v>
+        <v>-593000</v>
       </c>
       <c r="N37">
-        <v>48770498000</v>
+        <v>-9258163000</v>
       </c>
       <c r="O37">
-        <v>19197800</v>
+        <v>-1226200</v>
       </c>
       <c r="P37">
-        <v>564546865000</v>
+        <v>90307095000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1674049200000</v>
+        <v>1674037560000</v>
       </c>
       <c r="B38">
-        <v>4305500</v>
+        <v>1118700</v>
       </c>
       <c r="C38">
-        <v>7009900</v>
+        <v>971000</v>
       </c>
       <c r="D38">
-        <v>59100</v>
+        <v>5000</v>
       </c>
       <c r="E38">
-        <v>67943731000</v>
+        <v>22321186000</v>
       </c>
       <c r="F38">
-        <v>108510143000</v>
+        <v>18446955000</v>
       </c>
       <c r="G38">
-        <v>1200847000</v>
+        <v>55555000</v>
       </c>
       <c r="H38">
-        <v>11374500</v>
+        <v>2094700</v>
       </c>
       <c r="I38">
-        <v>177654721000</v>
+        <v>40823696000</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-01-18T13:40:00.000Z</v>
+        <v>2023-01-18T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>6330346528000</v>
+        <v>2812061137000</v>
       </c>
       <c r="L38">
-        <v>362012100</v>
+        <v>154936100</v>
       </c>
       <c r="M38">
-        <v>2704400</v>
+        <v>-147700</v>
       </c>
       <c r="N38">
-        <v>40566412000</v>
+        <v>-3874231000</v>
       </c>
       <c r="O38">
-        <v>21902200</v>
+        <v>-1373900</v>
       </c>
       <c r="P38">
-        <v>605113277000</v>
+        <v>86432864000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1674049500000</v>
+        <v>1674037680000</v>
       </c>
       <c r="B39">
-        <v>3672000</v>
+        <v>1318200</v>
       </c>
       <c r="C39">
-        <v>8326900</v>
+        <v>974300</v>
       </c>
       <c r="D39">
-        <v>28100</v>
+        <v>7100</v>
       </c>
       <c r="E39">
-        <v>60909203000</v>
+        <v>25621486000</v>
       </c>
       <c r="F39">
-        <v>142588804000</v>
+        <v>17968241000</v>
       </c>
       <c r="G39">
-        <v>617380000</v>
+        <v>163371000</v>
       </c>
       <c r="H39">
-        <v>12027000</v>
+        <v>2299600</v>
       </c>
       <c r="I39">
-        <v>204115387000</v>
+        <v>43753098000</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-01-18T13:45:00.000Z</v>
+        <v>2023-01-18T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>6534461915000</v>
+        <v>2855814235000</v>
       </c>
       <c r="L39">
-        <v>374039100</v>
+        <v>157235700</v>
       </c>
       <c r="M39">
-        <v>4654900</v>
+        <v>-343900</v>
       </c>
       <c r="N39">
-        <v>81679601000</v>
+        <v>-7653245000</v>
       </c>
       <c r="O39">
-        <v>26557100</v>
+        <v>-1717800</v>
       </c>
       <c r="P39">
-        <v>686792878000</v>
+        <v>78779619000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1674049800000</v>
+        <v>1674037800000</v>
       </c>
       <c r="B40">
-        <v>4495400</v>
+        <v>1119000</v>
       </c>
       <c r="C40">
-        <v>13128200</v>
+        <v>1079500</v>
       </c>
       <c r="D40">
-        <v>52200</v>
+        <v>12300</v>
       </c>
       <c r="E40">
-        <v>69051596000</v>
+        <v>17868702000</v>
       </c>
       <c r="F40">
-        <v>221139238000</v>
+        <v>20852010000</v>
       </c>
       <c r="G40">
-        <v>789912000</v>
+        <v>253055000</v>
       </c>
       <c r="H40">
-        <v>17675800</v>
+        <v>2210800</v>
       </c>
       <c r="I40">
-        <v>290980746000</v>
+        <v>38973767000</v>
       </c>
       <c r="J40" t="str">
-        <v>2023-01-18T13:50:00.000Z</v>
+        <v>2023-01-18T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>6825442661000</v>
+        <v>2894788002000</v>
       </c>
       <c r="L40">
-        <v>391714900</v>
+        <v>159446500</v>
       </c>
       <c r="M40">
-        <v>8632800</v>
+        <v>-39500</v>
       </c>
       <c r="N40">
-        <v>152087642000</v>
+        <v>2983308000</v>
       </c>
       <c r="O40">
-        <v>35189900</v>
+        <v>-1757300</v>
       </c>
       <c r="P40">
-        <v>838880520000</v>
+        <v>81762927000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1674050100000</v>
+        <v>1674037920000</v>
       </c>
       <c r="B41">
-        <v>5906700</v>
+        <v>1066800</v>
       </c>
       <c r="C41">
-        <v>6702800</v>
+        <v>1208300</v>
       </c>
       <c r="D41">
-        <v>25900</v>
+        <v>9200</v>
       </c>
       <c r="E41">
-        <v>95492804000</v>
+        <v>18269956000</v>
       </c>
       <c r="F41">
-        <v>125834034000</v>
+        <v>21844181000</v>
       </c>
       <c r="G41">
-        <v>575785000</v>
+        <v>175534000</v>
       </c>
       <c r="H41">
-        <v>12635400</v>
+        <v>2284300</v>
       </c>
       <c r="I41">
-        <v>221902623000</v>
+        <v>40289671000</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-01-18T13:55:00.000Z</v>
+        <v>2023-01-18T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>7047345284000</v>
+        <v>2935077673000</v>
       </c>
       <c r="L41">
-        <v>404350300</v>
+        <v>161730800</v>
       </c>
       <c r="M41">
-        <v>796100</v>
+        <v>141500</v>
       </c>
       <c r="N41">
-        <v>30341230000</v>
+        <v>3574225000</v>
       </c>
       <c r="O41">
-        <v>35986000</v>
+        <v>-1615800</v>
       </c>
       <c r="P41">
-        <v>869221750000</v>
+        <v>85337152000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1674050400000</v>
+        <v>1674038040000</v>
       </c>
       <c r="B42">
-        <v>5591800</v>
+        <v>782500</v>
       </c>
       <c r="C42">
-        <v>7121300</v>
+        <v>1765600</v>
       </c>
       <c r="D42">
-        <v>57100</v>
+        <v>13600</v>
       </c>
       <c r="E42">
-        <v>91761335000</v>
+        <v>14455071000</v>
       </c>
       <c r="F42">
-        <v>132903772000</v>
+        <v>38295163000</v>
       </c>
       <c r="G42">
-        <v>1387174000</v>
+        <v>205131000</v>
       </c>
       <c r="H42">
-        <v>12770200</v>
+        <v>2561700</v>
       </c>
       <c r="I42">
-        <v>226052281000</v>
+        <v>52955365000</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-01-18T14:00:00.000Z</v>
+        <v>2023-01-18T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>7273397565000</v>
+        <v>2988033038000</v>
       </c>
       <c r="L42">
-        <v>417120500</v>
+        <v>164292500</v>
       </c>
       <c r="M42">
-        <v>1529500</v>
+        <v>983100</v>
       </c>
       <c r="N42">
-        <v>41142437000</v>
+        <v>23840092000</v>
       </c>
       <c r="O42">
-        <v>37515500</v>
+        <v>-632700</v>
       </c>
       <c r="P42">
-        <v>910364187000</v>
+        <v>109177244000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1674050700000</v>
+        <v>1674038160000</v>
       </c>
       <c r="B43">
-        <v>7040600</v>
+        <v>1075400</v>
       </c>
       <c r="C43">
-        <v>9342500</v>
+        <v>2436700</v>
       </c>
       <c r="D43">
-        <v>50900</v>
+        <v>6600</v>
       </c>
       <c r="E43">
-        <v>129738471000</v>
+        <v>15555838000</v>
       </c>
       <c r="F43">
-        <v>147858766000</v>
+        <v>57125427000</v>
       </c>
       <c r="G43">
-        <v>743239000</v>
+        <v>180083000</v>
       </c>
       <c r="H43">
-        <v>16434000</v>
+        <v>3518700</v>
       </c>
       <c r="I43">
-        <v>278340476000</v>
+        <v>72861348000</v>
       </c>
       <c r="J43" t="str">
-        <v>2023-01-18T14:05:00.000Z</v>
+        <v>2023-01-18T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>7551738041000</v>
+        <v>3060894386000</v>
       </c>
       <c r="L43">
-        <v>433554500</v>
+        <v>167811200</v>
       </c>
       <c r="M43">
-        <v>2301900</v>
+        <v>1361300</v>
       </c>
       <c r="N43">
-        <v>18120295000</v>
+        <v>41569589000</v>
       </c>
       <c r="O43">
-        <v>39817400</v>
+        <v>728600</v>
       </c>
       <c r="P43">
-        <v>928484482000</v>
+        <v>150746833000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1674051000000</v>
+        <v>1674038280000</v>
       </c>
       <c r="B44">
-        <v>7605700</v>
+        <v>549000</v>
       </c>
       <c r="C44">
-        <v>9653300</v>
+        <v>3139800</v>
       </c>
       <c r="D44">
-        <v>43000</v>
+        <v>7900</v>
       </c>
       <c r="E44">
-        <v>116449850000</v>
+        <v>8786485000</v>
       </c>
       <c r="F44">
-        <v>193811599000</v>
+        <v>60345935000</v>
       </c>
       <c r="G44">
-        <v>757968000</v>
+        <v>120582000</v>
       </c>
       <c r="H44">
-        <v>17302000</v>
+        <v>3696700</v>
       </c>
       <c r="I44">
-        <v>311019417000</v>
+        <v>69253002000</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-01-18T14:10:00.000Z</v>
+        <v>2023-01-18T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>7862757458000</v>
+        <v>3130147388000</v>
       </c>
       <c r="L44">
-        <v>450856500</v>
+        <v>171507900</v>
       </c>
       <c r="M44">
-        <v>2047600</v>
+        <v>2590800</v>
       </c>
       <c r="N44">
-        <v>77361749000</v>
+        <v>51559450000</v>
       </c>
       <c r="O44">
-        <v>41865000</v>
+        <v>3319400</v>
       </c>
       <c r="P44">
-        <v>1005846231000</v>
+        <v>202306283000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1674051300000</v>
+        <v>1674038400000</v>
       </c>
       <c r="B45">
-        <v>6012400</v>
+        <v>759000</v>
       </c>
       <c r="C45">
-        <v>10957800</v>
+        <v>4334500</v>
       </c>
       <c r="D45">
-        <v>49000</v>
+        <v>2700</v>
       </c>
       <c r="E45">
-        <v>101691479000</v>
+        <v>11369790000</v>
       </c>
       <c r="F45">
-        <v>215732830000</v>
+        <v>74111102000</v>
       </c>
       <c r="G45">
-        <v>992500000</v>
+        <v>90137000</v>
       </c>
       <c r="H45">
-        <v>17019200</v>
+        <v>5096200</v>
       </c>
       <c r="I45">
-        <v>318416809000</v>
+        <v>85571029000</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-01-18T14:15:00.000Z</v>
+        <v>2023-01-18T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>8181174267000</v>
+        <v>3215718417000</v>
       </c>
       <c r="L45">
-        <v>467875700</v>
+        <v>176604100</v>
       </c>
       <c r="M45">
-        <v>4945400</v>
+        <v>3575500</v>
       </c>
       <c r="N45">
-        <v>114041351000</v>
+        <v>62741312000</v>
       </c>
       <c r="O45">
-        <v>46810400</v>
+        <v>6894900</v>
       </c>
       <c r="P45">
-        <v>1119887582000</v>
+        <v>265047595000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1674051600000</v>
+        <v>1674038520000</v>
       </c>
       <c r="B46">
-        <v>8674600</v>
+        <v>1058600</v>
       </c>
       <c r="C46">
-        <v>8776800</v>
+        <v>2417400</v>
       </c>
       <c r="D46">
-        <v>36500</v>
+        <v>6200</v>
       </c>
       <c r="E46">
-        <v>139657341000</v>
+        <v>15873019000</v>
       </c>
       <c r="F46">
-        <v>160178140000</v>
+        <v>41485015000</v>
       </c>
       <c r="G46">
-        <v>375417000</v>
+        <v>52794000</v>
       </c>
       <c r="H46">
-        <v>17487900</v>
+        <v>3482200</v>
       </c>
       <c r="I46">
-        <v>300210898000</v>
+        <v>57410828000</v>
       </c>
       <c r="J46" t="str">
-        <v>2023-01-18T14:20:00.000Z</v>
+        <v>2023-01-18T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>8481385165000</v>
+        <v>3273129245000</v>
       </c>
       <c r="L46">
-        <v>485363600</v>
+        <v>180086300</v>
       </c>
       <c r="M46">
-        <v>102200</v>
+        <v>1358800</v>
       </c>
       <c r="N46">
-        <v>20520799000</v>
+        <v>25611996000</v>
       </c>
       <c r="O46">
-        <v>46912600</v>
+        <v>8253700</v>
       </c>
       <c r="P46">
-        <v>1140408381000</v>
+        <v>290659591000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1674051900000</v>
+        <v>1674038640000</v>
       </c>
       <c r="B47">
-        <v>13735700</v>
+        <v>1007600</v>
       </c>
       <c r="C47">
-        <v>6576100</v>
+        <v>1970500</v>
       </c>
       <c r="D47">
-        <v>121400</v>
+        <v>4400</v>
       </c>
       <c r="E47">
-        <v>235897683000</v>
+        <v>18142439000</v>
       </c>
       <c r="F47">
-        <v>121145476000</v>
+        <v>34526956000</v>
       </c>
       <c r="G47">
-        <v>6846012000</v>
+        <v>117365000</v>
       </c>
       <c r="H47">
-        <v>20433200</v>
+        <v>2982500</v>
       </c>
       <c r="I47">
-        <v>363889171000</v>
+        <v>52786760000</v>
       </c>
       <c r="J47" t="str">
-        <v>2023-01-18T14:25:00.000Z</v>
+        <v>2023-01-18T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>8845274336000</v>
+        <v>3325916005000</v>
       </c>
       <c r="L47">
-        <v>505796800</v>
+        <v>183068800</v>
       </c>
       <c r="M47">
-        <v>-7159600</v>
+        <v>962900</v>
       </c>
       <c r="N47">
-        <v>-114752207000</v>
+        <v>16384517000</v>
       </c>
       <c r="O47">
-        <v>39753000</v>
+        <v>9216600</v>
       </c>
       <c r="P47">
-        <v>1025656174000</v>
+        <v>307044108000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1674052200000</v>
+        <v>1674038760000</v>
       </c>
       <c r="B48">
-        <v>32900</v>
+        <v>1219000</v>
       </c>
       <c r="C48">
-        <v>6800</v>
+        <v>4007500</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E48">
-        <v>702955000</v>
+        <v>22544499000</v>
       </c>
       <c r="F48">
-        <v>50728000</v>
+        <v>57575483000</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>74930000</v>
       </c>
       <c r="H48">
-        <v>39700</v>
+        <v>5229100</v>
       </c>
       <c r="I48">
-        <v>753683000</v>
+        <v>80194912000</v>
       </c>
       <c r="J48" t="str">
-        <v>2023-01-18T14:30:00.000Z</v>
+        <v>2023-01-18T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>8846028019000</v>
+        <v>3406110917000</v>
       </c>
       <c r="L48">
-        <v>505836500</v>
+        <v>188297900</v>
       </c>
       <c r="M48">
-        <v>-26100</v>
+        <v>2788500</v>
       </c>
       <c r="N48">
-        <v>-652227000</v>
+        <v>35030984000</v>
       </c>
       <c r="O48">
-        <v>39726900</v>
+        <v>12005100</v>
       </c>
       <c r="P48">
-        <v>1025003947000</v>
+        <v>342075092000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1674053100000</v>
+        <v>1674038880000</v>
       </c>
       <c r="B49">
+        <v>1506600</v>
+      </c>
+      <c r="C49">
+        <v>1996800</v>
+      </c>
+      <c r="D49">
+        <v>11600</v>
+      </c>
+      <c r="E49">
+        <v>23589925000</v>
+      </c>
+      <c r="F49">
+        <v>32116691000</v>
+      </c>
+      <c r="G49">
+        <v>119795000</v>
+      </c>
+      <c r="H49">
+        <v>3515000</v>
+      </c>
+      <c r="I49">
+        <v>55826411000</v>
+      </c>
+      <c r="J49" t="str">
+        <v>2023-01-18T10:48:00.000Z</v>
+      </c>
+      <c r="K49">
+        <v>3461937328000</v>
+      </c>
+      <c r="L49">
+        <v>191812900</v>
+      </c>
+      <c r="M49">
+        <v>490200</v>
+      </c>
+      <c r="N49">
+        <v>8526766000</v>
+      </c>
+      <c r="O49">
+        <v>12495300</v>
+      </c>
+      <c r="P49">
+        <v>350601858000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>1674039000000</v>
+      </c>
+      <c r="B50">
+        <v>1302900</v>
+      </c>
+      <c r="C50">
+        <v>3347900</v>
+      </c>
+      <c r="D50">
+        <v>70300</v>
+      </c>
+      <c r="E50">
+        <v>20322424000</v>
+      </c>
+      <c r="F50">
+        <v>65334547000</v>
+      </c>
+      <c r="G50">
+        <v>822031000</v>
+      </c>
+      <c r="H50">
+        <v>4721100</v>
+      </c>
+      <c r="I50">
+        <v>86479002000</v>
+      </c>
+      <c r="J50" t="str">
+        <v>2023-01-18T10:50:00.000Z</v>
+      </c>
+      <c r="K50">
+        <v>3548416330000</v>
+      </c>
+      <c r="L50">
+        <v>196534000</v>
+      </c>
+      <c r="M50">
+        <v>2045000</v>
+      </c>
+      <c r="N50">
+        <v>45012123000</v>
+      </c>
+      <c r="O50">
+        <v>14540300</v>
+      </c>
+      <c r="P50">
+        <v>395613981000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1674039120000</v>
+      </c>
+      <c r="B51">
+        <v>1280000</v>
+      </c>
+      <c r="C51">
+        <v>3155900</v>
+      </c>
+      <c r="D51">
+        <v>12600</v>
+      </c>
+      <c r="E51">
+        <v>20675612000</v>
+      </c>
+      <c r="F51">
+        <v>59731921000</v>
+      </c>
+      <c r="G51">
+        <v>132826000</v>
+      </c>
+      <c r="H51">
+        <v>4448500</v>
+      </c>
+      <c r="I51">
+        <v>80540359000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2023-01-18T10:52:00.000Z</v>
+      </c>
+      <c r="K51">
+        <v>3628956689000</v>
+      </c>
+      <c r="L51">
+        <v>200982500</v>
+      </c>
+      <c r="M51">
+        <v>1875900</v>
+      </c>
+      <c r="N51">
+        <v>39056309000</v>
+      </c>
+      <c r="O51">
+        <v>16416200</v>
+      </c>
+      <c r="P51">
+        <v>434670290000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1674039240000</v>
+      </c>
+      <c r="B52">
+        <v>1636500</v>
+      </c>
+      <c r="C52">
+        <v>2297300</v>
+      </c>
+      <c r="D52">
+        <v>2800</v>
+      </c>
+      <c r="E52">
+        <v>27685849000</v>
+      </c>
+      <c r="F52">
+        <v>34653257000</v>
+      </c>
+      <c r="G52">
+        <v>105304000</v>
+      </c>
+      <c r="H52">
+        <v>3936600</v>
+      </c>
+      <c r="I52">
+        <v>62444410000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2023-01-18T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>3691401099000</v>
+      </c>
+      <c r="L52">
+        <v>204919100</v>
+      </c>
+      <c r="M52">
+        <v>660800</v>
+      </c>
+      <c r="N52">
+        <v>6967408000</v>
+      </c>
+      <c r="O52">
+        <v>17077000</v>
+      </c>
+      <c r="P52">
+        <v>441637698000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1674039360000</v>
+      </c>
+      <c r="B53">
+        <v>2262800</v>
+      </c>
+      <c r="C53">
+        <v>1867800</v>
+      </c>
+      <c r="D53">
+        <v>36400</v>
+      </c>
+      <c r="E53">
+        <v>37498091000</v>
+      </c>
+      <c r="F53">
+        <v>30019364000</v>
+      </c>
+      <c r="G53">
+        <v>422948000</v>
+      </c>
+      <c r="H53">
+        <v>4167000</v>
+      </c>
+      <c r="I53">
+        <v>67940403000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2023-01-18T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>3759341502000</v>
+      </c>
+      <c r="L53">
+        <v>209086100</v>
+      </c>
+      <c r="M53">
+        <v>-395000</v>
+      </c>
+      <c r="N53">
+        <v>-7478727000</v>
+      </c>
+      <c r="O53">
+        <v>16682000</v>
+      </c>
+      <c r="P53">
+        <v>434158971000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1674039480000</v>
+      </c>
+      <c r="B54">
+        <v>1841200</v>
+      </c>
+      <c r="C54">
+        <v>1706300</v>
+      </c>
+      <c r="D54">
+        <v>14700</v>
+      </c>
+      <c r="E54">
+        <v>31368265000</v>
+      </c>
+      <c r="F54">
+        <v>27749627000</v>
+      </c>
+      <c r="G54">
+        <v>759139000</v>
+      </c>
+      <c r="H54">
+        <v>3562200</v>
+      </c>
+      <c r="I54">
+        <v>59877031000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2023-01-18T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>3819218533000</v>
+      </c>
+      <c r="L54">
+        <v>212648300</v>
+      </c>
+      <c r="M54">
+        <v>-134900</v>
+      </c>
+      <c r="N54">
+        <v>-3618638000</v>
+      </c>
+      <c r="O54">
+        <v>16547100</v>
+      </c>
+      <c r="P54">
+        <v>430540333000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1674039600000</v>
+      </c>
+      <c r="B55">
+        <v>2195400</v>
+      </c>
+      <c r="C55">
+        <v>1354900</v>
+      </c>
+      <c r="D55">
+        <v>24300</v>
+      </c>
+      <c r="E55">
+        <v>36150827000</v>
+      </c>
+      <c r="F55">
+        <v>24147014000</v>
+      </c>
+      <c r="G55">
+        <v>395176000</v>
+      </c>
+      <c r="H55">
+        <v>3574600</v>
+      </c>
+      <c r="I55">
+        <v>60693017000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2023-01-18T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>3879911550000</v>
+      </c>
+      <c r="L55">
+        <v>216222900</v>
+      </c>
+      <c r="M55">
+        <v>-840500</v>
+      </c>
+      <c r="N55">
+        <v>-12003813000</v>
+      </c>
+      <c r="O55">
+        <v>15706600</v>
+      </c>
+      <c r="P55">
+        <v>418536520000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1674039720000</v>
+      </c>
+      <c r="B56">
+        <v>1919800</v>
+      </c>
+      <c r="C56">
+        <v>1618900</v>
+      </c>
+      <c r="D56">
+        <v>4700</v>
+      </c>
+      <c r="E56">
+        <v>34752356000</v>
+      </c>
+      <c r="F56">
+        <v>27397216000</v>
+      </c>
+      <c r="G56">
+        <v>25820000</v>
+      </c>
+      <c r="H56">
+        <v>3543400</v>
+      </c>
+      <c r="I56">
+        <v>62175392000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2023-01-18T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>3942086942000</v>
+      </c>
+      <c r="L56">
+        <v>219766300</v>
+      </c>
+      <c r="M56">
+        <v>-300900</v>
+      </c>
+      <c r="N56">
+        <v>-7355140000</v>
+      </c>
+      <c r="O56">
+        <v>15405700</v>
+      </c>
+      <c r="P56">
+        <v>411181380000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1674039840000</v>
+      </c>
+      <c r="B57">
+        <v>1847100</v>
+      </c>
+      <c r="C57">
+        <v>1649600</v>
+      </c>
+      <c r="D57">
+        <v>4800</v>
+      </c>
+      <c r="E57">
+        <v>31182090000</v>
+      </c>
+      <c r="F57">
+        <v>28777496000</v>
+      </c>
+      <c r="G57">
+        <v>52044000</v>
+      </c>
+      <c r="H57">
+        <v>3501500</v>
+      </c>
+      <c r="I57">
+        <v>60011630000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2023-01-18T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>4002098572000</v>
+      </c>
+      <c r="L57">
+        <v>223267800</v>
+      </c>
+      <c r="M57">
+        <v>-197500</v>
+      </c>
+      <c r="N57">
+        <v>-2404594000</v>
+      </c>
+      <c r="O57">
+        <v>15208200</v>
+      </c>
+      <c r="P57">
+        <v>408776786000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1674039960000</v>
+      </c>
+      <c r="B58">
+        <v>1708700</v>
+      </c>
+      <c r="C58">
+        <v>2225600</v>
+      </c>
+      <c r="D58">
+        <v>400</v>
+      </c>
+      <c r="E58">
+        <v>30687026000</v>
+      </c>
+      <c r="F58">
+        <v>32138625000</v>
+      </c>
+      <c r="G58">
+        <v>4958000</v>
+      </c>
+      <c r="H58">
+        <v>3934700</v>
+      </c>
+      <c r="I58">
+        <v>62830609000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2023-01-18T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>4064929181000</v>
+      </c>
+      <c r="L58">
+        <v>227202500</v>
+      </c>
+      <c r="M58">
+        <v>516900</v>
+      </c>
+      <c r="N58">
+        <v>1451599000</v>
+      </c>
+      <c r="O58">
+        <v>15725100</v>
+      </c>
+      <c r="P58">
+        <v>410228385000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1674040080000</v>
+      </c>
+      <c r="B59">
+        <v>1381700</v>
+      </c>
+      <c r="C59">
+        <v>3304200</v>
+      </c>
+      <c r="D59">
+        <v>8200</v>
+      </c>
+      <c r="E59">
+        <v>23387225000</v>
+      </c>
+      <c r="F59">
+        <v>40048713000</v>
+      </c>
+      <c r="G59">
+        <v>99208000</v>
+      </c>
+      <c r="H59">
+        <v>4694100</v>
+      </c>
+      <c r="I59">
+        <v>63535146000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-01-18T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>4128464327000</v>
+      </c>
+      <c r="L59">
+        <v>231896600</v>
+      </c>
+      <c r="M59">
+        <v>1922500</v>
+      </c>
+      <c r="N59">
+        <v>16661488000</v>
+      </c>
+      <c r="O59">
+        <v>17647600</v>
+      </c>
+      <c r="P59">
+        <v>426889873000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1674040200000</v>
+      </c>
+      <c r="B60">
+        <v>1293600</v>
+      </c>
+      <c r="C60">
+        <v>2076600</v>
+      </c>
+      <c r="D60">
+        <v>12400</v>
+      </c>
+      <c r="E60">
+        <v>19400079000</v>
+      </c>
+      <c r="F60">
+        <v>27058053000</v>
+      </c>
+      <c r="G60">
+        <v>94627000</v>
+      </c>
+      <c r="H60">
+        <v>3382600</v>
+      </c>
+      <c r="I60">
+        <v>46552759000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2023-01-18T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>4175017086000</v>
+      </c>
+      <c r="L60">
+        <v>235279200</v>
+      </c>
+      <c r="M60">
+        <v>783000</v>
+      </c>
+      <c r="N60">
+        <v>7657974000</v>
+      </c>
+      <c r="O60">
+        <v>18430600</v>
+      </c>
+      <c r="P60">
+        <v>434547847000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1674040320000</v>
+      </c>
+      <c r="B61">
+        <v>1437000</v>
+      </c>
+      <c r="C61">
+        <v>1681500</v>
+      </c>
+      <c r="D61">
+        <v>8100</v>
+      </c>
+      <c r="E61">
+        <v>24105546000</v>
+      </c>
+      <c r="F61">
+        <v>25246146000</v>
+      </c>
+      <c r="G61">
+        <v>128752000</v>
+      </c>
+      <c r="H61">
+        <v>3126600</v>
+      </c>
+      <c r="I61">
+        <v>49480444000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2023-01-18T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>4224497530000</v>
+      </c>
+      <c r="L61">
+        <v>238405800</v>
+      </c>
+      <c r="M61">
+        <v>244500</v>
+      </c>
+      <c r="N61">
+        <v>1140600000</v>
+      </c>
+      <c r="O61">
+        <v>18675100</v>
+      </c>
+      <c r="P61">
+        <v>435688447000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1674040440000</v>
+      </c>
+      <c r="B62">
+        <v>1255400</v>
+      </c>
+      <c r="C62">
+        <v>2432200</v>
+      </c>
+      <c r="D62">
+        <v>20700</v>
+      </c>
+      <c r="E62">
+        <v>19529047000</v>
+      </c>
+      <c r="F62">
+        <v>39226137000</v>
+      </c>
+      <c r="G62">
+        <v>349310000</v>
+      </c>
+      <c r="H62">
+        <v>3708300</v>
+      </c>
+      <c r="I62">
+        <v>59104494000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2023-01-18T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>4283602024000</v>
+      </c>
+      <c r="L62">
+        <v>242114100</v>
+      </c>
+      <c r="M62">
+        <v>1176800</v>
+      </c>
+      <c r="N62">
+        <v>19697090000</v>
+      </c>
+      <c r="O62">
+        <v>19851900</v>
+      </c>
+      <c r="P62">
+        <v>455385537000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1674040560000</v>
+      </c>
+      <c r="B63">
+        <v>1151300</v>
+      </c>
+      <c r="C63">
+        <v>1923600</v>
+      </c>
+      <c r="D63">
+        <v>7800</v>
+      </c>
+      <c r="E63">
+        <v>19248639000</v>
+      </c>
+      <c r="F63">
+        <v>33607454000</v>
+      </c>
+      <c r="G63">
+        <v>151023000</v>
+      </c>
+      <c r="H63">
+        <v>3082700</v>
+      </c>
+      <c r="I63">
+        <v>53007116000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2023-01-18T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>4336609140000</v>
+      </c>
+      <c r="L63">
+        <v>245196800</v>
+      </c>
+      <c r="M63">
+        <v>772300</v>
+      </c>
+      <c r="N63">
+        <v>14358815000</v>
+      </c>
+      <c r="O63">
+        <v>20624200</v>
+      </c>
+      <c r="P63">
+        <v>469744352000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1674040680000</v>
+      </c>
+      <c r="B64">
+        <v>1191800</v>
+      </c>
+      <c r="C64">
+        <v>2076900</v>
+      </c>
+      <c r="D64">
+        <v>1100</v>
+      </c>
+      <c r="E64">
+        <v>21449106000</v>
+      </c>
+      <c r="F64">
+        <v>38585737000</v>
+      </c>
+      <c r="G64">
+        <v>2578000</v>
+      </c>
+      <c r="H64">
+        <v>3269800</v>
+      </c>
+      <c r="I64">
+        <v>60037421000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2023-01-18T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>4396646561000</v>
+      </c>
+      <c r="L64">
+        <v>248466600</v>
+      </c>
+      <c r="M64">
+        <v>885100</v>
+      </c>
+      <c r="N64">
+        <v>17136631000</v>
+      </c>
+      <c r="O64">
+        <v>21509300</v>
+      </c>
+      <c r="P64">
+        <v>486880983000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1674040800000</v>
+      </c>
+      <c r="B65">
+        <v>969100</v>
+      </c>
+      <c r="C65">
+        <v>2031700</v>
+      </c>
+      <c r="D65">
+        <v>15700</v>
+      </c>
+      <c r="E65">
+        <v>17038503000</v>
+      </c>
+      <c r="F65">
+        <v>39995469000</v>
+      </c>
+      <c r="G65">
+        <v>668401000</v>
+      </c>
+      <c r="H65">
+        <v>3016500</v>
+      </c>
+      <c r="I65">
+        <v>57702373000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2023-01-18T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>4454348934000</v>
+      </c>
+      <c r="L65">
+        <v>251483100</v>
+      </c>
+      <c r="M65">
+        <v>1062600</v>
+      </c>
+      <c r="N65">
+        <v>22956966000</v>
+      </c>
+      <c r="O65">
+        <v>22571900</v>
+      </c>
+      <c r="P65">
+        <v>509837949000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1674040920000</v>
+      </c>
+      <c r="B66">
+        <v>884600</v>
+      </c>
+      <c r="C66">
+        <v>1531100</v>
+      </c>
+      <c r="D66">
+        <v>27900</v>
+      </c>
+      <c r="E66">
+        <v>15490945000</v>
+      </c>
+      <c r="F66">
+        <v>27162541000</v>
+      </c>
+      <c r="G66">
+        <v>599028000</v>
+      </c>
+      <c r="H66">
+        <v>2443600</v>
+      </c>
+      <c r="I66">
+        <v>43252514000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2023-01-18T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>4497601448000</v>
+      </c>
+      <c r="L66">
+        <v>253926700</v>
+      </c>
+      <c r="M66">
+        <v>646500</v>
+      </c>
+      <c r="N66">
+        <v>11671596000</v>
+      </c>
+      <c r="O66">
+        <v>23218400</v>
+      </c>
+      <c r="P66">
+        <v>521509545000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1674041040000</v>
+      </c>
+      <c r="B67">
+        <v>983600</v>
+      </c>
+      <c r="C67">
+        <v>811300</v>
+      </c>
+      <c r="D67">
+        <v>1000</v>
+      </c>
+      <c r="E67">
+        <v>17105359000</v>
+      </c>
+      <c r="F67">
+        <v>15384727000</v>
+      </c>
+      <c r="G67">
+        <v>17000000</v>
+      </c>
+      <c r="H67">
+        <v>1795900</v>
+      </c>
+      <c r="I67">
+        <v>32507086000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2023-01-18T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>4530108534000</v>
+      </c>
+      <c r="L67">
+        <v>255722600</v>
+      </c>
+      <c r="M67">
+        <v>-172300</v>
+      </c>
+      <c r="N67">
+        <v>-1720632000</v>
+      </c>
+      <c r="O67">
+        <v>23046100</v>
+      </c>
+      <c r="P67">
+        <v>519788913000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1674041160000</v>
+      </c>
+      <c r="B68">
+        <v>890400</v>
+      </c>
+      <c r="C68">
+        <v>1465300</v>
+      </c>
+      <c r="D68">
+        <v>9400</v>
+      </c>
+      <c r="E68">
+        <v>13764268000</v>
+      </c>
+      <c r="F68">
+        <v>27993166000</v>
+      </c>
+      <c r="G68">
+        <v>328583000</v>
+      </c>
+      <c r="H68">
+        <v>2365100</v>
+      </c>
+      <c r="I68">
+        <v>42086017000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2023-01-18T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>4572194551000</v>
+      </c>
+      <c r="L68">
+        <v>258087700</v>
+      </c>
+      <c r="M68">
+        <v>574900</v>
+      </c>
+      <c r="N68">
+        <v>14228898000</v>
+      </c>
+      <c r="O68">
+        <v>23621000</v>
+      </c>
+      <c r="P68">
+        <v>534017811000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1674041280000</v>
+      </c>
+      <c r="B69">
+        <v>1059000</v>
+      </c>
+      <c r="C69">
+        <v>1314800</v>
+      </c>
+      <c r="D69">
+        <v>5500</v>
+      </c>
+      <c r="E69">
+        <v>18218819000</v>
+      </c>
+      <c r="F69">
+        <v>21960702000</v>
+      </c>
+      <c r="G69">
+        <v>49040000</v>
+      </c>
+      <c r="H69">
+        <v>2379300</v>
+      </c>
+      <c r="I69">
+        <v>40228561000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-01-18T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>4612423112000</v>
+      </c>
+      <c r="L69">
+        <v>260467000</v>
+      </c>
+      <c r="M69">
+        <v>255800</v>
+      </c>
+      <c r="N69">
+        <v>3741883000</v>
+      </c>
+      <c r="O69">
+        <v>23876800</v>
+      </c>
+      <c r="P69">
+        <v>537759694000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1674041400000</v>
+      </c>
+      <c r="B70">
+        <v>300</v>
+      </c>
+      <c r="C70">
+        <v>1100</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>3286000</v>
+      </c>
+      <c r="F70">
+        <v>17600000</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>1400</v>
+      </c>
+      <c r="I70">
+        <v>20886000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2023-01-18T11:30:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>4612443998000</v>
+      </c>
+      <c r="L70">
+        <v>260468400</v>
+      </c>
+      <c r="M70">
+        <v>800</v>
+      </c>
+      <c r="N70">
+        <v>14314000</v>
+      </c>
+      <c r="O70">
+        <v>23877600</v>
+      </c>
+      <c r="P70">
+        <v>537774008000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1674046800000</v>
+      </c>
+      <c r="B71">
+        <v>5222300</v>
+      </c>
+      <c r="C71">
+        <v>4913800</v>
+      </c>
+      <c r="D71">
+        <v>291700</v>
+      </c>
+      <c r="E71">
+        <v>77262076000</v>
+      </c>
+      <c r="F71">
+        <v>94730448000</v>
+      </c>
+      <c r="G71">
+        <v>4873376000</v>
+      </c>
+      <c r="H71">
+        <v>10427800</v>
+      </c>
+      <c r="I71">
+        <v>176865900000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2023-01-18T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>4789309898000</v>
+      </c>
+      <c r="L71">
+        <v>270896200</v>
+      </c>
+      <c r="M71">
+        <v>-308500</v>
+      </c>
+      <c r="N71">
+        <v>17468372000</v>
+      </c>
+      <c r="O71">
+        <v>23569100</v>
+      </c>
+      <c r="P71">
+        <v>555242380000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1674046920000</v>
+      </c>
+      <c r="B72">
+        <v>2202500</v>
+      </c>
+      <c r="C72">
+        <v>1904100</v>
+      </c>
+      <c r="D72">
+        <v>16300</v>
+      </c>
+      <c r="E72">
+        <v>34019339000</v>
+      </c>
+      <c r="F72">
+        <v>29841080000</v>
+      </c>
+      <c r="G72">
+        <v>233068000</v>
+      </c>
+      <c r="H72">
+        <v>4122900</v>
+      </c>
+      <c r="I72">
+        <v>64093487000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2023-01-18T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>4853403385000</v>
+      </c>
+      <c r="L72">
+        <v>275019100</v>
+      </c>
+      <c r="M72">
+        <v>-298400</v>
+      </c>
+      <c r="N72">
+        <v>-4178259000</v>
+      </c>
+      <c r="O72">
+        <v>23270700</v>
+      </c>
+      <c r="P72">
+        <v>551064121000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1674047040000</v>
+      </c>
+      <c r="B73">
+        <v>3191200</v>
+      </c>
+      <c r="C73">
+        <v>970700</v>
+      </c>
+      <c r="D73">
+        <v>28200</v>
+      </c>
+      <c r="E73">
+        <v>49232372000</v>
+      </c>
+      <c r="F73">
+        <v>19597826000</v>
+      </c>
+      <c r="G73">
+        <v>155397000</v>
+      </c>
+      <c r="H73">
+        <v>4190100</v>
+      </c>
+      <c r="I73">
+        <v>68985595000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2023-01-18T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>4922388980000</v>
+      </c>
+      <c r="L73">
+        <v>279209200</v>
+      </c>
+      <c r="M73">
+        <v>-2220500</v>
+      </c>
+      <c r="N73">
+        <v>-29634546000</v>
+      </c>
+      <c r="O73">
+        <v>21050200</v>
+      </c>
+      <c r="P73">
+        <v>521429575000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1674047160000</v>
+      </c>
+      <c r="B74">
+        <v>2065800</v>
+      </c>
+      <c r="C74">
+        <v>1461700</v>
+      </c>
+      <c r="D74">
+        <v>7000</v>
+      </c>
+      <c r="E74">
+        <v>34249510000</v>
+      </c>
+      <c r="F74">
+        <v>22842852000</v>
+      </c>
+      <c r="G74">
+        <v>123025000</v>
+      </c>
+      <c r="H74">
+        <v>3534500</v>
+      </c>
+      <c r="I74">
+        <v>57215387000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2023-01-18T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>4979604367000</v>
+      </c>
+      <c r="L74">
+        <v>282743700</v>
+      </c>
+      <c r="M74">
+        <v>-604100</v>
+      </c>
+      <c r="N74">
+        <v>-11406658000</v>
+      </c>
+      <c r="O74">
+        <v>20446100</v>
+      </c>
+      <c r="P74">
+        <v>510022917000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1674047280000</v>
+      </c>
+      <c r="B75">
+        <v>2391300</v>
+      </c>
+      <c r="C75">
+        <v>1640200</v>
+      </c>
+      <c r="D75">
+        <v>85400</v>
+      </c>
+      <c r="E75">
+        <v>39322221000</v>
+      </c>
+      <c r="F75">
+        <v>27668572000</v>
+      </c>
+      <c r="G75">
+        <v>748033000</v>
+      </c>
+      <c r="H75">
+        <v>4116900</v>
+      </c>
+      <c r="I75">
+        <v>67738826000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2023-01-18T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>5047343193000</v>
+      </c>
+      <c r="L75">
+        <v>286860600</v>
+      </c>
+      <c r="M75">
+        <v>-751100</v>
+      </c>
+      <c r="N75">
+        <v>-11653649000</v>
+      </c>
+      <c r="O75">
+        <v>19695000</v>
+      </c>
+      <c r="P75">
+        <v>498369268000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1674047400000</v>
+      </c>
+      <c r="B76">
+        <v>2592800</v>
+      </c>
+      <c r="C76">
+        <v>1765000</v>
+      </c>
+      <c r="D76">
+        <v>6500</v>
+      </c>
+      <c r="E76">
+        <v>42612167000</v>
+      </c>
+      <c r="F76">
+        <v>30762657000</v>
+      </c>
+      <c r="G76">
+        <v>99566000</v>
+      </c>
+      <c r="H76">
+        <v>4364300</v>
+      </c>
+      <c r="I76">
+        <v>73474390000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2023-01-18T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>5120817583000</v>
+      </c>
+      <c r="L76">
+        <v>291224900</v>
+      </c>
+      <c r="M76">
+        <v>-827800</v>
+      </c>
+      <c r="N76">
+        <v>-11849510000</v>
+      </c>
+      <c r="O76">
+        <v>18867200</v>
+      </c>
+      <c r="P76">
+        <v>486519758000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1674047520000</v>
+      </c>
+      <c r="B77">
+        <v>2354500</v>
+      </c>
+      <c r="C77">
+        <v>1361500</v>
+      </c>
+      <c r="D77">
+        <v>36500</v>
+      </c>
+      <c r="E77">
+        <v>39114365000</v>
+      </c>
+      <c r="F77">
+        <v>24078598000</v>
+      </c>
+      <c r="G77">
+        <v>175359000</v>
+      </c>
+      <c r="H77">
+        <v>3752500</v>
+      </c>
+      <c r="I77">
+        <v>63368322000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2023-01-18T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>5184185905000</v>
+      </c>
+      <c r="L77">
+        <v>294977400</v>
+      </c>
+      <c r="M77">
+        <v>-993000</v>
+      </c>
+      <c r="N77">
+        <v>-15035767000</v>
+      </c>
+      <c r="O77">
+        <v>17874200</v>
+      </c>
+      <c r="P77">
+        <v>471483991000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1674047640000</v>
+      </c>
+      <c r="B78">
+        <v>1972000</v>
+      </c>
+      <c r="C78">
+        <v>1528800</v>
+      </c>
+      <c r="D78">
+        <v>40100</v>
+      </c>
+      <c r="E78">
+        <v>30566768000</v>
+      </c>
+      <c r="F78">
+        <v>28242269000</v>
+      </c>
+      <c r="G78">
+        <v>889985000</v>
+      </c>
+      <c r="H78">
+        <v>3540900</v>
+      </c>
+      <c r="I78">
+        <v>59699022000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2023-01-18T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>5243884927000</v>
+      </c>
+      <c r="L78">
+        <v>298518300</v>
+      </c>
+      <c r="M78">
+        <v>-443200</v>
+      </c>
+      <c r="N78">
+        <v>-2324499000</v>
+      </c>
+      <c r="O78">
+        <v>17431000</v>
+      </c>
+      <c r="P78">
+        <v>469159492000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1674047760000</v>
+      </c>
+      <c r="B79">
+        <v>1459800</v>
+      </c>
+      <c r="C79">
+        <v>1711600</v>
+      </c>
+      <c r="D79">
+        <v>17200</v>
+      </c>
+      <c r="E79">
+        <v>20277534000</v>
+      </c>
+      <c r="F79">
+        <v>29426975000</v>
+      </c>
+      <c r="G79">
+        <v>222207000</v>
+      </c>
+      <c r="H79">
+        <v>3188600</v>
+      </c>
+      <c r="I79">
+        <v>49926716000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2023-01-18T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>5293811643000</v>
+      </c>
+      <c r="L79">
+        <v>301706900</v>
+      </c>
+      <c r="M79">
+        <v>251800</v>
+      </c>
+      <c r="N79">
+        <v>9149441000</v>
+      </c>
+      <c r="O79">
+        <v>17682800</v>
+      </c>
+      <c r="P79">
+        <v>478308933000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1674047880000</v>
+      </c>
+      <c r="B80">
+        <v>1170800</v>
+      </c>
+      <c r="C80">
+        <v>1350900</v>
+      </c>
+      <c r="D80">
+        <v>10800</v>
+      </c>
+      <c r="E80">
+        <v>22246273000</v>
+      </c>
+      <c r="F80">
+        <v>22889686000</v>
+      </c>
+      <c r="G80">
+        <v>197719000</v>
+      </c>
+      <c r="H80">
+        <v>2532500</v>
+      </c>
+      <c r="I80">
+        <v>45333678000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2023-01-18T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>5339145321000</v>
+      </c>
+      <c r="L80">
+        <v>304239400</v>
+      </c>
+      <c r="M80">
+        <v>180100</v>
+      </c>
+      <c r="N80">
+        <v>643413000</v>
+      </c>
+      <c r="O80">
+        <v>17862900</v>
+      </c>
+      <c r="P80">
+        <v>478952346000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1674048000000</v>
+      </c>
+      <c r="B81">
+        <v>4193200</v>
+      </c>
+      <c r="C81">
+        <v>1136000</v>
+      </c>
+      <c r="D81">
+        <v>28800</v>
+      </c>
+      <c r="E81">
+        <v>70148391000</v>
+      </c>
+      <c r="F81">
+        <v>22820396000</v>
+      </c>
+      <c r="G81">
+        <v>368981000</v>
+      </c>
+      <c r="H81">
+        <v>5358000</v>
+      </c>
+      <c r="I81">
+        <v>93337768000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2023-01-18T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>5432483089000</v>
+      </c>
+      <c r="L81">
+        <v>309597400</v>
+      </c>
+      <c r="M81">
+        <v>-3057200</v>
+      </c>
+      <c r="N81">
+        <v>-47327995000</v>
+      </c>
+      <c r="O81">
+        <v>14805700</v>
+      </c>
+      <c r="P81">
+        <v>431624351000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1674048120000</v>
+      </c>
+      <c r="B82">
+        <v>3716500</v>
+      </c>
+      <c r="C82">
+        <v>1475000</v>
+      </c>
+      <c r="D82">
+        <v>16800</v>
+      </c>
+      <c r="E82">
+        <v>56648216000</v>
+      </c>
+      <c r="F82">
+        <v>31251225000</v>
+      </c>
+      <c r="G82">
+        <v>112003000</v>
+      </c>
+      <c r="H82">
+        <v>5208300</v>
+      </c>
+      <c r="I82">
+        <v>88011444000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2023-01-18T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>5520494533000</v>
+      </c>
+      <c r="L82">
+        <v>314805700</v>
+      </c>
+      <c r="M82">
+        <v>-2241500</v>
+      </c>
+      <c r="N82">
+        <v>-25396991000</v>
+      </c>
+      <c r="O82">
+        <v>12564200</v>
+      </c>
+      <c r="P82">
+        <v>406227360000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1674048240000</v>
+      </c>
+      <c r="B83">
+        <v>2286000</v>
+      </c>
+      <c r="C83">
+        <v>2025300</v>
+      </c>
+      <c r="D83">
+        <v>47100</v>
+      </c>
+      <c r="E83">
+        <v>34652773000</v>
+      </c>
+      <c r="F83">
+        <v>41176916000</v>
+      </c>
+      <c r="G83">
+        <v>444269000</v>
+      </c>
+      <c r="H83">
+        <v>4358400</v>
+      </c>
+      <c r="I83">
+        <v>76273958000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2023-01-18T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>5596768491000</v>
+      </c>
+      <c r="L83">
+        <v>319164100</v>
+      </c>
+      <c r="M83">
+        <v>-260700</v>
+      </c>
+      <c r="N83">
+        <v>6524143000</v>
+      </c>
+      <c r="O83">
+        <v>12303500</v>
+      </c>
+      <c r="P83">
+        <v>412751503000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1674048360000</v>
+      </c>
+      <c r="B84">
+        <v>1474500</v>
+      </c>
+      <c r="C84">
+        <v>3883900</v>
+      </c>
+      <c r="D84">
+        <v>6000</v>
+      </c>
+      <c r="E84">
+        <v>21866967000</v>
+      </c>
+      <c r="F84">
+        <v>78001164000</v>
+      </c>
+      <c r="G84">
+        <v>137405000</v>
+      </c>
+      <c r="H84">
+        <v>5364400</v>
+      </c>
+      <c r="I84">
+        <v>100005536000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2023-01-18T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>5696774027000</v>
+      </c>
+      <c r="L84">
+        <v>324528500</v>
+      </c>
+      <c r="M84">
+        <v>2409400</v>
+      </c>
+      <c r="N84">
+        <v>56134197000</v>
+      </c>
+      <c r="O84">
+        <v>14712900</v>
+      </c>
+      <c r="P84">
+        <v>468885700000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1674048480000</v>
+      </c>
+      <c r="B85">
+        <v>1754800</v>
+      </c>
+      <c r="C85">
+        <v>3015500</v>
+      </c>
+      <c r="D85">
+        <v>7500</v>
+      </c>
+      <c r="E85">
+        <v>28681363000</v>
+      </c>
+      <c r="F85">
+        <v>58265045000</v>
+      </c>
+      <c r="G85">
+        <v>267746000</v>
+      </c>
+      <c r="H85">
+        <v>4777800</v>
+      </c>
+      <c r="I85">
+        <v>87214154000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2023-01-18T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>5783988181000</v>
+      </c>
+      <c r="L85">
+        <v>329306300</v>
+      </c>
+      <c r="M85">
+        <v>1260700</v>
+      </c>
+      <c r="N85">
+        <v>29583682000</v>
+      </c>
+      <c r="O85">
+        <v>15973600</v>
+      </c>
+      <c r="P85">
+        <v>498469382000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1674048600000</v>
+      </c>
+      <c r="B86">
+        <v>1973700</v>
+      </c>
+      <c r="C86">
+        <v>2406900</v>
+      </c>
+      <c r="D86">
+        <v>10300</v>
+      </c>
+      <c r="E86">
+        <v>33097638000</v>
+      </c>
+      <c r="F86">
+        <v>45154670000</v>
+      </c>
+      <c r="G86">
+        <v>141839000</v>
+      </c>
+      <c r="H86">
+        <v>4390900</v>
+      </c>
+      <c r="I86">
+        <v>78394147000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2023-01-18T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>5862382328000</v>
+      </c>
+      <c r="L86">
+        <v>333697200</v>
+      </c>
+      <c r="M86">
+        <v>433200</v>
+      </c>
+      <c r="N86">
+        <v>12057032000</v>
+      </c>
+      <c r="O86">
+        <v>16406800</v>
+      </c>
+      <c r="P86">
+        <v>510526414000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1674048720000</v>
+      </c>
+      <c r="B87">
+        <v>2411800</v>
+      </c>
+      <c r="C87">
+        <v>2110900</v>
+      </c>
+      <c r="D87">
+        <v>20400</v>
+      </c>
+      <c r="E87">
+        <v>42641185000</v>
+      </c>
+      <c r="F87">
+        <v>37877310000</v>
+      </c>
+      <c r="G87">
+        <v>200627000</v>
+      </c>
+      <c r="H87">
+        <v>4543100</v>
+      </c>
+      <c r="I87">
+        <v>80719122000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2023-01-18T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>5943101450000</v>
+      </c>
+      <c r="L87">
+        <v>338240300</v>
+      </c>
+      <c r="M87">
+        <v>-300900</v>
+      </c>
+      <c r="N87">
+        <v>-4763875000</v>
+      </c>
+      <c r="O87">
+        <v>16105900</v>
+      </c>
+      <c r="P87">
+        <v>505762539000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1674048840000</v>
+      </c>
+      <c r="B88">
+        <v>1236300</v>
+      </c>
+      <c r="C88">
+        <v>2391300</v>
+      </c>
+      <c r="D88">
+        <v>145300</v>
+      </c>
+      <c r="E88">
+        <v>20352293000</v>
+      </c>
+      <c r="F88">
+        <v>34753342000</v>
+      </c>
+      <c r="G88">
+        <v>1132015000</v>
+      </c>
+      <c r="H88">
+        <v>3772900</v>
+      </c>
+      <c r="I88">
+        <v>56237650000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2023-01-18T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>5999339100000</v>
+      </c>
+      <c r="L88">
+        <v>342013200</v>
+      </c>
+      <c r="M88">
+        <v>1155000</v>
+      </c>
+      <c r="N88">
+        <v>14401049000</v>
+      </c>
+      <c r="O88">
+        <v>17260900</v>
+      </c>
+      <c r="P88">
+        <v>520163588000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1674048960000</v>
+      </c>
+      <c r="B89">
+        <v>1741900</v>
+      </c>
+      <c r="C89">
+        <v>1539000</v>
+      </c>
+      <c r="D89">
+        <v>500</v>
+      </c>
+      <c r="E89">
+        <v>28355700000</v>
+      </c>
+      <c r="F89">
+        <v>30935191000</v>
+      </c>
+      <c r="G89">
+        <v>14124000</v>
+      </c>
+      <c r="H89">
+        <v>3281400</v>
+      </c>
+      <c r="I89">
+        <v>59305015000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2023-01-18T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>6058644115000</v>
+      </c>
+      <c r="L89">
+        <v>345294600</v>
+      </c>
+      <c r="M89">
+        <v>-202900</v>
+      </c>
+      <c r="N89">
+        <v>2579491000</v>
+      </c>
+      <c r="O89">
+        <v>17058000</v>
+      </c>
+      <c r="P89">
+        <v>522743079000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1674049080000</v>
+      </c>
+      <c r="B90">
+        <v>1600900</v>
+      </c>
+      <c r="C90">
+        <v>3740700</v>
+      </c>
+      <c r="D90">
+        <v>1400</v>
+      </c>
+      <c r="E90">
+        <v>26107813000</v>
+      </c>
+      <c r="F90">
+        <v>67911599000</v>
+      </c>
+      <c r="G90">
+        <v>28280000</v>
+      </c>
+      <c r="H90">
+        <v>5343000</v>
+      </c>
+      <c r="I90">
+        <v>94047692000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2023-01-18T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>6152691807000</v>
+      </c>
+      <c r="L90">
+        <v>350637600</v>
+      </c>
+      <c r="M90">
+        <v>2139800</v>
+      </c>
+      <c r="N90">
+        <v>41803786000</v>
+      </c>
+      <c r="O90">
+        <v>19197800</v>
+      </c>
+      <c r="P90">
+        <v>564546865000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1674049200000</v>
+      </c>
+      <c r="B91">
+        <v>1901400</v>
+      </c>
+      <c r="C91">
+        <v>2855700</v>
+      </c>
+      <c r="D91">
+        <v>47800</v>
+      </c>
+      <c r="E91">
+        <v>30240659000</v>
+      </c>
+      <c r="F91">
+        <v>49711532000</v>
+      </c>
+      <c r="G91">
+        <v>1028584000</v>
+      </c>
+      <c r="H91">
+        <v>4804900</v>
+      </c>
+      <c r="I91">
+        <v>80980775000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2023-01-18T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>6233672582000</v>
+      </c>
+      <c r="L91">
+        <v>355442500</v>
+      </c>
+      <c r="M91">
+        <v>954300</v>
+      </c>
+      <c r="N91">
+        <v>19470873000</v>
+      </c>
+      <c r="O91">
+        <v>20152100</v>
+      </c>
+      <c r="P91">
+        <v>584017738000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1674049320000</v>
+      </c>
+      <c r="B92">
+        <v>1738800</v>
+      </c>
+      <c r="C92">
+        <v>3151500</v>
+      </c>
+      <c r="D92">
+        <v>11300</v>
+      </c>
+      <c r="E92">
+        <v>26706181000</v>
+      </c>
+      <c r="F92">
+        <v>43288732000</v>
+      </c>
+      <c r="G92">
+        <v>172263000</v>
+      </c>
+      <c r="H92">
+        <v>4901600</v>
+      </c>
+      <c r="I92">
+        <v>70167176000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2023-01-18T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>6303839758000</v>
+      </c>
+      <c r="L92">
+        <v>360344100</v>
+      </c>
+      <c r="M92">
+        <v>1412700</v>
+      </c>
+      <c r="N92">
+        <v>16582551000</v>
+      </c>
+      <c r="O92">
+        <v>21564800</v>
+      </c>
+      <c r="P92">
+        <v>600600289000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1674049440000</v>
+      </c>
+      <c r="B93">
+        <v>1356700</v>
+      </c>
+      <c r="C93">
+        <v>1629900</v>
+      </c>
+      <c r="D93">
+        <v>5700</v>
+      </c>
+      <c r="E93">
+        <v>22388355000</v>
+      </c>
+      <c r="F93">
+        <v>26396467000</v>
+      </c>
+      <c r="G93">
+        <v>65261000</v>
+      </c>
+      <c r="H93">
+        <v>2992300</v>
+      </c>
+      <c r="I93">
+        <v>48850083000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2023-01-18T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>6352689841000</v>
+      </c>
+      <c r="L93">
+        <v>363336400</v>
+      </c>
+      <c r="M93">
+        <v>273200</v>
+      </c>
+      <c r="N93">
+        <v>4008112000</v>
+      </c>
+      <c r="O93">
+        <v>21838000</v>
+      </c>
+      <c r="P93">
+        <v>604608401000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1674049560000</v>
+      </c>
+      <c r="B94">
+        <v>1663700</v>
+      </c>
+      <c r="C94">
+        <v>3209000</v>
+      </c>
+      <c r="D94">
+        <v>12700</v>
+      </c>
+      <c r="E94">
+        <v>28196278000</v>
+      </c>
+      <c r="F94">
+        <v>53598208000</v>
+      </c>
+      <c r="G94">
+        <v>255600000</v>
+      </c>
+      <c r="H94">
+        <v>4885400</v>
+      </c>
+      <c r="I94">
+        <v>82050086000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2023-01-18T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>6434739927000</v>
+      </c>
+      <c r="L94">
+        <v>368221800</v>
+      </c>
+      <c r="M94">
+        <v>1545300</v>
+      </c>
+      <c r="N94">
+        <v>25401930000</v>
+      </c>
+      <c r="O94">
+        <v>23383300</v>
+      </c>
+      <c r="P94">
+        <v>630010331000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1674049680000</v>
+      </c>
+      <c r="B95">
+        <v>1316900</v>
+      </c>
+      <c r="C95">
+        <v>4490700</v>
+      </c>
+      <c r="D95">
+        <v>9700</v>
+      </c>
+      <c r="E95">
+        <v>21321461000</v>
+      </c>
+      <c r="F95">
+        <v>78104008000</v>
+      </c>
+      <c r="G95">
+        <v>296519000</v>
+      </c>
+      <c r="H95">
+        <v>5817300</v>
+      </c>
+      <c r="I95">
+        <v>99721988000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2023-01-18T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>6534461915000</v>
+      </c>
+      <c r="L95">
+        <v>374039100</v>
+      </c>
+      <c r="M95">
+        <v>3173800</v>
+      </c>
+      <c r="N95">
+        <v>56782547000</v>
+      </c>
+      <c r="O95">
+        <v>26557100</v>
+      </c>
+      <c r="P95">
+        <v>686792878000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1674049800000</v>
+      </c>
+      <c r="B96">
+        <v>1385200</v>
+      </c>
+      <c r="C96">
+        <v>6830900</v>
+      </c>
+      <c r="D96">
+        <v>25600</v>
+      </c>
+      <c r="E96">
+        <v>21669810000</v>
+      </c>
+      <c r="F96">
+        <v>113907007000</v>
+      </c>
+      <c r="G96">
+        <v>382479000</v>
+      </c>
+      <c r="H96">
+        <v>8241700</v>
+      </c>
+      <c r="I96">
+        <v>135959296000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2023-01-18T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>6670421211000</v>
+      </c>
+      <c r="L96">
+        <v>382280800</v>
+      </c>
+      <c r="M96">
+        <v>5445700</v>
+      </c>
+      <c r="N96">
+        <v>92237197000</v>
+      </c>
+      <c r="O96">
+        <v>32002800</v>
+      </c>
+      <c r="P96">
+        <v>779030075000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1674049920000</v>
+      </c>
+      <c r="B97">
+        <v>2000900</v>
+      </c>
+      <c r="C97">
+        <v>4548100</v>
+      </c>
+      <c r="D97">
+        <v>25100</v>
+      </c>
+      <c r="E97">
+        <v>28861203000</v>
+      </c>
+      <c r="F97">
+        <v>76283022000</v>
+      </c>
+      <c r="G97">
+        <v>390651000</v>
+      </c>
+      <c r="H97">
+        <v>6574100</v>
+      </c>
+      <c r="I97">
+        <v>105534876000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2023-01-18T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>6775956087000</v>
+      </c>
+      <c r="L97">
+        <v>388854900</v>
+      </c>
+      <c r="M97">
+        <v>2547200</v>
+      </c>
+      <c r="N97">
+        <v>47421819000</v>
+      </c>
+      <c r="O97">
+        <v>34550000</v>
+      </c>
+      <c r="P97">
+        <v>826451894000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1674050040000</v>
+      </c>
+      <c r="B98">
+        <v>2120500</v>
+      </c>
+      <c r="C98">
+        <v>3326500</v>
+      </c>
+      <c r="D98">
+        <v>3700</v>
+      </c>
+      <c r="E98">
+        <v>37017573000</v>
+      </c>
+      <c r="F98">
+        <v>61543418000</v>
+      </c>
+      <c r="G98">
+        <v>77710000</v>
+      </c>
+      <c r="H98">
+        <v>5450700</v>
+      </c>
+      <c r="I98">
+        <v>98638701000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2023-01-18T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>6874594788000</v>
+      </c>
+      <c r="L98">
+        <v>394305600</v>
+      </c>
+      <c r="M98">
+        <v>1206000</v>
+      </c>
+      <c r="N98">
+        <v>24525845000</v>
+      </c>
+      <c r="O98">
+        <v>35756000</v>
+      </c>
+      <c r="P98">
+        <v>850977739000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1674050160000</v>
+      </c>
+      <c r="B99">
+        <v>2349300</v>
+      </c>
+      <c r="C99">
+        <v>2551600</v>
+      </c>
+      <c r="D99">
+        <v>22100</v>
+      </c>
+      <c r="E99">
+        <v>35944545000</v>
+      </c>
+      <c r="F99">
+        <v>45984616000</v>
+      </c>
+      <c r="G99">
+        <v>496974000</v>
+      </c>
+      <c r="H99">
+        <v>4923000</v>
+      </c>
+      <c r="I99">
+        <v>82426135000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2023-01-18T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>6957020923000</v>
+      </c>
+      <c r="L99">
+        <v>399228600</v>
+      </c>
+      <c r="M99">
+        <v>202300</v>
+      </c>
+      <c r="N99">
+        <v>10040071000</v>
+      </c>
+      <c r="O99">
+        <v>35958300</v>
+      </c>
+      <c r="P99">
+        <v>861017810000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1674050280000</v>
+      </c>
+      <c r="B100">
+        <v>2546200</v>
+      </c>
+      <c r="C100">
+        <v>2573900</v>
+      </c>
+      <c r="D100">
+        <v>1600</v>
+      </c>
+      <c r="E100">
+        <v>41051269000</v>
+      </c>
+      <c r="F100">
+        <v>49255209000</v>
+      </c>
+      <c r="G100">
+        <v>17883000</v>
+      </c>
+      <c r="H100">
+        <v>5121700</v>
+      </c>
+      <c r="I100">
+        <v>90324361000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2023-01-18T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>7047345284000</v>
+      </c>
+      <c r="L100">
+        <v>404350300</v>
+      </c>
+      <c r="M100">
+        <v>27700</v>
+      </c>
+      <c r="N100">
+        <v>8203940000</v>
+      </c>
+      <c r="O100">
+        <v>35986000</v>
+      </c>
+      <c r="P100">
+        <v>869221750000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1674050400000</v>
+      </c>
+      <c r="B101">
+        <v>2336700</v>
+      </c>
+      <c r="C101">
+        <v>3008500</v>
+      </c>
+      <c r="D101">
+        <v>55400</v>
+      </c>
+      <c r="E101">
+        <v>39565592000</v>
+      </c>
+      <c r="F101">
+        <v>55185214000</v>
+      </c>
+      <c r="G101">
+        <v>1373175000</v>
+      </c>
+      <c r="H101">
+        <v>5400600</v>
+      </c>
+      <c r="I101">
+        <v>96123981000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2023-01-18T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>7143469265000</v>
+      </c>
+      <c r="L101">
+        <v>409750900</v>
+      </c>
+      <c r="M101">
+        <v>671800</v>
+      </c>
+      <c r="N101">
+        <v>15619622000</v>
+      </c>
+      <c r="O101">
+        <v>36657800</v>
+      </c>
+      <c r="P101">
+        <v>884841372000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1674050520000</v>
+      </c>
+      <c r="B102">
+        <v>2036900</v>
+      </c>
+      <c r="C102">
+        <v>2663000</v>
+      </c>
+      <c r="D102">
+        <v>1000</v>
+      </c>
+      <c r="E102">
+        <v>33951791000</v>
+      </c>
+      <c r="F102">
+        <v>48112319000</v>
+      </c>
+      <c r="G102">
+        <v>10373000</v>
+      </c>
+      <c r="H102">
+        <v>4700900</v>
+      </c>
+      <c r="I102">
+        <v>82074483000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2023-01-18T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>7225543748000</v>
+      </c>
+      <c r="L102">
+        <v>414451800</v>
+      </c>
+      <c r="M102">
+        <v>626100</v>
+      </c>
+      <c r="N102">
+        <v>14160528000</v>
+      </c>
+      <c r="O102">
+        <v>37283900</v>
+      </c>
+      <c r="P102">
+        <v>899001900000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1674050640000</v>
+      </c>
+      <c r="B103">
+        <v>2275400</v>
+      </c>
+      <c r="C103">
+        <v>3124100</v>
+      </c>
+      <c r="D103">
+        <v>1400</v>
+      </c>
+      <c r="E103">
+        <v>36049986000</v>
+      </c>
+      <c r="F103">
+        <v>56266464000</v>
+      </c>
+      <c r="G103">
+        <v>14721000</v>
+      </c>
+      <c r="H103">
+        <v>5400900</v>
+      </c>
+      <c r="I103">
+        <v>92331171000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2023-01-18T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>7317874919000</v>
+      </c>
+      <c r="L103">
+        <v>419852700</v>
+      </c>
+      <c r="M103">
+        <v>848700</v>
+      </c>
+      <c r="N103">
+        <v>20216478000</v>
+      </c>
+      <c r="O103">
+        <v>38132600</v>
+      </c>
+      <c r="P103">
+        <v>919218378000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1674050760000</v>
+      </c>
+      <c r="B104">
+        <v>2750900</v>
+      </c>
+      <c r="C104">
+        <v>3418300</v>
+      </c>
+      <c r="D104">
+        <v>30100</v>
+      </c>
+      <c r="E104">
+        <v>50799061000</v>
+      </c>
+      <c r="F104">
+        <v>55352314000</v>
+      </c>
+      <c r="G104">
+        <v>436951000</v>
+      </c>
+      <c r="H104">
+        <v>6199300</v>
+      </c>
+      <c r="I104">
+        <v>106588326000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2023-01-18T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>7424463245000</v>
+      </c>
+      <c r="L104">
+        <v>426052000</v>
+      </c>
+      <c r="M104">
+        <v>667400</v>
+      </c>
+      <c r="N104">
+        <v>4553253000</v>
+      </c>
+      <c r="O104">
+        <v>38800000</v>
+      </c>
+      <c r="P104">
+        <v>923771631000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1674050880000</v>
+      </c>
+      <c r="B105">
+        <v>3232500</v>
+      </c>
+      <c r="C105">
+        <v>4249900</v>
+      </c>
+      <c r="D105">
+        <v>20100</v>
+      </c>
+      <c r="E105">
+        <v>61133376000</v>
+      </c>
+      <c r="F105">
+        <v>65846227000</v>
+      </c>
+      <c r="G105">
+        <v>295193000</v>
+      </c>
+      <c r="H105">
+        <v>7502500</v>
+      </c>
+      <c r="I105">
+        <v>127274796000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2023-01-18T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>7551738041000</v>
+      </c>
+      <c r="L105">
+        <v>433554500</v>
+      </c>
+      <c r="M105">
+        <v>1017400</v>
+      </c>
+      <c r="N105">
+        <v>4712851000</v>
+      </c>
+      <c r="O105">
+        <v>39817400</v>
+      </c>
+      <c r="P105">
+        <v>928484482000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1674051000000</v>
+      </c>
+      <c r="B106">
+        <v>4248100</v>
+      </c>
+      <c r="C106">
+        <v>2893200</v>
+      </c>
+      <c r="D106">
+        <v>15600</v>
+      </c>
+      <c r="E106">
+        <v>62902214000</v>
+      </c>
+      <c r="F106">
+        <v>54405009000</v>
+      </c>
+      <c r="G106">
+        <v>266931000</v>
+      </c>
+      <c r="H106">
+        <v>7156900</v>
+      </c>
+      <c r="I106">
+        <v>117574154000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2023-01-18T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>7669312195000</v>
+      </c>
+      <c r="L106">
+        <v>440711400</v>
+      </c>
+      <c r="M106">
+        <v>-1354900</v>
+      </c>
+      <c r="N106">
+        <v>-8497205000</v>
+      </c>
+      <c r="O106">
+        <v>38462500</v>
+      </c>
+      <c r="P106">
+        <v>919987277000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1674051120000</v>
+      </c>
+      <c r="B107">
+        <v>2327900</v>
+      </c>
+      <c r="C107">
+        <v>4928700</v>
+      </c>
+      <c r="D107">
+        <v>21400</v>
+      </c>
+      <c r="E107">
+        <v>35740032000</v>
+      </c>
+      <c r="F107">
+        <v>100574482000</v>
+      </c>
+      <c r="G107">
+        <v>373097000</v>
+      </c>
+      <c r="H107">
+        <v>7278000</v>
+      </c>
+      <c r="I107">
+        <v>136687611000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2023-01-18T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>7805999806000</v>
+      </c>
+      <c r="L107">
+        <v>447989400</v>
+      </c>
+      <c r="M107">
+        <v>2600800</v>
+      </c>
+      <c r="N107">
+        <v>64834450000</v>
+      </c>
+      <c r="O107">
+        <v>41063300</v>
+      </c>
+      <c r="P107">
+        <v>984821727000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1674051240000</v>
+      </c>
+      <c r="B108">
+        <v>2218200</v>
+      </c>
+      <c r="C108">
+        <v>3754400</v>
+      </c>
+      <c r="D108">
+        <v>14300</v>
+      </c>
+      <c r="E108">
+        <v>38692123000</v>
+      </c>
+      <c r="F108">
+        <v>76978496000</v>
+      </c>
+      <c r="G108">
+        <v>219499000</v>
+      </c>
+      <c r="H108">
+        <v>5986900</v>
+      </c>
+      <c r="I108">
+        <v>115890118000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2023-01-18T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>7921889924000</v>
+      </c>
+      <c r="L108">
+        <v>453976300</v>
+      </c>
+      <c r="M108">
+        <v>1536200</v>
+      </c>
+      <c r="N108">
+        <v>38286373000</v>
+      </c>
+      <c r="O108">
+        <v>42599500</v>
+      </c>
+      <c r="P108">
+        <v>1023108100000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1674051360000</v>
+      </c>
+      <c r="B109">
+        <v>2453700</v>
+      </c>
+      <c r="C109">
+        <v>4518300</v>
+      </c>
+      <c r="D109">
+        <v>14900</v>
+      </c>
+      <c r="E109">
+        <v>40978659000</v>
+      </c>
+      <c r="F109">
+        <v>96455766000</v>
+      </c>
+      <c r="G109">
+        <v>155556000</v>
+      </c>
+      <c r="H109">
+        <v>6986900</v>
+      </c>
+      <c r="I109">
+        <v>137589981000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2023-01-18T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>8059479905000</v>
+      </c>
+      <c r="L109">
+        <v>460963200</v>
+      </c>
+      <c r="M109">
+        <v>2064600</v>
+      </c>
+      <c r="N109">
+        <v>55477107000</v>
+      </c>
+      <c r="O109">
+        <v>44664100</v>
+      </c>
+      <c r="P109">
+        <v>1078585207000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1674051480000</v>
+      </c>
+      <c r="B110">
+        <v>2370200</v>
+      </c>
+      <c r="C110">
+        <v>4516500</v>
+      </c>
+      <c r="D110">
+        <v>25800</v>
+      </c>
+      <c r="E110">
+        <v>39828301000</v>
+      </c>
+      <c r="F110">
+        <v>81130676000</v>
+      </c>
+      <c r="G110">
+        <v>735385000</v>
+      </c>
+      <c r="H110">
+        <v>6912500</v>
+      </c>
+      <c r="I110">
+        <v>121694362000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2023-01-18T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>8181174267000</v>
+      </c>
+      <c r="L110">
+        <v>467875700</v>
+      </c>
+      <c r="M110">
+        <v>2146300</v>
+      </c>
+      <c r="N110">
+        <v>41302375000</v>
+      </c>
+      <c r="O110">
+        <v>46810400</v>
+      </c>
+      <c r="P110">
+        <v>1119887582000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1674051600000</v>
+      </c>
+      <c r="B111">
+        <v>3078200</v>
+      </c>
+      <c r="C111">
+        <v>4141600</v>
+      </c>
+      <c r="D111">
+        <v>13100</v>
+      </c>
+      <c r="E111">
+        <v>50004368000</v>
+      </c>
+      <c r="F111">
+        <v>73219369000</v>
+      </c>
+      <c r="G111">
+        <v>200727000</v>
+      </c>
+      <c r="H111">
+        <v>7232900</v>
+      </c>
+      <c r="I111">
+        <v>123424464000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2023-01-18T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>8304598731000</v>
+      </c>
+      <c r="L111">
+        <v>475108600</v>
+      </c>
+      <c r="M111">
+        <v>1063400</v>
+      </c>
+      <c r="N111">
+        <v>23215001000</v>
+      </c>
+      <c r="O111">
+        <v>47873800</v>
+      </c>
+      <c r="P111">
+        <v>1143102583000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1674051720000</v>
+      </c>
+      <c r="B112">
+        <v>3917500</v>
+      </c>
+      <c r="C112">
+        <v>2826400</v>
+      </c>
+      <c r="D112">
+        <v>8900</v>
+      </c>
+      <c r="E112">
+        <v>62154416000</v>
+      </c>
+      <c r="F112">
+        <v>53426854000</v>
+      </c>
+      <c r="G112">
+        <v>67585000</v>
+      </c>
+      <c r="H112">
+        <v>6752800</v>
+      </c>
+      <c r="I112">
+        <v>115648855000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2023-01-18T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>8420247586000</v>
+      </c>
+      <c r="L112">
+        <v>481861400</v>
+      </c>
+      <c r="M112">
+        <v>-1091100</v>
+      </c>
+      <c r="N112">
+        <v>-8727562000</v>
+      </c>
+      <c r="O112">
+        <v>46782700</v>
+      </c>
+      <c r="P112">
+        <v>1134375021000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1674051840000</v>
+      </c>
+      <c r="B113">
+        <v>3518200</v>
+      </c>
+      <c r="C113">
+        <v>3009300</v>
+      </c>
+      <c r="D113">
+        <v>90500</v>
+      </c>
+      <c r="E113">
+        <v>61159096000</v>
+      </c>
+      <c r="F113">
+        <v>60786459000</v>
+      </c>
+      <c r="G113">
+        <v>6312494000</v>
+      </c>
+      <c r="H113">
+        <v>6618000</v>
+      </c>
+      <c r="I113">
+        <v>128258049000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2023-01-18T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>8548505635000</v>
+      </c>
+      <c r="L113">
+        <v>488479400</v>
+      </c>
+      <c r="M113">
+        <v>-508900</v>
+      </c>
+      <c r="N113">
+        <v>-372637000</v>
+      </c>
+      <c r="O113">
+        <v>46273800</v>
+      </c>
+      <c r="P113">
+        <v>1134002384000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1674051960000</v>
+      </c>
+      <c r="B114">
+        <v>5230600</v>
+      </c>
+      <c r="C114">
+        <v>2503600</v>
+      </c>
+      <c r="D114">
+        <v>17900</v>
+      </c>
+      <c r="E114">
+        <v>90536653000</v>
+      </c>
+      <c r="F114">
+        <v>46333239000</v>
+      </c>
+      <c r="G114">
+        <v>164768000</v>
+      </c>
+      <c r="H114">
+        <v>7752100</v>
+      </c>
+      <c r="I114">
+        <v>137034660000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2023-01-18T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>8685540295000</v>
+      </c>
+      <c r="L114">
+        <v>496231500</v>
+      </c>
+      <c r="M114">
+        <v>-2727000</v>
+      </c>
+      <c r="N114">
+        <v>-44203414000</v>
+      </c>
+      <c r="O114">
+        <v>43546800</v>
+      </c>
+      <c r="P114">
+        <v>1089798970000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1674052080000</v>
+      </c>
+      <c r="B115">
+        <v>6665800</v>
+      </c>
+      <c r="C115">
+        <v>2872000</v>
+      </c>
+      <c r="D115">
+        <v>27500</v>
+      </c>
+      <c r="E115">
+        <v>111700491000</v>
+      </c>
+      <c r="F115">
+        <v>47557695000</v>
+      </c>
+      <c r="G115">
+        <v>475855000</v>
+      </c>
+      <c r="H115">
+        <v>9565300</v>
+      </c>
+      <c r="I115">
+        <v>159734041000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2023-01-18T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>8845274336000</v>
+      </c>
+      <c r="L115">
+        <v>505796800</v>
+      </c>
+      <c r="M115">
+        <v>-3793800</v>
+      </c>
+      <c r="N115">
+        <v>-64142796000</v>
+      </c>
+      <c r="O115">
+        <v>39753000</v>
+      </c>
+      <c r="P115">
+        <v>1025656174000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1674052200000</v>
+      </c>
+      <c r="B116">
+        <v>32900</v>
+      </c>
+      <c r="C116">
+        <v>6800</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>702955000</v>
+      </c>
+      <c r="F116">
+        <v>50728000</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>39700</v>
+      </c>
+      <c r="I116">
+        <v>753683000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2023-01-18T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>8846028019000</v>
+      </c>
+      <c r="L116">
+        <v>505836500</v>
+      </c>
+      <c r="M116">
+        <v>-26100</v>
+      </c>
+      <c r="N116">
+        <v>-652227000</v>
+      </c>
+      <c r="O116">
+        <v>39726900</v>
+      </c>
+      <c r="P116">
+        <v>1025003947000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1674053040000</v>
+      </c>
+      <c r="B117">
         <v>227500</v>
       </c>
-      <c r="C49">
+      <c r="C117">
         <v>1193300</v>
       </c>
-      <c r="D49">
+      <c r="D117">
         <v>22953300</v>
       </c>
-      <c r="E49">
+      <c r="E117">
         <v>2704260000</v>
       </c>
-      <c r="F49">
+      <c r="F117">
         <v>16639136000</v>
       </c>
-      <c r="G49">
+      <c r="G117">
         <v>480617961000</v>
       </c>
-      <c r="H49">
+      <c r="H117">
         <v>24374100</v>
       </c>
-      <c r="I49">
+      <c r="I117">
         <v>499961357000</v>
       </c>
-      <c r="J49" t="str">
-        <v>2023-01-18T14:45:00.000Z</v>
-      </c>
-      <c r="K49">
+      <c r="J117" t="str">
+        <v>2023-01-18T14:44:00.000Z</v>
+      </c>
+      <c r="K117">
         <v>9345989376000</v>
       </c>
-      <c r="L49">
+      <c r="L117">
         <v>530210600</v>
       </c>
-      <c r="M49">
+      <c r="M117">
         <v>965800</v>
       </c>
-      <c r="N49">
+      <c r="N117">
         <v>13934876000</v>
       </c>
-      <c r="O49">
+      <c r="O117">
         <v>40692700</v>
       </c>
-      <c r="P49">
+      <c r="P117">
         <v>1038938823000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P49"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20230118/VNINDEX_HOSE_5p_20230118.xlsx
+++ b/name/vnindex/20230118/VNINDEX_HOSE_5p_20230118.xlsx
@@ -466,25 +466,25 @@
         <v>3733900</v>
       </c>
       <c r="E2">
-        <v>45463965000</v>
+        <v>43256574600</v>
       </c>
       <c r="F2">
-        <v>46793988000</v>
+        <v>40942445400</v>
       </c>
       <c r="G2">
-        <v>63564819000</v>
+        <v>45927673800</v>
       </c>
       <c r="H2">
         <v>9267400</v>
       </c>
       <c r="I2">
-        <v>155822772000</v>
+        <v>130126693800</v>
       </c>
       <c r="J2" t="str">
         <v>2023-01-18T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>155822772000</v>
+        <v>130126693800</v>
       </c>
       <c r="L2">
         <v>9267400</v>
@@ -493,13 +493,13 @@
         <v>-57300</v>
       </c>
       <c r="N2">
-        <v>1330023000</v>
+        <v>-2314129200</v>
       </c>
       <c r="O2">
         <v>-57300</v>
       </c>
       <c r="P2">
-        <v>1330023000</v>
+        <v>-2314129200</v>
       </c>
     </row>
     <row r="3">
@@ -516,10 +516,10 @@
         <v>54800</v>
       </c>
       <c r="E3">
-        <v>38606212000</v>
+        <v>32617606600</v>
       </c>
       <c r="F3">
-        <v>58375618000</v>
+        <v>46949755300</v>
       </c>
       <c r="G3">
         <v>906167000</v>
@@ -528,13 +528,13 @@
         <v>5460100</v>
       </c>
       <c r="I3">
-        <v>97887997000</v>
+        <v>80473528900</v>
       </c>
       <c r="J3" t="str">
         <v>2023-01-18T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>253710769000</v>
+        <v>210600222700</v>
       </c>
       <c r="L3">
         <v>14727500</v>
@@ -543,13 +543,13 @@
         <v>1009300</v>
       </c>
       <c r="N3">
-        <v>19769406000</v>
+        <v>14332148700</v>
       </c>
       <c r="O3">
         <v>952000</v>
       </c>
       <c r="P3">
-        <v>21099429000</v>
+        <v>12018019500</v>
       </c>
     </row>
     <row r="4">
@@ -566,25 +566,25 @@
         <v>15600</v>
       </c>
       <c r="E4">
-        <v>45527835000</v>
+        <v>40870397100</v>
       </c>
       <c r="F4">
-        <v>59688135000</v>
+        <v>49896336600</v>
       </c>
       <c r="G4">
-        <v>234533000</v>
+        <v>181785800</v>
       </c>
       <c r="H4">
         <v>5928400</v>
       </c>
       <c r="I4">
-        <v>105450503000</v>
+        <v>90948519500</v>
       </c>
       <c r="J4" t="str">
         <v>2023-01-18T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>359161272000</v>
+        <v>301548742200</v>
       </c>
       <c r="L4">
         <v>20655900</v>
@@ -593,13 +593,13 @@
         <v>608000</v>
       </c>
       <c r="N4">
-        <v>14160300000</v>
+        <v>9025939500</v>
       </c>
       <c r="O4">
         <v>1560000</v>
       </c>
       <c r="P4">
-        <v>35259729000</v>
+        <v>21043959000</v>
       </c>
     </row>
     <row r="5">
@@ -616,10 +616,10 @@
         <v>24400</v>
       </c>
       <c r="E5">
-        <v>43525325000</v>
+        <v>40066087700</v>
       </c>
       <c r="F5">
-        <v>42539665000</v>
+        <v>36710599900</v>
       </c>
       <c r="G5">
         <v>284560000</v>
@@ -628,13 +628,13 @@
         <v>5224900</v>
       </c>
       <c r="I5">
-        <v>86349550000</v>
+        <v>77061247600</v>
       </c>
       <c r="J5" t="str">
         <v>2023-01-18T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>445510822000</v>
+        <v>378609989800</v>
       </c>
       <c r="L5">
         <v>25880800</v>
@@ -643,13 +643,13 @@
         <v>-460900</v>
       </c>
       <c r="N5">
-        <v>-985660000</v>
+        <v>-3355487800</v>
       </c>
       <c r="O5">
         <v>1099100</v>
       </c>
       <c r="P5">
-        <v>34274069000</v>
+        <v>17688471200</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +666,10 @@
         <v>49600</v>
       </c>
       <c r="E6">
-        <v>43207367000</v>
+        <v>40661915000</v>
       </c>
       <c r="F6">
-        <v>44130437000</v>
+        <v>38011661900</v>
       </c>
       <c r="G6">
         <v>332850000</v>
@@ -678,13 +678,13 @@
         <v>5049000</v>
       </c>
       <c r="I6">
-        <v>87670654000</v>
+        <v>79006426900</v>
       </c>
       <c r="J6" t="str">
         <v>2023-01-18T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>533181476000</v>
+        <v>457616416700</v>
       </c>
       <c r="L6">
         <v>30929800</v>
@@ -693,13 +693,13 @@
         <v>-115400</v>
       </c>
       <c r="N6">
-        <v>923070000</v>
+        <v>-2650253100</v>
       </c>
       <c r="O6">
         <v>983700</v>
       </c>
       <c r="P6">
-        <v>35197139000</v>
+        <v>15038218100</v>
       </c>
     </row>
     <row r="7">
@@ -716,10 +716,10 @@
         <v>8500</v>
       </c>
       <c r="E7">
-        <v>38206287000</v>
+        <v>36903191400</v>
       </c>
       <c r="F7">
-        <v>50557691000</v>
+        <v>47996454800</v>
       </c>
       <c r="G7">
         <v>405889000</v>
@@ -728,13 +728,13 @@
         <v>4777200</v>
       </c>
       <c r="I7">
-        <v>89169867000</v>
+        <v>85305535200</v>
       </c>
       <c r="J7" t="str">
         <v>2023-01-18T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>622351343000</v>
+        <v>542921951900</v>
       </c>
       <c r="L7">
         <v>35707000</v>
@@ -743,13 +743,13 @@
         <v>187900</v>
       </c>
       <c r="N7">
-        <v>12351404000</v>
+        <v>11093263400</v>
       </c>
       <c r="O7">
         <v>1171600</v>
       </c>
       <c r="P7">
-        <v>47548543000</v>
+        <v>26131481500</v>
       </c>
     </row>
     <row r="8">
@@ -766,25 +766,25 @@
         <v>18500</v>
       </c>
       <c r="E8">
-        <v>41147624000</v>
+        <v>39505767500</v>
       </c>
       <c r="F8">
-        <v>43168643000</v>
+        <v>41538275000</v>
       </c>
       <c r="G8">
-        <v>349392000</v>
+        <v>341899500</v>
       </c>
       <c r="H8">
         <v>4966600</v>
       </c>
       <c r="I8">
-        <v>84665659000</v>
+        <v>81385942000</v>
       </c>
       <c r="J8" t="str">
         <v>2023-01-18T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>707017002000</v>
+        <v>624307893900</v>
       </c>
       <c r="L8">
         <v>40673600</v>
@@ -793,13 +793,13 @@
         <v>-334100</v>
       </c>
       <c r="N8">
-        <v>2021019000</v>
+        <v>2032507500</v>
       </c>
       <c r="O8">
         <v>837500</v>
       </c>
       <c r="P8">
-        <v>49569562000</v>
+        <v>28163989000</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         <v>6500</v>
       </c>
       <c r="E9">
-        <v>67024014000</v>
+        <v>61532111400</v>
       </c>
       <c r="F9">
-        <v>30889896000</v>
+        <v>30046440300</v>
       </c>
       <c r="G9">
-        <v>112394000</v>
+        <v>94412000</v>
       </c>
       <c r="H9">
         <v>5374000</v>
       </c>
       <c r="I9">
-        <v>98026304000</v>
+        <v>91672963700</v>
       </c>
       <c r="J9" t="str">
         <v>2023-01-18T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>805043306000</v>
+        <v>715980857600</v>
       </c>
       <c r="L9">
         <v>46047600</v>
@@ -843,13 +843,13 @@
         <v>-2396100</v>
       </c>
       <c r="N9">
-        <v>-36134118000</v>
+        <v>-31485671100</v>
       </c>
       <c r="O9">
         <v>-1558600</v>
       </c>
       <c r="P9">
-        <v>13435444000</v>
+        <v>-3321682100</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>30800</v>
       </c>
       <c r="E10">
-        <v>61476341000</v>
+        <v>58371648800</v>
       </c>
       <c r="F10">
-        <v>35470280000</v>
+        <v>31890363500</v>
       </c>
       <c r="G10">
         <v>474945000</v>
@@ -878,13 +878,13 @@
         <v>6112000</v>
       </c>
       <c r="I10">
-        <v>97421566000</v>
+        <v>90736957300</v>
       </c>
       <c r="J10" t="str">
         <v>2023-01-18T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>902464872000</v>
+        <v>806717814900</v>
       </c>
       <c r="L10">
         <v>52159600</v>
@@ -893,13 +893,13 @@
         <v>-2546200</v>
       </c>
       <c r="N10">
-        <v>-26006061000</v>
+        <v>-26481285300</v>
       </c>
       <c r="O10">
         <v>-4104800</v>
       </c>
       <c r="P10">
-        <v>-12570617000</v>
+        <v>-29802967400</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>11300</v>
       </c>
       <c r="E11">
-        <v>33135083000</v>
+        <v>32234284700</v>
       </c>
       <c r="F11">
-        <v>38207497000</v>
+        <v>35504902300</v>
       </c>
       <c r="G11">
         <v>184572000</v>
@@ -928,13 +928,13 @@
         <v>3696400</v>
       </c>
       <c r="I11">
-        <v>71527152000</v>
+        <v>67923759000</v>
       </c>
       <c r="J11" t="str">
         <v>2023-01-18T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>973992024000</v>
+        <v>874641573900</v>
       </c>
       <c r="L11">
         <v>55856000</v>
@@ -943,13 +943,13 @@
         <v>24100</v>
       </c>
       <c r="N11">
-        <v>5072414000</v>
+        <v>3270617600</v>
       </c>
       <c r="O11">
         <v>-4080700</v>
       </c>
       <c r="P11">
-        <v>-7498203000</v>
+        <v>-26532349800</v>
       </c>
     </row>
     <row r="12">
@@ -966,25 +966,25 @@
         <v>13000</v>
       </c>
       <c r="E12">
-        <v>36700819000</v>
+        <v>35738482300</v>
       </c>
       <c r="F12">
-        <v>34015081000</v>
+        <v>29849650600</v>
       </c>
       <c r="G12">
-        <v>300684000</v>
+        <v>284200500</v>
       </c>
       <c r="H12">
         <v>3757500</v>
       </c>
       <c r="I12">
-        <v>71016584000</v>
+        <v>65872333400</v>
       </c>
       <c r="J12" t="str">
         <v>2023-01-18T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1045008608000</v>
+        <v>940513907300</v>
       </c>
       <c r="L12">
         <v>59613500</v>
@@ -993,13 +993,13 @@
         <v>-251100</v>
       </c>
       <c r="N12">
-        <v>-2685738000</v>
+        <v>-5888831700</v>
       </c>
       <c r="O12">
         <v>-4331800</v>
       </c>
       <c r="P12">
-        <v>-10183941000</v>
+        <v>-32421181500</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>6000</v>
       </c>
       <c r="E13">
-        <v>41992951000</v>
+        <v>39386060500</v>
       </c>
       <c r="F13">
-        <v>28071171000</v>
+        <v>25878266100</v>
       </c>
       <c r="G13">
         <v>73561000</v>
@@ -1028,13 +1028,13 @@
         <v>3664400</v>
       </c>
       <c r="I13">
-        <v>70137683000</v>
+        <v>65337887600</v>
       </c>
       <c r="J13" t="str">
         <v>2023-01-18T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1115146291000</v>
+        <v>1005851794900</v>
       </c>
       <c r="L13">
         <v>63277900</v>
@@ -1043,13 +1043,13 @@
         <v>-659800</v>
       </c>
       <c r="N13">
-        <v>-13921780000</v>
+        <v>-13507794400</v>
       </c>
       <c r="O13">
         <v>-4991600</v>
       </c>
       <c r="P13">
-        <v>-24105721000</v>
+        <v>-45928975900</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1066,10 @@
         <v>90400</v>
       </c>
       <c r="E14">
-        <v>40123425000</v>
+        <v>38287362900</v>
       </c>
       <c r="F14">
-        <v>33850521000</v>
+        <v>31605668100</v>
       </c>
       <c r="G14">
         <v>855532000</v>
@@ -1078,13 +1078,13 @@
         <v>4163400</v>
       </c>
       <c r="I14">
-        <v>74829478000</v>
+        <v>70748563000</v>
       </c>
       <c r="J14" t="str">
         <v>2023-01-18T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1189975769000</v>
+        <v>1076600357900</v>
       </c>
       <c r="L14">
         <v>67441300</v>
@@ -1093,13 +1093,13 @@
         <v>-91600</v>
       </c>
       <c r="N14">
-        <v>-6272904000</v>
+        <v>-6681694800</v>
       </c>
       <c r="O14">
         <v>-5083200</v>
       </c>
       <c r="P14">
-        <v>-30378625000</v>
+        <v>-52610670700</v>
       </c>
     </row>
     <row r="15">
@@ -1116,25 +1116,25 @@
         <v>1900</v>
       </c>
       <c r="E15">
-        <v>34839571000</v>
+        <v>33819492100</v>
       </c>
       <c r="F15">
-        <v>48071628000</v>
+        <v>42213492000</v>
       </c>
       <c r="G15">
-        <v>43100000</v>
+        <v>24418700</v>
       </c>
       <c r="H15">
         <v>4443200</v>
       </c>
       <c r="I15">
-        <v>82954299000</v>
+        <v>76057402800</v>
       </c>
       <c r="J15" t="str">
         <v>2023-01-18T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1272930068000</v>
+        <v>1152657760700</v>
       </c>
       <c r="L15">
         <v>71884500</v>
@@ -1143,13 +1143,13 @@
         <v>435900</v>
       </c>
       <c r="N15">
-        <v>13232057000</v>
+        <v>8393999900</v>
       </c>
       <c r="O15">
         <v>-4647300</v>
       </c>
       <c r="P15">
-        <v>-17146568000</v>
+        <v>-44216670800</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>3100</v>
       </c>
       <c r="E16">
-        <v>18353980000</v>
+        <v>17207527600</v>
       </c>
       <c r="F16">
-        <v>54830947000</v>
+        <v>49875807100</v>
       </c>
       <c r="G16">
         <v>36552000</v>
@@ -1178,13 +1178,13 @@
         <v>4426900</v>
       </c>
       <c r="I16">
-        <v>73221479000</v>
+        <v>67119886700</v>
       </c>
       <c r="J16" t="str">
         <v>2023-01-18T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1346151547000</v>
+        <v>1219777647400</v>
       </c>
       <c r="L16">
         <v>76311400</v>
@@ -1193,13 +1193,13 @@
         <v>1943400</v>
       </c>
       <c r="N16">
-        <v>36476967000</v>
+        <v>32668279500</v>
       </c>
       <c r="O16">
         <v>-2703900</v>
       </c>
       <c r="P16">
-        <v>19330399000</v>
+        <v>-11548391300</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>12500</v>
       </c>
       <c r="E17">
-        <v>20397550000</v>
+        <v>19725422800</v>
       </c>
       <c r="F17">
-        <v>67268670000</v>
+        <v>63156586200</v>
       </c>
       <c r="G17">
         <v>210886000</v>
@@ -1228,13 +1228,13 @@
         <v>5124800</v>
       </c>
       <c r="I17">
-        <v>87877106000</v>
+        <v>83092895000</v>
       </c>
       <c r="J17" t="str">
         <v>2023-01-18T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1434028653000</v>
+        <v>1302870542400</v>
       </c>
       <c r="L17">
         <v>81436200</v>
@@ -1243,13 +1243,13 @@
         <v>2608900</v>
       </c>
       <c r="N17">
-        <v>46871120000</v>
+        <v>43431163400</v>
       </c>
       <c r="O17">
         <v>-95000</v>
       </c>
       <c r="P17">
-        <v>66201519000</v>
+        <v>31882772100</v>
       </c>
     </row>
     <row r="18">
@@ -1266,25 +1266,25 @@
         <v>3300</v>
       </c>
       <c r="E18">
-        <v>19083977000</v>
+        <v>18122439500</v>
       </c>
       <c r="F18">
-        <v>77388949000</v>
+        <v>66458390500</v>
       </c>
       <c r="G18">
-        <v>141373000</v>
+        <v>31483000</v>
       </c>
       <c r="H18">
         <v>5492500</v>
       </c>
       <c r="I18">
-        <v>96614299000</v>
+        <v>84612313000</v>
       </c>
       <c r="J18" t="str">
         <v>2023-01-18T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1530642952000</v>
+        <v>1387482855400</v>
       </c>
       <c r="L18">
         <v>86928700</v>
@@ -1293,13 +1293,13 @@
         <v>3385000</v>
       </c>
       <c r="N18">
-        <v>58304972000</v>
+        <v>48335951000</v>
       </c>
       <c r="O18">
         <v>3290000</v>
       </c>
       <c r="P18">
-        <v>124506491000</v>
+        <v>80218723100</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>50200</v>
       </c>
       <c r="E19">
-        <v>21776364000</v>
+        <v>19428414300</v>
       </c>
       <c r="F19">
-        <v>49693832000</v>
+        <v>42858174500</v>
       </c>
       <c r="G19">
         <v>600148000</v>
@@ -1328,13 +1328,13 @@
         <v>4387800</v>
       </c>
       <c r="I19">
-        <v>72070344000</v>
+        <v>62886736800</v>
       </c>
       <c r="J19" t="str">
         <v>2023-01-18T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1602713296000</v>
+        <v>1450369592200</v>
       </c>
       <c r="L19">
         <v>91316500</v>
@@ -1343,13 +1343,13 @@
         <v>1524600</v>
       </c>
       <c r="N19">
-        <v>27917468000</v>
+        <v>23429760200</v>
       </c>
       <c r="O19">
         <v>4814600</v>
       </c>
       <c r="P19">
-        <v>152423959000</v>
+        <v>103648483300</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>6200</v>
       </c>
       <c r="E20">
-        <v>33500824000</v>
+        <v>28395234700</v>
       </c>
       <c r="F20">
-        <v>38644018000</v>
+        <v>36206557900</v>
       </c>
       <c r="G20">
         <v>237325000</v>
@@ -1378,13 +1378,13 @@
         <v>3789800</v>
       </c>
       <c r="I20">
-        <v>72382167000</v>
+        <v>64839117600</v>
       </c>
       <c r="J20" t="str">
         <v>2023-01-18T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1675095463000</v>
+        <v>1515208709800</v>
       </c>
       <c r="L20">
         <v>95106300</v>
@@ -1393,13 +1393,13 @@
         <v>-125400</v>
       </c>
       <c r="N20">
-        <v>5143194000</v>
+        <v>7811323200</v>
       </c>
       <c r="O20">
         <v>4689200</v>
       </c>
       <c r="P20">
-        <v>157567153000</v>
+        <v>111459806500</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>32100</v>
       </c>
       <c r="E21">
-        <v>33555904000</v>
+        <v>29980982500</v>
       </c>
       <c r="F21">
-        <v>32479042000</v>
+        <v>29541282700</v>
       </c>
       <c r="G21">
         <v>496952000</v>
@@ -1428,13 +1428,13 @@
         <v>3727000</v>
       </c>
       <c r="I21">
-        <v>66531898000</v>
+        <v>60019217200</v>
       </c>
       <c r="J21" t="str">
         <v>2023-01-18T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>1741627361000</v>
+        <v>1575227927000</v>
       </c>
       <c r="L21">
         <v>98833300</v>
@@ -1443,13 +1443,13 @@
         <v>-191300</v>
       </c>
       <c r="N21">
-        <v>-1076862000</v>
+        <v>-439699800</v>
       </c>
       <c r="O21">
         <v>4497900</v>
       </c>
       <c r="P21">
-        <v>156490291000</v>
+        <v>111020106700</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>7500</v>
       </c>
       <c r="E22">
-        <v>24388932000</v>
+        <v>23959062300</v>
       </c>
       <c r="F22">
-        <v>31246563000</v>
+        <v>30195615000</v>
       </c>
       <c r="G22">
         <v>229183000</v>
@@ -1478,13 +1478,13 @@
         <v>3501100</v>
       </c>
       <c r="I22">
-        <v>55864678000</v>
+        <v>54383860300</v>
       </c>
       <c r="J22" t="str">
         <v>2023-01-18T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>1797492039000</v>
+        <v>1629611787300</v>
       </c>
       <c r="L22">
         <v>102334400</v>
@@ -1493,13 +1493,13 @@
         <v>208200</v>
       </c>
       <c r="N22">
-        <v>6857631000</v>
+        <v>6236552700</v>
       </c>
       <c r="O22">
         <v>4706100</v>
       </c>
       <c r="P22">
-        <v>163347922000</v>
+        <v>117256659400</v>
       </c>
     </row>
     <row r="23">
@@ -1516,25 +1516,25 @@
         <v>43900</v>
       </c>
       <c r="E23">
-        <v>29071166000</v>
+        <v>25403737100</v>
       </c>
       <c r="F23">
-        <v>32511840000</v>
+        <v>29651603100</v>
       </c>
       <c r="G23">
-        <v>754570000</v>
+        <v>742582000</v>
       </c>
       <c r="H23">
         <v>3599500</v>
       </c>
       <c r="I23">
-        <v>62337576000</v>
+        <v>55797922200</v>
       </c>
       <c r="J23" t="str">
         <v>2023-01-18T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>1859829615000</v>
+        <v>1685409709500</v>
       </c>
       <c r="L23">
         <v>105933900</v>
@@ -1543,13 +1543,13 @@
         <v>-269200</v>
       </c>
       <c r="N23">
-        <v>3440674000</v>
+        <v>4247866000</v>
       </c>
       <c r="O23">
         <v>4436900</v>
       </c>
       <c r="P23">
-        <v>166788596000</v>
+        <v>121504525400</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>1100</v>
       </c>
       <c r="E24">
-        <v>21478529000</v>
+        <v>21248059700</v>
       </c>
       <c r="F24">
-        <v>48554216000</v>
+        <v>46188184400</v>
       </c>
       <c r="G24">
         <v>10931000</v>
@@ -1578,13 +1578,13 @@
         <v>3714000</v>
       </c>
       <c r="I24">
-        <v>70043676000</v>
+        <v>67447175100</v>
       </c>
       <c r="J24" t="str">
         <v>2023-01-18T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>1929873291000</v>
+        <v>1752856884600</v>
       </c>
       <c r="L24">
         <v>109647900</v>
@@ -1593,13 +1593,13 @@
         <v>1069500</v>
       </c>
       <c r="N24">
-        <v>27075687000</v>
+        <v>24940124700</v>
       </c>
       <c r="O24">
         <v>5506400</v>
       </c>
       <c r="P24">
-        <v>193864283000</v>
+        <v>146444650100</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>7400</v>
       </c>
       <c r="E25">
-        <v>33809577000</v>
+        <v>32061027300</v>
       </c>
       <c r="F25">
-        <v>22277196000</v>
+        <v>21202172100</v>
       </c>
       <c r="G25">
         <v>217940000</v>
@@ -1628,13 +1628,13 @@
         <v>2993600</v>
       </c>
       <c r="I25">
-        <v>56304713000</v>
+        <v>53481139400</v>
       </c>
       <c r="J25" t="str">
         <v>2023-01-18T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>1986178004000</v>
+        <v>1806338024000</v>
       </c>
       <c r="L25">
         <v>112641500</v>
@@ -1643,13 +1643,13 @@
         <v>-677400</v>
       </c>
       <c r="N25">
-        <v>-11532381000</v>
+        <v>-10858855200</v>
       </c>
       <c r="O25">
         <v>4829000</v>
       </c>
       <c r="P25">
-        <v>182331902000</v>
+        <v>135585794900</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>16900</v>
       </c>
       <c r="E26">
-        <v>50530297000</v>
+        <v>47118512200</v>
       </c>
       <c r="F26">
-        <v>22303921000</v>
+        <v>19808818600</v>
       </c>
       <c r="G26">
         <v>388910000</v>
@@ -1678,13 +1678,13 @@
         <v>3807900</v>
       </c>
       <c r="I26">
-        <v>73223128000</v>
+        <v>67316240800</v>
       </c>
       <c r="J26" t="str">
         <v>2023-01-18T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2059401132000</v>
+        <v>1873654264800</v>
       </c>
       <c r="L26">
         <v>116449400</v>
@@ -1693,13 +1693,13 @@
         <v>-1504800</v>
       </c>
       <c r="N26">
-        <v>-28226376000</v>
+        <v>-27309693600</v>
       </c>
       <c r="O26">
         <v>3324200</v>
       </c>
       <c r="P26">
-        <v>154105526000</v>
+        <v>108276101300</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>31000</v>
       </c>
       <c r="E27">
-        <v>55734142000</v>
+        <v>54157919800</v>
       </c>
       <c r="F27">
-        <v>23181465000</v>
+        <v>20393655600</v>
       </c>
       <c r="G27">
         <v>878395000</v>
@@ -1728,13 +1728,13 @@
         <v>4208700</v>
       </c>
       <c r="I27">
-        <v>79794002000</v>
+        <v>75429970400</v>
       </c>
       <c r="J27" t="str">
         <v>2023-01-18T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2139195134000</v>
+        <v>1949084235200</v>
       </c>
       <c r="L27">
         <v>120658100</v>
@@ -1743,13 +1743,13 @@
         <v>-2056500</v>
       </c>
       <c r="N27">
-        <v>-32552677000</v>
+        <v>-33764264200</v>
       </c>
       <c r="O27">
         <v>1267700</v>
       </c>
       <c r="P27">
-        <v>121552849000</v>
+        <v>74511837100</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>23400</v>
       </c>
       <c r="E28">
-        <v>40410391000</v>
+        <v>38574728500</v>
       </c>
       <c r="F28">
-        <v>26161146000</v>
+        <v>23655554100</v>
       </c>
       <c r="G28">
         <v>388260000</v>
@@ -1778,13 +1778,13 @@
         <v>3430900</v>
       </c>
       <c r="I28">
-        <v>66959797000</v>
+        <v>62618542600</v>
       </c>
       <c r="J28" t="str">
         <v>2023-01-18T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2206154931000</v>
+        <v>2011702777800</v>
       </c>
       <c r="L28">
         <v>124089000</v>
@@ -1793,13 +1793,13 @@
         <v>-905500</v>
       </c>
       <c r="N28">
-        <v>-14249245000</v>
+        <v>-14919174400</v>
       </c>
       <c r="O28">
         <v>362200</v>
       </c>
       <c r="P28">
-        <v>107303604000</v>
+        <v>59592662700</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>30600</v>
       </c>
       <c r="E29">
-        <v>35311309000</v>
+        <v>34283537800</v>
       </c>
       <c r="F29">
-        <v>23030772000</v>
+        <v>20871833100</v>
       </c>
       <c r="G29">
         <v>448567000</v>
@@ -1828,13 +1828,13 @@
         <v>3305700</v>
       </c>
       <c r="I29">
-        <v>58790648000</v>
+        <v>55603937900</v>
       </c>
       <c r="J29" t="str">
         <v>2023-01-18T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2264945579000</v>
+        <v>2067306715700</v>
       </c>
       <c r="L29">
         <v>127394700</v>
@@ -1843,13 +1843,13 @@
         <v>-697900</v>
       </c>
       <c r="N29">
-        <v>-12280537000</v>
+        <v>-13411704700</v>
       </c>
       <c r="O29">
         <v>-335700</v>
       </c>
       <c r="P29">
-        <v>95023067000</v>
+        <v>46180958000</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>6100</v>
       </c>
       <c r="E30">
-        <v>37156455000</v>
+        <v>33014601000</v>
       </c>
       <c r="F30">
-        <v>37240939000</v>
+        <v>33727955500</v>
       </c>
       <c r="G30">
         <v>246687000</v>
@@ -1878,13 +1878,13 @@
         <v>3517800</v>
       </c>
       <c r="I30">
-        <v>74644081000</v>
+        <v>66989243500</v>
       </c>
       <c r="J30" t="str">
         <v>2023-01-18T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>2339589660000</v>
+        <v>2134295959200</v>
       </c>
       <c r="L30">
         <v>130912500</v>
@@ -1893,13 +1893,13 @@
         <v>-191100</v>
       </c>
       <c r="N30">
-        <v>84484000</v>
+        <v>713354500</v>
       </c>
       <c r="O30">
         <v>-526800</v>
       </c>
       <c r="P30">
-        <v>95107551000</v>
+        <v>46894312500</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>3900</v>
       </c>
       <c r="E31">
-        <v>40070166000</v>
+        <v>38868468900</v>
       </c>
       <c r="F31">
-        <v>20937216000</v>
+        <v>20034419700</v>
       </c>
       <c r="G31">
         <v>92537000</v>
@@ -1928,13 +1928,13 @@
         <v>3242000</v>
       </c>
       <c r="I31">
-        <v>61099919000</v>
+        <v>58995425600</v>
       </c>
       <c r="J31" t="str">
         <v>2023-01-18T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>2400689579000</v>
+        <v>2193291384800</v>
       </c>
       <c r="L31">
         <v>134154500</v>
@@ -1943,13 +1943,13 @@
         <v>-907500</v>
       </c>
       <c r="N31">
-        <v>-19132950000</v>
+        <v>-18834049200</v>
       </c>
       <c r="O31">
         <v>-1434300</v>
       </c>
       <c r="P31">
-        <v>75974601000</v>
+        <v>28060263300</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>10500</v>
       </c>
       <c r="E32">
-        <v>35053306000</v>
+        <v>34123237000</v>
       </c>
       <c r="F32">
-        <v>29100504000</v>
+        <v>25644763200</v>
       </c>
       <c r="G32">
         <v>201264000</v>
@@ -1978,13 +1978,13 @@
         <v>3277800</v>
       </c>
       <c r="I32">
-        <v>64355074000</v>
+        <v>59969264200</v>
       </c>
       <c r="J32" t="str">
         <v>2023-01-18T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>2465044653000</v>
+        <v>2253260649000</v>
       </c>
       <c r="L32">
         <v>137432300</v>
@@ -1993,13 +1993,13 @@
         <v>-653500</v>
       </c>
       <c r="N32">
-        <v>-5952802000</v>
+        <v>-8478473800</v>
       </c>
       <c r="O32">
         <v>-2087800</v>
       </c>
       <c r="P32">
-        <v>70021799000</v>
+        <v>19581789500</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>32400</v>
       </c>
       <c r="E33">
-        <v>36710812000</v>
+        <v>35568155800</v>
       </c>
       <c r="F33">
-        <v>57853729000</v>
+        <v>46307686600</v>
       </c>
       <c r="G33">
         <v>607164000</v>
@@ -2028,13 +2028,13 @@
         <v>4426300</v>
       </c>
       <c r="I33">
-        <v>95171705000</v>
+        <v>82483006400</v>
       </c>
       <c r="J33" t="str">
         <v>2023-01-18T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>2560216358000</v>
+        <v>2335743655400</v>
       </c>
       <c r="L33">
         <v>141858600</v>
@@ -2043,13 +2043,13 @@
         <v>859300</v>
       </c>
       <c r="N33">
-        <v>21142917000</v>
+        <v>10739530800</v>
       </c>
       <c r="O33">
         <v>-1228500</v>
       </c>
       <c r="P33">
-        <v>91164716000</v>
+        <v>30321320300</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>13000</v>
       </c>
       <c r="E34">
-        <v>25175453000</v>
+        <v>23444885300</v>
       </c>
       <c r="F34">
-        <v>35646244000</v>
+        <v>33833258800</v>
       </c>
       <c r="G34">
         <v>305799000</v>
@@ -2078,13 +2078,13 @@
         <v>3189400</v>
       </c>
       <c r="I34">
-        <v>61127496000</v>
+        <v>57583943100</v>
       </c>
       <c r="J34" t="str">
         <v>2023-01-18T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>2621343854000</v>
+        <v>2393327598500</v>
       </c>
       <c r="L34">
         <v>145048000</v>
@@ -2093,13 +2093,13 @@
         <v>705800</v>
       </c>
       <c r="N34">
-        <v>10470791000</v>
+        <v>10388373500</v>
       </c>
       <c r="O34">
         <v>-522700</v>
       </c>
       <c r="P34">
-        <v>101635507000</v>
+        <v>40709693800</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>5400</v>
       </c>
       <c r="E35">
-        <v>26491003000</v>
+        <v>25041553900</v>
       </c>
       <c r="F35">
-        <v>22645081000</v>
+        <v>19564165000</v>
       </c>
       <c r="G35">
         <v>145303000</v>
@@ -2128,13 +2128,13 @@
         <v>2684500</v>
       </c>
       <c r="I35">
-        <v>49281387000</v>
+        <v>44751021900</v>
       </c>
       <c r="J35" t="str">
         <v>2023-01-18T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>2670625241000</v>
+        <v>2438078620400</v>
       </c>
       <c r="L35">
         <v>147732500</v>
@@ -2143,13 +2143,13 @@
         <v>-93500</v>
       </c>
       <c r="N35">
-        <v>-3845922000</v>
+        <v>-5477388900</v>
       </c>
       <c r="O35">
         <v>-616200</v>
       </c>
       <c r="P35">
-        <v>97789585000</v>
+        <v>35232304900</v>
       </c>
     </row>
     <row r="36">
@@ -2166,25 +2166,25 @@
         <v>103500</v>
       </c>
       <c r="E36">
-        <v>22593131000</v>
+        <v>21165460100</v>
       </c>
       <c r="F36">
-        <v>24368804000</v>
+        <v>20485191500</v>
       </c>
       <c r="G36">
-        <v>1012903000</v>
+        <v>972143800</v>
       </c>
       <c r="H36">
         <v>2494900</v>
       </c>
       <c r="I36">
-        <v>47974838000</v>
+        <v>42622795400</v>
       </c>
       <c r="J36" t="str">
         <v>2023-01-18T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>2718600079000</v>
+        <v>2480701415800</v>
       </c>
       <c r="L36">
         <v>150227400</v>
@@ -2193,13 +2193,13 @@
         <v>-17000</v>
       </c>
       <c r="N36">
-        <v>1775673000</v>
+        <v>-680268600</v>
       </c>
       <c r="O36">
         <v>-633200</v>
       </c>
       <c r="P36">
-        <v>99565258000</v>
+        <v>34552036300</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>5800</v>
       </c>
       <c r="E37">
-        <v>30898123000</v>
+        <v>29871450700</v>
       </c>
       <c r="F37">
-        <v>21639960000</v>
+        <v>18845657100</v>
       </c>
       <c r="G37">
         <v>99279000</v>
@@ -2228,13 +2228,13 @@
         <v>2614000</v>
       </c>
       <c r="I37">
-        <v>52637362000</v>
+        <v>48816386800</v>
       </c>
       <c r="J37" t="str">
         <v>2023-01-18T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>2771237441000</v>
+        <v>2529517802600</v>
       </c>
       <c r="L37">
         <v>152841400</v>
@@ -2243,13 +2243,13 @@
         <v>-593000</v>
       </c>
       <c r="N37">
-        <v>-9258163000</v>
+        <v>-11025793600</v>
       </c>
       <c r="O37">
         <v>-1226200</v>
       </c>
       <c r="P37">
-        <v>90307095000</v>
+        <v>23526242700</v>
       </c>
     </row>
     <row r="38">
@@ -2266,25 +2266,25 @@
         <v>5000</v>
       </c>
       <c r="E38">
-        <v>22321186000</v>
+        <v>20337172000</v>
       </c>
       <c r="F38">
-        <v>18446955000</v>
+        <v>17031771600</v>
       </c>
       <c r="G38">
-        <v>55555000</v>
+        <v>45664900</v>
       </c>
       <c r="H38">
         <v>2094700</v>
       </c>
       <c r="I38">
-        <v>40823696000</v>
+        <v>37414608500</v>
       </c>
       <c r="J38" t="str">
         <v>2023-01-18T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>2812061137000</v>
+        <v>2566932411100</v>
       </c>
       <c r="L38">
         <v>154936100</v>
@@ -2293,13 +2293,13 @@
         <v>-147700</v>
       </c>
       <c r="N38">
-        <v>-3874231000</v>
+        <v>-3305400400</v>
       </c>
       <c r="O38">
         <v>-1373900</v>
       </c>
       <c r="P38">
-        <v>86432864000</v>
+        <v>20220842300</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>7100</v>
       </c>
       <c r="E39">
-        <v>25621486000</v>
+        <v>23673735700</v>
       </c>
       <c r="F39">
-        <v>17968241000</v>
+        <v>16290120800</v>
       </c>
       <c r="G39">
         <v>163371000</v>
@@ -2328,13 +2328,13 @@
         <v>2299600</v>
       </c>
       <c r="I39">
-        <v>43753098000</v>
+        <v>40127227500</v>
       </c>
       <c r="J39" t="str">
         <v>2023-01-18T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>2855814235000</v>
+        <v>2607059638600</v>
       </c>
       <c r="L39">
         <v>157235700</v>
@@ -2343,13 +2343,13 @@
         <v>-343900</v>
       </c>
       <c r="N39">
-        <v>-7653245000</v>
+        <v>-7383614900</v>
       </c>
       <c r="O39">
         <v>-1717800</v>
       </c>
       <c r="P39">
-        <v>78779619000</v>
+        <v>12837227400</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>12300</v>
       </c>
       <c r="E40">
-        <v>17868702000</v>
+        <v>17565905100</v>
       </c>
       <c r="F40">
-        <v>20852010000</v>
+        <v>17819145900</v>
       </c>
       <c r="G40">
         <v>253055000</v>
@@ -2378,13 +2378,13 @@
         <v>2210800</v>
       </c>
       <c r="I40">
-        <v>38973767000</v>
+        <v>35638106000</v>
       </c>
       <c r="J40" t="str">
         <v>2023-01-18T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>2894788002000</v>
+        <v>2642697744600</v>
       </c>
       <c r="L40">
         <v>159446500</v>
@@ -2393,13 +2393,13 @@
         <v>-39500</v>
       </c>
       <c r="N40">
-        <v>2983308000</v>
+        <v>253240800</v>
       </c>
       <c r="O40">
         <v>-1757300</v>
       </c>
       <c r="P40">
-        <v>81762927000</v>
+        <v>13090468200</v>
       </c>
     </row>
     <row r="41">
@@ -2416,25 +2416,25 @@
         <v>9200</v>
       </c>
       <c r="E41">
-        <v>18269956000</v>
+        <v>16226801200</v>
       </c>
       <c r="F41">
-        <v>21844181000</v>
+        <v>19395232400</v>
       </c>
       <c r="G41">
-        <v>175534000</v>
+        <v>172736800</v>
       </c>
       <c r="H41">
         <v>2284300</v>
       </c>
       <c r="I41">
-        <v>40289671000</v>
+        <v>35794770400</v>
       </c>
       <c r="J41" t="str">
         <v>2023-01-18T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>2935077673000</v>
+        <v>2678492515000</v>
       </c>
       <c r="L41">
         <v>161730800</v>
@@ -2443,13 +2443,13 @@
         <v>141500</v>
       </c>
       <c r="N41">
-        <v>3574225000</v>
+        <v>3168431200</v>
       </c>
       <c r="O41">
         <v>-1615800</v>
       </c>
       <c r="P41">
-        <v>85337152000</v>
+        <v>16258899400</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>13600</v>
       </c>
       <c r="E42">
-        <v>14455071000</v>
+        <v>12959767800</v>
       </c>
       <c r="F42">
-        <v>38295163000</v>
+        <v>36001658800</v>
       </c>
       <c r="G42">
         <v>205131000</v>
@@ -2478,13 +2478,13 @@
         <v>2561700</v>
       </c>
       <c r="I42">
-        <v>52955365000</v>
+        <v>49166557600</v>
       </c>
       <c r="J42" t="str">
         <v>2023-01-18T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>2988033038000</v>
+        <v>2727659072600</v>
       </c>
       <c r="L42">
         <v>164292500</v>
@@ -2493,13 +2493,13 @@
         <v>983100</v>
       </c>
       <c r="N42">
-        <v>23840092000</v>
+        <v>23041891000</v>
       </c>
       <c r="O42">
         <v>-632700</v>
       </c>
       <c r="P42">
-        <v>109177244000</v>
+        <v>39300790400</v>
       </c>
     </row>
     <row r="43">
@@ -2516,25 +2516,25 @@
         <v>6600</v>
       </c>
       <c r="E43">
-        <v>15555838000</v>
+        <v>14778416200</v>
       </c>
       <c r="F43">
-        <v>57125427000</v>
+        <v>54421233900</v>
       </c>
       <c r="G43">
-        <v>180083000</v>
+        <v>162700400</v>
       </c>
       <c r="H43">
         <v>3518700</v>
       </c>
       <c r="I43">
-        <v>72861348000</v>
+        <v>69362350500</v>
       </c>
       <c r="J43" t="str">
         <v>2023-01-18T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>3060894386000</v>
+        <v>2797021423100</v>
       </c>
       <c r="L43">
         <v>167811200</v>
@@ -2543,13 +2543,13 @@
         <v>1361300</v>
       </c>
       <c r="N43">
-        <v>41569589000</v>
+        <v>39642817700</v>
       </c>
       <c r="O43">
         <v>728600</v>
       </c>
       <c r="P43">
-        <v>150746833000</v>
+        <v>78943608100</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>7900</v>
       </c>
       <c r="E44">
-        <v>8786485000</v>
+        <v>8645626000</v>
       </c>
       <c r="F44">
-        <v>60345935000</v>
+        <v>57815168300</v>
       </c>
       <c r="G44">
         <v>120582000</v>
@@ -2578,13 +2578,13 @@
         <v>3696700</v>
       </c>
       <c r="I44">
-        <v>69253002000</v>
+        <v>66581376300</v>
       </c>
       <c r="J44" t="str">
         <v>2023-01-18T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>3130147388000</v>
+        <v>2863602799400</v>
       </c>
       <c r="L44">
         <v>171507900</v>
@@ -2593,13 +2593,13 @@
         <v>2590800</v>
       </c>
       <c r="N44">
-        <v>51559450000</v>
+        <v>49169542300</v>
       </c>
       <c r="O44">
         <v>3319400</v>
       </c>
       <c r="P44">
-        <v>202306283000</v>
+        <v>128113150400</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>2700</v>
       </c>
       <c r="E45">
-        <v>11369790000</v>
+        <v>10967193000</v>
       </c>
       <c r="F45">
-        <v>74111102000</v>
+        <v>66808212200</v>
       </c>
       <c r="G45">
         <v>90137000</v>
@@ -2628,13 +2628,13 @@
         <v>5096200</v>
       </c>
       <c r="I45">
-        <v>85571029000</v>
+        <v>77865542200</v>
       </c>
       <c r="J45" t="str">
         <v>2023-01-18T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>3215718417000</v>
+        <v>2941468341600</v>
       </c>
       <c r="L45">
         <v>176604100</v>
@@ -2643,13 +2643,13 @@
         <v>3575500</v>
       </c>
       <c r="N45">
-        <v>62741312000</v>
+        <v>55841019200</v>
       </c>
       <c r="O45">
         <v>6894900</v>
       </c>
       <c r="P45">
-        <v>265047595000</v>
+        <v>183954169600</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>6200</v>
       </c>
       <c r="E46">
-        <v>15873019000</v>
+        <v>15123469300</v>
       </c>
       <c r="F46">
-        <v>41485015000</v>
+        <v>40760939800</v>
       </c>
       <c r="G46">
         <v>52794000</v>
@@ -2678,13 +2678,13 @@
         <v>3482200</v>
       </c>
       <c r="I46">
-        <v>57410828000</v>
+        <v>55937203100</v>
       </c>
       <c r="J46" t="str">
         <v>2023-01-18T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>3273129245000</v>
+        <v>2997405544700</v>
       </c>
       <c r="L46">
         <v>180086300</v>
@@ -2693,13 +2693,13 @@
         <v>1358800</v>
       </c>
       <c r="N46">
-        <v>25611996000</v>
+        <v>25637470500</v>
       </c>
       <c r="O46">
         <v>8253700</v>
       </c>
       <c r="P46">
-        <v>290659591000</v>
+        <v>209591640100</v>
       </c>
     </row>
     <row r="47">
@@ -2716,25 +2716,25 @@
         <v>4400</v>
       </c>
       <c r="E47">
-        <v>18142439000</v>
+        <v>17205876500</v>
       </c>
       <c r="F47">
-        <v>34526956000</v>
+        <v>33280104100</v>
       </c>
       <c r="G47">
-        <v>117365000</v>
+        <v>109273100</v>
       </c>
       <c r="H47">
         <v>2982500</v>
       </c>
       <c r="I47">
-        <v>52786760000</v>
+        <v>50595253700</v>
       </c>
       <c r="J47" t="str">
         <v>2023-01-18T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>3325916005000</v>
+        <v>3048000798400</v>
       </c>
       <c r="L47">
         <v>183068800</v>
@@ -2743,13 +2743,13 @@
         <v>962900</v>
       </c>
       <c r="N47">
-        <v>16384517000</v>
+        <v>16074227600</v>
       </c>
       <c r="O47">
         <v>9216600</v>
       </c>
       <c r="P47">
-        <v>307044108000</v>
+        <v>225665867700</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>2600</v>
       </c>
       <c r="E48">
-        <v>22544499000</v>
+        <v>22232311500</v>
       </c>
       <c r="F48">
-        <v>57575483000</v>
+        <v>55687073300</v>
       </c>
       <c r="G48">
         <v>74930000</v>
@@ -2778,13 +2778,13 @@
         <v>5229100</v>
       </c>
       <c r="I48">
-        <v>80194912000</v>
+        <v>77994314800</v>
       </c>
       <c r="J48" t="str">
         <v>2023-01-18T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>3406110917000</v>
+        <v>3125995113200</v>
       </c>
       <c r="L48">
         <v>188297900</v>
@@ -2793,13 +2793,13 @@
         <v>2788500</v>
       </c>
       <c r="N48">
-        <v>35030984000</v>
+        <v>33454761800</v>
       </c>
       <c r="O48">
         <v>12005100</v>
       </c>
       <c r="P48">
-        <v>342075092000</v>
+        <v>259120629500</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>11600</v>
       </c>
       <c r="E49">
-        <v>23589925000</v>
+        <v>23127288100</v>
       </c>
       <c r="F49">
-        <v>32116691000</v>
+        <v>30430878500</v>
       </c>
       <c r="G49">
         <v>119795000</v>
@@ -2828,13 +2828,13 @@
         <v>3515000</v>
       </c>
       <c r="I49">
-        <v>55826411000</v>
+        <v>53677961600</v>
       </c>
       <c r="J49" t="str">
         <v>2023-01-18T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>3461937328000</v>
+        <v>3179673074800</v>
       </c>
       <c r="L49">
         <v>191812900</v>
@@ -2843,13 +2843,13 @@
         <v>490200</v>
       </c>
       <c r="N49">
-        <v>8526766000</v>
+        <v>7303590400</v>
       </c>
       <c r="O49">
         <v>12495300</v>
       </c>
       <c r="P49">
-        <v>350601858000</v>
+        <v>266424219900</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>70300</v>
       </c>
       <c r="E50">
-        <v>20322424000</v>
+        <v>20212234300</v>
       </c>
       <c r="F50">
-        <v>65334547000</v>
+        <v>58289998600</v>
       </c>
       <c r="G50">
         <v>822031000</v>
@@ -2878,13 +2878,13 @@
         <v>4721100</v>
       </c>
       <c r="I50">
-        <v>86479002000</v>
+        <v>79324263900</v>
       </c>
       <c r="J50" t="str">
         <v>2023-01-18T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>3548416330000</v>
+        <v>3258997338700</v>
       </c>
       <c r="L50">
         <v>196534000</v>
@@ -2893,13 +2893,13 @@
         <v>2045000</v>
       </c>
       <c r="N50">
-        <v>45012123000</v>
+        <v>38077764300</v>
       </c>
       <c r="O50">
         <v>14540300</v>
       </c>
       <c r="P50">
-        <v>395613981000</v>
+        <v>304501984200</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>12600</v>
       </c>
       <c r="E51">
-        <v>20675612000</v>
+        <v>20563124600</v>
       </c>
       <c r="F51">
-        <v>59731921000</v>
+        <v>55615741300</v>
       </c>
       <c r="G51">
         <v>132826000</v>
@@ -2928,13 +2928,13 @@
         <v>4448500</v>
       </c>
       <c r="I51">
-        <v>80540359000</v>
+        <v>76311691900</v>
       </c>
       <c r="J51" t="str">
         <v>2023-01-18T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>3628956689000</v>
+        <v>3335309030600</v>
       </c>
       <c r="L51">
         <v>200982500</v>
@@ -2943,13 +2943,13 @@
         <v>1875900</v>
       </c>
       <c r="N51">
-        <v>39056309000</v>
+        <v>35052616700</v>
       </c>
       <c r="O51">
         <v>16416200</v>
       </c>
       <c r="P51">
-        <v>434670290000</v>
+        <v>339554600900</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>2800</v>
       </c>
       <c r="E52">
-        <v>27685849000</v>
+        <v>27353082100</v>
       </c>
       <c r="F52">
-        <v>34653257000</v>
+        <v>32793119000</v>
       </c>
       <c r="G52">
         <v>105304000</v>
@@ -2978,13 +2978,13 @@
         <v>3936600</v>
       </c>
       <c r="I52">
-        <v>62444410000</v>
+        <v>60251505100</v>
       </c>
       <c r="J52" t="str">
         <v>2023-01-18T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>3691401099000</v>
+        <v>3395560535700</v>
       </c>
       <c r="L52">
         <v>204919100</v>
@@ -2993,13 +2993,13 @@
         <v>660800</v>
       </c>
       <c r="N52">
-        <v>6967408000</v>
+        <v>5440036900</v>
       </c>
       <c r="O52">
         <v>17077000</v>
       </c>
       <c r="P52">
-        <v>441637698000</v>
+        <v>344994637800</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>36400</v>
       </c>
       <c r="E53">
-        <v>37498091000</v>
+        <v>36244246100</v>
       </c>
       <c r="F53">
-        <v>30019364000</v>
+        <v>21450841100</v>
       </c>
       <c r="G53">
         <v>422948000</v>
@@ -3028,13 +3028,13 @@
         <v>4167000</v>
       </c>
       <c r="I53">
-        <v>67940403000</v>
+        <v>58118035200</v>
       </c>
       <c r="J53" t="str">
         <v>2023-01-18T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>3759341502000</v>
+        <v>3453678570900</v>
       </c>
       <c r="L53">
         <v>209086100</v>
@@ -3043,13 +3043,13 @@
         <v>-395000</v>
       </c>
       <c r="N53">
-        <v>-7478727000</v>
+        <v>-14793405000</v>
       </c>
       <c r="O53">
         <v>16682000</v>
       </c>
       <c r="P53">
-        <v>434158971000</v>
+        <v>330201232800</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>14700</v>
       </c>
       <c r="E54">
-        <v>31368265000</v>
+        <v>29107927600</v>
       </c>
       <c r="F54">
-        <v>27749627000</v>
+        <v>19085200100</v>
       </c>
       <c r="G54">
         <v>759139000</v>
@@ -3078,13 +3078,13 @@
         <v>3562200</v>
       </c>
       <c r="I54">
-        <v>59877031000</v>
+        <v>48952266700</v>
       </c>
       <c r="J54" t="str">
         <v>2023-01-18T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>3819218533000</v>
+        <v>3502630837600</v>
       </c>
       <c r="L54">
         <v>212648300</v>
@@ -3093,13 +3093,13 @@
         <v>-134900</v>
       </c>
       <c r="N54">
-        <v>-3618638000</v>
+        <v>-10022727500</v>
       </c>
       <c r="O54">
         <v>16547100</v>
       </c>
       <c r="P54">
-        <v>430540333000</v>
+        <v>320178505300</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>24300</v>
       </c>
       <c r="E55">
-        <v>36150827000</v>
+        <v>30886596500</v>
       </c>
       <c r="F55">
-        <v>24147014000</v>
+        <v>22004858300</v>
       </c>
       <c r="G55">
         <v>395176000</v>
@@ -3128,13 +3128,13 @@
         <v>3574600</v>
       </c>
       <c r="I55">
-        <v>60693017000</v>
+        <v>53286630800</v>
       </c>
       <c r="J55" t="str">
         <v>2023-01-18T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>3879911550000</v>
+        <v>3555917468400</v>
       </c>
       <c r="L55">
         <v>216222900</v>
@@ -3143,13 +3143,13 @@
         <v>-840500</v>
       </c>
       <c r="N55">
-        <v>-12003813000</v>
+        <v>-8881738200</v>
       </c>
       <c r="O55">
         <v>15706600</v>
       </c>
       <c r="P55">
-        <v>418536520000</v>
+        <v>311296767100</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>4700</v>
       </c>
       <c r="E56">
-        <v>34752356000</v>
+        <v>32164846100</v>
       </c>
       <c r="F56">
-        <v>27397216000</v>
+        <v>21599319700</v>
       </c>
       <c r="G56">
         <v>25820000</v>
@@ -3178,13 +3178,13 @@
         <v>3543400</v>
       </c>
       <c r="I56">
-        <v>62175392000</v>
+        <v>53789985800</v>
       </c>
       <c r="J56" t="str">
         <v>2023-01-18T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>3942086942000</v>
+        <v>3609707454200</v>
       </c>
       <c r="L56">
         <v>219766300</v>
@@ -3193,13 +3193,13 @@
         <v>-300900</v>
       </c>
       <c r="N56">
-        <v>-7355140000</v>
+        <v>-10565526400</v>
       </c>
       <c r="O56">
         <v>15405700</v>
       </c>
       <c r="P56">
-        <v>411181380000</v>
+        <v>300731240700</v>
       </c>
     </row>
     <row r="57">
@@ -3216,25 +3216,25 @@
         <v>4800</v>
       </c>
       <c r="E57">
-        <v>31182090000</v>
+        <v>28565808900</v>
       </c>
       <c r="F57">
-        <v>28777496000</v>
+        <v>18689394200</v>
       </c>
       <c r="G57">
-        <v>52044000</v>
+        <v>48847200</v>
       </c>
       <c r="H57">
         <v>3501500</v>
       </c>
       <c r="I57">
-        <v>60011630000</v>
+        <v>47304050300</v>
       </c>
       <c r="J57" t="str">
         <v>2023-01-18T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>4002098572000</v>
+        <v>3657011504500</v>
       </c>
       <c r="L57">
         <v>223267800</v>
@@ -3243,13 +3243,13 @@
         <v>-197500</v>
       </c>
       <c r="N57">
-        <v>-2404594000</v>
+        <v>-9876414700</v>
       </c>
       <c r="O57">
         <v>15208200</v>
       </c>
       <c r="P57">
-        <v>408776786000</v>
+        <v>290854826000</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>400</v>
       </c>
       <c r="E58">
-        <v>30687026000</v>
+        <v>27700915100</v>
       </c>
       <c r="F58">
-        <v>32138625000</v>
+        <v>30722342700</v>
       </c>
       <c r="G58">
         <v>4958000</v>
@@ -3278,13 +3278,13 @@
         <v>3934700</v>
       </c>
       <c r="I58">
-        <v>62830609000</v>
+        <v>58428215800</v>
       </c>
       <c r="J58" t="str">
         <v>2023-01-18T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>4064929181000</v>
+        <v>3715439720300</v>
       </c>
       <c r="L58">
         <v>227202500</v>
@@ -3293,13 +3293,13 @@
         <v>516900</v>
       </c>
       <c r="N58">
-        <v>1451599000</v>
+        <v>3021427600</v>
       </c>
       <c r="O58">
         <v>15725100</v>
       </c>
       <c r="P58">
-        <v>410228385000</v>
+        <v>293876253600</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>8200</v>
       </c>
       <c r="E59">
-        <v>23387225000</v>
+        <v>23018594000</v>
       </c>
       <c r="F59">
-        <v>40048713000</v>
+        <v>36336728700</v>
       </c>
       <c r="G59">
         <v>99208000</v>
@@ -3328,13 +3328,13 @@
         <v>4694100</v>
       </c>
       <c r="I59">
-        <v>63535146000</v>
+        <v>59454530700</v>
       </c>
       <c r="J59" t="str">
         <v>2023-01-18T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>4128464327000</v>
+        <v>3774894251000</v>
       </c>
       <c r="L59">
         <v>231896600</v>
@@ -3343,13 +3343,13 @@
         <v>1922500</v>
       </c>
       <c r="N59">
-        <v>16661488000</v>
+        <v>13318134700</v>
       </c>
       <c r="O59">
         <v>17647600</v>
       </c>
       <c r="P59">
-        <v>426889873000</v>
+        <v>307194388300</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>12400</v>
       </c>
       <c r="E60">
-        <v>19400079000</v>
+        <v>17613667200</v>
       </c>
       <c r="F60">
-        <v>27058053000</v>
+        <v>23351263500</v>
       </c>
       <c r="G60">
         <v>94627000</v>
@@ -3378,13 +3378,13 @@
         <v>3382600</v>
       </c>
       <c r="I60">
-        <v>46552759000</v>
+        <v>41059557700</v>
       </c>
       <c r="J60" t="str">
         <v>2023-01-18T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>4175017086000</v>
+        <v>3815953808700</v>
       </c>
       <c r="L60">
         <v>235279200</v>
@@ -3393,13 +3393,13 @@
         <v>783000</v>
       </c>
       <c r="N60">
-        <v>7657974000</v>
+        <v>5737596300</v>
       </c>
       <c r="O60">
         <v>18430600</v>
       </c>
       <c r="P60">
-        <v>434547847000</v>
+        <v>312931984600</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>8100</v>
       </c>
       <c r="E61">
-        <v>24105546000</v>
+        <v>23858493300</v>
       </c>
       <c r="F61">
-        <v>25246146000</v>
+        <v>23362731300</v>
       </c>
       <c r="G61">
         <v>128752000</v>
@@ -3428,13 +3428,13 @@
         <v>3126600</v>
       </c>
       <c r="I61">
-        <v>49480444000</v>
+        <v>47349976600</v>
       </c>
       <c r="J61" t="str">
         <v>2023-01-18T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>4224497530000</v>
+        <v>3863303785300</v>
       </c>
       <c r="L61">
         <v>238405800</v>
@@ -3443,13 +3443,13 @@
         <v>244500</v>
       </c>
       <c r="N61">
-        <v>1140600000</v>
+        <v>-495762000</v>
       </c>
       <c r="O61">
         <v>18675100</v>
       </c>
       <c r="P61">
-        <v>435688447000</v>
+        <v>312436222600</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>20700</v>
       </c>
       <c r="E62">
-        <v>19529047000</v>
+        <v>18958717900</v>
       </c>
       <c r="F62">
-        <v>39226137000</v>
+        <v>37252912200</v>
       </c>
       <c r="G62">
         <v>349310000</v>
@@ -3478,13 +3478,13 @@
         <v>3708300</v>
       </c>
       <c r="I62">
-        <v>59104494000</v>
+        <v>56560940100</v>
       </c>
       <c r="J62" t="str">
         <v>2023-01-18T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>4283602024000</v>
+        <v>3919864725400</v>
       </c>
       <c r="L62">
         <v>242114100</v>
@@ -3493,13 +3493,13 @@
         <v>1176800</v>
       </c>
       <c r="N62">
-        <v>19697090000</v>
+        <v>18294194300</v>
       </c>
       <c r="O62">
         <v>19851900</v>
       </c>
       <c r="P62">
-        <v>455385537000</v>
+        <v>330730416900</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>7800</v>
       </c>
       <c r="E63">
-        <v>19248639000</v>
+        <v>18901586400</v>
       </c>
       <c r="F63">
-        <v>33607454000</v>
+        <v>30795968300</v>
       </c>
       <c r="G63">
         <v>151023000</v>
@@ -3528,13 +3528,13 @@
         <v>3082700</v>
       </c>
       <c r="I63">
-        <v>53007116000</v>
+        <v>49848577700</v>
       </c>
       <c r="J63" t="str">
         <v>2023-01-18T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>4336609140000</v>
+        <v>3969713303100</v>
       </c>
       <c r="L63">
         <v>245196800</v>
@@ -3543,13 +3543,13 @@
         <v>772300</v>
       </c>
       <c r="N63">
-        <v>14358815000</v>
+        <v>11894381900</v>
       </c>
       <c r="O63">
         <v>20624200</v>
       </c>
       <c r="P63">
-        <v>469744352000</v>
+        <v>342624798800</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>1100</v>
       </c>
       <c r="E64">
-        <v>21449106000</v>
+        <v>20927128500</v>
       </c>
       <c r="F64">
-        <v>38585737000</v>
+        <v>35287638400</v>
       </c>
       <c r="G64">
         <v>2578000</v>
@@ -3578,13 +3578,13 @@
         <v>3269800</v>
       </c>
       <c r="I64">
-        <v>60037421000</v>
+        <v>56217344900</v>
       </c>
       <c r="J64" t="str">
         <v>2023-01-18T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>4396646561000</v>
+        <v>4025930648000</v>
       </c>
       <c r="L64">
         <v>248466600</v>
@@ -3593,13 +3593,13 @@
         <v>885100</v>
       </c>
       <c r="N64">
-        <v>17136631000</v>
+        <v>14360509900</v>
       </c>
       <c r="O64">
         <v>21509300</v>
       </c>
       <c r="P64">
-        <v>486880983000</v>
+        <v>356985308700</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>15700</v>
       </c>
       <c r="E65">
-        <v>17038503000</v>
+        <v>16271570700</v>
       </c>
       <c r="F65">
-        <v>39995469000</v>
+        <v>35770698000</v>
       </c>
       <c r="G65">
         <v>668401000</v>
@@ -3628,13 +3628,13 @@
         <v>3016500</v>
       </c>
       <c r="I65">
-        <v>57702373000</v>
+        <v>52710669700</v>
       </c>
       <c r="J65" t="str">
         <v>2023-01-18T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>4454348934000</v>
+        <v>4078641317700</v>
       </c>
       <c r="L65">
         <v>251483100</v>
@@ -3643,13 +3643,13 @@
         <v>1062600</v>
       </c>
       <c r="N65">
-        <v>22956966000</v>
+        <v>19499127300</v>
       </c>
       <c r="O65">
         <v>22571900</v>
       </c>
       <c r="P65">
-        <v>509837949000</v>
+        <v>376484436000</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>27900</v>
       </c>
       <c r="E66">
-        <v>15490945000</v>
+        <v>13245992200</v>
       </c>
       <c r="F66">
-        <v>27162541000</v>
+        <v>24479526700</v>
       </c>
       <c r="G66">
         <v>599028000</v>
@@ -3678,13 +3678,13 @@
         <v>2443600</v>
       </c>
       <c r="I66">
-        <v>43252514000</v>
+        <v>38324546900</v>
       </c>
       <c r="J66" t="str">
         <v>2023-01-18T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>4497601448000</v>
+        <v>4116965864600</v>
       </c>
       <c r="L66">
         <v>253926700</v>
@@ -3693,13 +3693,13 @@
         <v>646500</v>
       </c>
       <c r="N66">
-        <v>11671596000</v>
+        <v>11233534500</v>
       </c>
       <c r="O66">
         <v>23218400</v>
       </c>
       <c r="P66">
-        <v>521509545000</v>
+        <v>387717970500</v>
       </c>
     </row>
     <row r="67">
@@ -3716,25 +3716,25 @@
         <v>1000</v>
       </c>
       <c r="E67">
-        <v>17105359000</v>
+        <v>16216648600</v>
       </c>
       <c r="F67">
-        <v>15384727000</v>
+        <v>14199913000</v>
       </c>
       <c r="G67">
-        <v>17000000</v>
+        <v>17000</v>
       </c>
       <c r="H67">
         <v>1795900</v>
       </c>
       <c r="I67">
-        <v>32507086000</v>
+        <v>30416578600</v>
       </c>
       <c r="J67" t="str">
         <v>2023-01-18T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>4530108534000</v>
+        <v>4147382443200</v>
       </c>
       <c r="L67">
         <v>255722600</v>
@@ -3743,13 +3743,13 @@
         <v>-172300</v>
       </c>
       <c r="N67">
-        <v>-1720632000</v>
+        <v>-2016735600</v>
       </c>
       <c r="O67">
         <v>23046100</v>
       </c>
       <c r="P67">
-        <v>519788913000</v>
+        <v>385701234900</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>9400</v>
       </c>
       <c r="E68">
-        <v>13764268000</v>
+        <v>13257575200</v>
       </c>
       <c r="F68">
-        <v>27993166000</v>
+        <v>27134725300</v>
       </c>
       <c r="G68">
         <v>328583000</v>
@@ -3778,13 +3778,13 @@
         <v>2365100</v>
       </c>
       <c r="I68">
-        <v>42086017000</v>
+        <v>40720883500</v>
       </c>
       <c r="J68" t="str">
         <v>2023-01-18T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>4572194551000</v>
+        <v>4188103326700</v>
       </c>
       <c r="L68">
         <v>258087700</v>
@@ -3793,13 +3793,13 @@
         <v>574900</v>
       </c>
       <c r="N68">
-        <v>14228898000</v>
+        <v>13877150100</v>
       </c>
       <c r="O68">
         <v>23621000</v>
       </c>
       <c r="P68">
-        <v>534017811000</v>
+        <v>399578385000</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>5500</v>
       </c>
       <c r="E69">
-        <v>18218819000</v>
+        <v>18145892000</v>
       </c>
       <c r="F69">
-        <v>21960702000</v>
+        <v>15288480900</v>
       </c>
       <c r="G69">
         <v>49040000</v>
@@ -3828,13 +3828,13 @@
         <v>2379300</v>
       </c>
       <c r="I69">
-        <v>40228561000</v>
+        <v>33483412900</v>
       </c>
       <c r="J69" t="str">
         <v>2023-01-18T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>4612423112000</v>
+        <v>4221586739600</v>
       </c>
       <c r="L69">
         <v>260467000</v>
@@ -3843,13 +3843,13 @@
         <v>255800</v>
       </c>
       <c r="N69">
-        <v>3741883000</v>
+        <v>-2857411100</v>
       </c>
       <c r="O69">
         <v>23876800</v>
       </c>
       <c r="P69">
-        <v>537759694000</v>
+        <v>396720973900</v>
       </c>
     </row>
     <row r="70">
@@ -3869,7 +3869,7 @@
         <v>3286000</v>
       </c>
       <c r="F70">
-        <v>17600000</v>
+        <v>17600</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>1400</v>
       </c>
       <c r="I70">
-        <v>20886000</v>
+        <v>3303600</v>
       </c>
       <c r="J70" t="str">
         <v>2023-01-18T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>4612443998000</v>
+        <v>4221590043200</v>
       </c>
       <c r="L70">
         <v>260468400</v>
@@ -3893,13 +3893,13 @@
         <v>800</v>
       </c>
       <c r="N70">
-        <v>14314000</v>
+        <v>-3268400</v>
       </c>
       <c r="O70">
         <v>23877600</v>
       </c>
       <c r="P70">
-        <v>537774008000</v>
+        <v>396717705500</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>291700</v>
       </c>
       <c r="E71">
-        <v>77262076000</v>
+        <v>74204536600</v>
       </c>
       <c r="F71">
-        <v>94730448000</v>
+        <v>76254342600</v>
       </c>
       <c r="G71">
-        <v>4873376000</v>
+        <v>4789460000</v>
       </c>
       <c r="H71">
         <v>10427800</v>
       </c>
       <c r="I71">
-        <v>176865900000</v>
+        <v>155248339200</v>
       </c>
       <c r="J71" t="str">
         <v>2023-01-18T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>4789309898000</v>
+        <v>4376838382400</v>
       </c>
       <c r="L71">
         <v>270896200</v>
@@ -3943,13 +3943,13 @@
         <v>-308500</v>
       </c>
       <c r="N71">
-        <v>17468372000</v>
+        <v>2049806000</v>
       </c>
       <c r="O71">
         <v>23569100</v>
       </c>
       <c r="P71">
-        <v>555242380000</v>
+        <v>398767511500</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>16300</v>
       </c>
       <c r="E72">
-        <v>34019339000</v>
+        <v>33167192000</v>
       </c>
       <c r="F72">
-        <v>29841080000</v>
+        <v>26272652000</v>
       </c>
       <c r="G72">
         <v>233068000</v>
@@ -3978,13 +3978,13 @@
         <v>4122900</v>
       </c>
       <c r="I72">
-        <v>64093487000</v>
+        <v>59672912000</v>
       </c>
       <c r="J72" t="str">
         <v>2023-01-18T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>4853403385000</v>
+        <v>4436511294400</v>
       </c>
       <c r="L72">
         <v>275019100</v>
@@ -3993,13 +3993,13 @@
         <v>-298400</v>
       </c>
       <c r="N72">
-        <v>-4178259000</v>
+        <v>-6894540000</v>
       </c>
       <c r="O72">
         <v>23270700</v>
       </c>
       <c r="P72">
-        <v>551064121000</v>
+        <v>391872971500</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>28200</v>
       </c>
       <c r="E73">
-        <v>49232372000</v>
+        <v>47195411000</v>
       </c>
       <c r="F73">
-        <v>19597826000</v>
+        <v>17370155900</v>
       </c>
       <c r="G73">
         <v>155397000</v>
@@ -4028,13 +4028,13 @@
         <v>4190100</v>
       </c>
       <c r="I73">
-        <v>68985595000</v>
+        <v>64720963900</v>
       </c>
       <c r="J73" t="str">
         <v>2023-01-18T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>4922388980000</v>
+        <v>4501232258300</v>
       </c>
       <c r="L73">
         <v>279209200</v>
@@ -4043,13 +4043,13 @@
         <v>-2220500</v>
       </c>
       <c r="N73">
-        <v>-29634546000</v>
+        <v>-29825255100</v>
       </c>
       <c r="O73">
         <v>21050200</v>
       </c>
       <c r="P73">
-        <v>521429575000</v>
+        <v>362047716400</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>7000</v>
       </c>
       <c r="E74">
-        <v>34249510000</v>
+        <v>32372389000</v>
       </c>
       <c r="F74">
-        <v>22842852000</v>
+        <v>20430366900</v>
       </c>
       <c r="G74">
         <v>123025000</v>
@@ -4078,13 +4078,13 @@
         <v>3534500</v>
       </c>
       <c r="I74">
-        <v>57215387000</v>
+        <v>52925780900</v>
       </c>
       <c r="J74" t="str">
         <v>2023-01-18T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>4979604367000</v>
+        <v>4554158039200</v>
       </c>
       <c r="L74">
         <v>282743700</v>
@@ -4093,13 +4093,13 @@
         <v>-604100</v>
       </c>
       <c r="N74">
-        <v>-11406658000</v>
+        <v>-11942022100</v>
       </c>
       <c r="O74">
         <v>20446100</v>
       </c>
       <c r="P74">
-        <v>510022917000</v>
+        <v>350105694300</v>
       </c>
     </row>
     <row r="75">
@@ -4116,25 +4116,25 @@
         <v>85400</v>
       </c>
       <c r="E75">
-        <v>39322221000</v>
+        <v>36584761200</v>
       </c>
       <c r="F75">
-        <v>27668572000</v>
+        <v>25458084700</v>
       </c>
       <c r="G75">
-        <v>748033000</v>
+        <v>742738300</v>
       </c>
       <c r="H75">
         <v>4116900</v>
       </c>
       <c r="I75">
-        <v>67738826000</v>
+        <v>62785584200</v>
       </c>
       <c r="J75" t="str">
         <v>2023-01-18T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>5047343193000</v>
+        <v>4616943623400</v>
       </c>
       <c r="L75">
         <v>286860600</v>
@@ -4143,13 +4143,13 @@
         <v>-751100</v>
       </c>
       <c r="N75">
-        <v>-11653649000</v>
+        <v>-11126676500</v>
       </c>
       <c r="O75">
         <v>19695000</v>
       </c>
       <c r="P75">
-        <v>498369268000</v>
+        <v>338979017800</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>6500</v>
       </c>
       <c r="E76">
-        <v>42612167000</v>
+        <v>42016663100</v>
       </c>
       <c r="F76">
-        <v>30762657000</v>
+        <v>29796324300</v>
       </c>
       <c r="G76">
         <v>99566000</v>
@@ -4178,13 +4178,13 @@
         <v>4364300</v>
       </c>
       <c r="I76">
-        <v>73474390000</v>
+        <v>71912553400</v>
       </c>
       <c r="J76" t="str">
         <v>2023-01-18T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>5120817583000</v>
+        <v>4688856176800</v>
       </c>
       <c r="L76">
         <v>291224900</v>
@@ -4193,13 +4193,13 @@
         <v>-827800</v>
       </c>
       <c r="N76">
-        <v>-11849510000</v>
+        <v>-12220338800</v>
       </c>
       <c r="O76">
         <v>18867200</v>
       </c>
       <c r="P76">
-        <v>486519758000</v>
+        <v>326758679000</v>
       </c>
     </row>
     <row r="77">
@@ -4216,25 +4216,25 @@
         <v>36500</v>
       </c>
       <c r="E77">
-        <v>39114365000</v>
+        <v>38465614400</v>
       </c>
       <c r="F77">
-        <v>24078598000</v>
+        <v>23305272100</v>
       </c>
       <c r="G77">
-        <v>175359000</v>
+        <v>75558900</v>
       </c>
       <c r="H77">
         <v>3752500</v>
       </c>
       <c r="I77">
-        <v>63368322000</v>
+        <v>61846445400</v>
       </c>
       <c r="J77" t="str">
         <v>2023-01-18T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>5184185905000</v>
+        <v>4750702622200</v>
       </c>
       <c r="L77">
         <v>294977400</v>
@@ -4243,13 +4243,13 @@
         <v>-993000</v>
       </c>
       <c r="N77">
-        <v>-15035767000</v>
+        <v>-15160342300</v>
       </c>
       <c r="O77">
         <v>17874200</v>
       </c>
       <c r="P77">
-        <v>471483991000</v>
+        <v>311598336700</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>40100</v>
       </c>
       <c r="E78">
-        <v>30566768000</v>
+        <v>30266168900</v>
       </c>
       <c r="F78">
-        <v>28242269000</v>
+        <v>25188226100</v>
       </c>
       <c r="G78">
         <v>889985000</v>
@@ -4278,13 +4278,13 @@
         <v>3540900</v>
       </c>
       <c r="I78">
-        <v>59699022000</v>
+        <v>56344380000</v>
       </c>
       <c r="J78" t="str">
         <v>2023-01-18T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>5243884927000</v>
+        <v>4807047002200</v>
       </c>
       <c r="L78">
         <v>298518300</v>
@@ -4293,13 +4293,13 @@
         <v>-443200</v>
       </c>
       <c r="N78">
-        <v>-2324499000</v>
+        <v>-5077942800</v>
       </c>
       <c r="O78">
         <v>17431000</v>
       </c>
       <c r="P78">
-        <v>469159492000</v>
+        <v>306520393900</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>17200</v>
       </c>
       <c r="E79">
-        <v>20277534000</v>
+        <v>18151761900</v>
       </c>
       <c r="F79">
-        <v>29426975000</v>
+        <v>21380829200</v>
       </c>
       <c r="G79">
         <v>222207000</v>
@@ -4328,13 +4328,13 @@
         <v>3188600</v>
       </c>
       <c r="I79">
-        <v>49926716000</v>
+        <v>39754798100</v>
       </c>
       <c r="J79" t="str">
         <v>2023-01-18T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>5293811643000</v>
+        <v>4846801800300</v>
       </c>
       <c r="L79">
         <v>301706900</v>
@@ -4343,13 +4343,13 @@
         <v>251800</v>
       </c>
       <c r="N79">
-        <v>9149441000</v>
+        <v>3229067300</v>
       </c>
       <c r="O79">
         <v>17682800</v>
       </c>
       <c r="P79">
-        <v>478308933000</v>
+        <v>309749461200</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>10800</v>
       </c>
       <c r="E80">
-        <v>22246273000</v>
+        <v>20687733100</v>
       </c>
       <c r="F80">
-        <v>22889686000</v>
+        <v>19468011100</v>
       </c>
       <c r="G80">
         <v>197719000</v>
@@ -4378,13 +4378,13 @@
         <v>2532500</v>
       </c>
       <c r="I80">
-        <v>45333678000</v>
+        <v>40353463200</v>
       </c>
       <c r="J80" t="str">
         <v>2023-01-18T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>5339145321000</v>
+        <v>4887155263500</v>
       </c>
       <c r="L80">
         <v>304239400</v>
@@ -4393,13 +4393,13 @@
         <v>180100</v>
       </c>
       <c r="N80">
-        <v>643413000</v>
+        <v>-1219722000</v>
       </c>
       <c r="O80">
         <v>17862900</v>
       </c>
       <c r="P80">
-        <v>478952346000</v>
+        <v>308529739200</v>
       </c>
     </row>
     <row r="81">
@@ -4416,25 +4416,25 @@
         <v>28800</v>
       </c>
       <c r="E81">
-        <v>70148391000</v>
+        <v>68097743700</v>
       </c>
       <c r="F81">
-        <v>22820396000</v>
+        <v>20239279700</v>
       </c>
       <c r="G81">
-        <v>368981000</v>
+        <v>354995000</v>
       </c>
       <c r="H81">
         <v>5358000</v>
       </c>
       <c r="I81">
-        <v>93337768000</v>
+        <v>88692018400</v>
       </c>
       <c r="J81" t="str">
         <v>2023-01-18T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>5432483089000</v>
+        <v>4975847281900</v>
       </c>
       <c r="L81">
         <v>309597400</v>
@@ -4443,13 +4443,13 @@
         <v>-3057200</v>
       </c>
       <c r="N81">
-        <v>-47327995000</v>
+        <v>-47858464000</v>
       </c>
       <c r="O81">
         <v>14805700</v>
       </c>
       <c r="P81">
-        <v>431624351000</v>
+        <v>260671275200</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>16800</v>
       </c>
       <c r="E82">
-        <v>56648216000</v>
+        <v>54047119700</v>
       </c>
       <c r="F82">
-        <v>31251225000</v>
+        <v>26814166500</v>
       </c>
       <c r="G82">
         <v>112003000</v>
@@ -4478,13 +4478,13 @@
         <v>5208300</v>
       </c>
       <c r="I82">
-        <v>88011444000</v>
+        <v>80973289200</v>
       </c>
       <c r="J82" t="str">
         <v>2023-01-18T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>5520494533000</v>
+        <v>5056820571100</v>
       </c>
       <c r="L82">
         <v>314805700</v>
@@ -4493,13 +4493,13 @@
         <v>-2241500</v>
       </c>
       <c r="N82">
-        <v>-25396991000</v>
+        <v>-27232953200</v>
       </c>
       <c r="O82">
         <v>12564200</v>
       </c>
       <c r="P82">
-        <v>406227360000</v>
+        <v>233438322000</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>47100</v>
       </c>
       <c r="E83">
-        <v>34652773000</v>
+        <v>32914612900</v>
       </c>
       <c r="F83">
-        <v>41176916000</v>
+        <v>39764230100</v>
       </c>
       <c r="G83">
         <v>444269000</v>
@@ -4528,13 +4528,13 @@
         <v>4358400</v>
       </c>
       <c r="I83">
-        <v>76273958000</v>
+        <v>73123112000</v>
       </c>
       <c r="J83" t="str">
         <v>2023-01-18T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>5596768491000</v>
+        <v>5129943683100</v>
       </c>
       <c r="L83">
         <v>319164100</v>
@@ -4543,13 +4543,13 @@
         <v>-260700</v>
       </c>
       <c r="N83">
-        <v>6524143000</v>
+        <v>6849617200</v>
       </c>
       <c r="O83">
         <v>12303500</v>
       </c>
       <c r="P83">
-        <v>412751503000</v>
+        <v>240287939200</v>
       </c>
     </row>
     <row r="84">
@@ -4566,10 +4566,10 @@
         <v>6000</v>
       </c>
       <c r="E84">
-        <v>21866967000</v>
+        <v>21119715000</v>
       </c>
       <c r="F84">
-        <v>78001164000</v>
+        <v>75330237600</v>
       </c>
       <c r="G84">
         <v>137405000</v>
@@ -4578,13 +4578,13 @@
         <v>5364400</v>
       </c>
       <c r="I84">
-        <v>100005536000</v>
+        <v>96587357600</v>
       </c>
       <c r="J84" t="str">
         <v>2023-01-18T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>5696774027000</v>
+        <v>5226531040700</v>
       </c>
       <c r="L84">
         <v>324528500</v>
@@ -4593,13 +4593,13 @@
         <v>2409400</v>
       </c>
       <c r="N84">
-        <v>56134197000</v>
+        <v>54210522600</v>
       </c>
       <c r="O84">
         <v>14712900</v>
       </c>
       <c r="P84">
-        <v>468885700000</v>
+        <v>294498461800</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>7500</v>
       </c>
       <c r="E85">
-        <v>28681363000</v>
+        <v>27330515200</v>
       </c>
       <c r="F85">
-        <v>58265045000</v>
+        <v>54712900700</v>
       </c>
       <c r="G85">
         <v>267746000</v>
@@ -4628,13 +4628,13 @@
         <v>4777800</v>
       </c>
       <c r="I85">
-        <v>87214154000</v>
+        <v>82311161900</v>
       </c>
       <c r="J85" t="str">
         <v>2023-01-18T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>5783988181000</v>
+        <v>5308842202600</v>
       </c>
       <c r="L85">
         <v>329306300</v>
@@ -4643,13 +4643,13 @@
         <v>1260700</v>
       </c>
       <c r="N85">
-        <v>29583682000</v>
+        <v>27382385500</v>
       </c>
       <c r="O85">
         <v>15973600</v>
       </c>
       <c r="P85">
-        <v>498469382000</v>
+        <v>321880847300</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>10300</v>
       </c>
       <c r="E86">
-        <v>33097638000</v>
+        <v>31794542400</v>
       </c>
       <c r="F86">
-        <v>45154670000</v>
+        <v>43484941400</v>
       </c>
       <c r="G86">
         <v>141839000</v>
@@ -4678,13 +4678,13 @@
         <v>4390900</v>
       </c>
       <c r="I86">
-        <v>78394147000</v>
+        <v>75421322800</v>
       </c>
       <c r="J86" t="str">
         <v>2023-01-18T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>5862382328000</v>
+        <v>5384263525400</v>
       </c>
       <c r="L86">
         <v>333697200</v>
@@ -4693,13 +4693,13 @@
         <v>433200</v>
       </c>
       <c r="N86">
-        <v>12057032000</v>
+        <v>11690399000</v>
       </c>
       <c r="O86">
         <v>16406800</v>
       </c>
       <c r="P86">
-        <v>510526414000</v>
+        <v>333571246300</v>
       </c>
     </row>
     <row r="87">
@@ -4716,25 +4716,25 @@
         <v>20400</v>
       </c>
       <c r="E87">
-        <v>42641185000</v>
+        <v>42016610200</v>
       </c>
       <c r="F87">
-        <v>37877310000</v>
+        <v>35966922300</v>
       </c>
       <c r="G87">
-        <v>200627000</v>
+        <v>193134500</v>
       </c>
       <c r="H87">
         <v>4543100</v>
       </c>
       <c r="I87">
-        <v>80719122000</v>
+        <v>78176667000</v>
       </c>
       <c r="J87" t="str">
         <v>2023-01-18T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>5943101450000</v>
+        <v>5462440192400</v>
       </c>
       <c r="L87">
         <v>338240300</v>
@@ -4743,13 +4743,13 @@
         <v>-300900</v>
       </c>
       <c r="N87">
-        <v>-4763875000</v>
+        <v>-6049687900</v>
       </c>
       <c r="O87">
         <v>16105900</v>
       </c>
       <c r="P87">
-        <v>505762539000</v>
+        <v>327521558400</v>
       </c>
     </row>
     <row r="88">
@@ -4766,25 +4766,25 @@
         <v>145300</v>
       </c>
       <c r="E88">
-        <v>20352293000</v>
+        <v>19685760200</v>
       </c>
       <c r="F88">
-        <v>34753342000</v>
+        <v>32683314100</v>
       </c>
       <c r="G88">
-        <v>1132015000</v>
+        <v>1128518500</v>
       </c>
       <c r="H88">
         <v>3772900</v>
       </c>
       <c r="I88">
-        <v>56237650000</v>
+        <v>53497592800</v>
       </c>
       <c r="J88" t="str">
         <v>2023-01-18T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>5999339100000</v>
+        <v>5515937785200</v>
       </c>
       <c r="L88">
         <v>342013200</v>
@@ -4793,13 +4793,13 @@
         <v>1155000</v>
       </c>
       <c r="N88">
-        <v>14401049000</v>
+        <v>12997553900</v>
       </c>
       <c r="O88">
         <v>17260900</v>
       </c>
       <c r="P88">
-        <v>520163588000</v>
+        <v>340519112300</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>500</v>
       </c>
       <c r="E89">
-        <v>28355700000</v>
+        <v>27387169500</v>
       </c>
       <c r="F89">
-        <v>30935191000</v>
+        <v>30320606200</v>
       </c>
       <c r="G89">
         <v>14124000</v>
@@ -4828,13 +4828,13 @@
         <v>3281400</v>
       </c>
       <c r="I89">
-        <v>59305015000</v>
+        <v>57721899700</v>
       </c>
       <c r="J89" t="str">
         <v>2023-01-18T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>6058644115000</v>
+        <v>5573659684900</v>
       </c>
       <c r="L89">
         <v>345294600</v>
@@ -4843,13 +4843,13 @@
         <v>-202900</v>
       </c>
       <c r="N89">
-        <v>2579491000</v>
+        <v>2933436700</v>
       </c>
       <c r="O89">
         <v>17058000</v>
       </c>
       <c r="P89">
-        <v>522743079000</v>
+        <v>343452549000</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>1400</v>
       </c>
       <c r="E90">
-        <v>26107813000</v>
+        <v>25449571900</v>
       </c>
       <c r="F90">
-        <v>67911599000</v>
+        <v>66840471200</v>
       </c>
       <c r="G90">
         <v>28280000</v>
@@ -4878,13 +4878,13 @@
         <v>5343000</v>
       </c>
       <c r="I90">
-        <v>94047692000</v>
+        <v>92318323100</v>
       </c>
       <c r="J90" t="str">
         <v>2023-01-18T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>6152691807000</v>
+        <v>5665978008000</v>
       </c>
       <c r="L90">
         <v>350637600</v>
@@ -4893,13 +4893,13 @@
         <v>2139800</v>
       </c>
       <c r="N90">
-        <v>41803786000</v>
+        <v>41390899300</v>
       </c>
       <c r="O90">
         <v>19197800</v>
       </c>
       <c r="P90">
-        <v>564546865000</v>
+        <v>384843448300</v>
       </c>
     </row>
     <row r="91">
@@ -4916,10 +4916,10 @@
         <v>47800</v>
       </c>
       <c r="E91">
-        <v>30240659000</v>
+        <v>28141959800</v>
       </c>
       <c r="F91">
-        <v>49711532000</v>
+        <v>46192554500</v>
       </c>
       <c r="G91">
         <v>1028584000</v>
@@ -4928,13 +4928,13 @@
         <v>4804900</v>
       </c>
       <c r="I91">
-        <v>80980775000</v>
+        <v>75363098300</v>
       </c>
       <c r="J91" t="str">
         <v>2023-01-18T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>6233672582000</v>
+        <v>5741341106300</v>
       </c>
       <c r="L91">
         <v>355442500</v>
@@ -4943,13 +4943,13 @@
         <v>954300</v>
       </c>
       <c r="N91">
-        <v>19470873000</v>
+        <v>18050594700</v>
       </c>
       <c r="O91">
         <v>20152100</v>
       </c>
       <c r="P91">
-        <v>584017738000</v>
+        <v>402894043000</v>
       </c>
     </row>
     <row r="92">
@@ -4966,25 +4966,25 @@
         <v>11300</v>
       </c>
       <c r="E92">
-        <v>26706181000</v>
+        <v>26017670200</v>
       </c>
       <c r="F92">
-        <v>43288732000</v>
+        <v>39908915200</v>
       </c>
       <c r="G92">
-        <v>172263000</v>
+        <v>82452900</v>
       </c>
       <c r="H92">
         <v>4901600</v>
       </c>
       <c r="I92">
-        <v>70167176000</v>
+        <v>66009038300</v>
       </c>
       <c r="J92" t="str">
         <v>2023-01-18T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>6303839758000</v>
+        <v>5807350144600</v>
       </c>
       <c r="L92">
         <v>360344100</v>
@@ -4993,13 +4993,13 @@
         <v>1412700</v>
       </c>
       <c r="N92">
-        <v>16582551000</v>
+        <v>13891245000</v>
       </c>
       <c r="O92">
         <v>21564800</v>
       </c>
       <c r="P92">
-        <v>600600289000</v>
+        <v>416785288000</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>5700</v>
       </c>
       <c r="E93">
-        <v>22388355000</v>
+        <v>21310933500</v>
       </c>
       <c r="F93">
-        <v>26396467000</v>
+        <v>24986578300</v>
       </c>
       <c r="G93">
         <v>65261000</v>
@@ -5028,13 +5028,13 @@
         <v>2992300</v>
       </c>
       <c r="I93">
-        <v>48850083000</v>
+        <v>46362772800</v>
       </c>
       <c r="J93" t="str">
         <v>2023-01-18T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>6352689841000</v>
+        <v>5853712917400</v>
       </c>
       <c r="L93">
         <v>363336400</v>
@@ -5043,13 +5043,13 @@
         <v>273200</v>
       </c>
       <c r="N93">
-        <v>4008112000</v>
+        <v>3675644800</v>
       </c>
       <c r="O93">
         <v>21838000</v>
       </c>
       <c r="P93">
-        <v>604608401000</v>
+        <v>420460932800</v>
       </c>
     </row>
     <row r="94">
@@ -5066,25 +5066,25 @@
         <v>12700</v>
       </c>
       <c r="E94">
-        <v>28196278000</v>
+        <v>27524450500</v>
       </c>
       <c r="F94">
-        <v>53598208000</v>
+        <v>52132575100</v>
       </c>
       <c r="G94">
-        <v>255600000</v>
+        <v>236818800</v>
       </c>
       <c r="H94">
         <v>4885400</v>
       </c>
       <c r="I94">
-        <v>82050086000</v>
+        <v>79893844400</v>
       </c>
       <c r="J94" t="str">
         <v>2023-01-18T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>6434739927000</v>
+        <v>5933606761800</v>
       </c>
       <c r="L94">
         <v>368221800</v>
@@ -5093,13 +5093,13 @@
         <v>1545300</v>
       </c>
       <c r="N94">
-        <v>25401930000</v>
+        <v>24608124600</v>
       </c>
       <c r="O94">
         <v>23383300</v>
       </c>
       <c r="P94">
-        <v>630010331000</v>
+        <v>445069057400</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>9700</v>
       </c>
       <c r="E95">
-        <v>21321461000</v>
+        <v>19961921900</v>
       </c>
       <c r="F95">
-        <v>78104008000</v>
+        <v>75090824200</v>
       </c>
       <c r="G95">
         <v>296519000</v>
@@ -5128,13 +5128,13 @@
         <v>5817300</v>
       </c>
       <c r="I95">
-        <v>99721988000</v>
+        <v>95349265100</v>
       </c>
       <c r="J95" t="str">
         <v>2023-01-18T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>6534461915000</v>
+        <v>6028956026900</v>
       </c>
       <c r="L95">
         <v>374039100</v>
@@ -5143,13 +5143,13 @@
         <v>3173800</v>
       </c>
       <c r="N95">
-        <v>56782547000</v>
+        <v>55128902300</v>
       </c>
       <c r="O95">
         <v>26557100</v>
       </c>
       <c r="P95">
-        <v>686792878000</v>
+        <v>500197959700</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>25600</v>
       </c>
       <c r="E96">
-        <v>21669810000</v>
+        <v>20443437600</v>
       </c>
       <c r="F96">
-        <v>113907007000</v>
+        <v>102775549600</v>
       </c>
       <c r="G96">
         <v>382479000</v>
@@ -5178,13 +5178,13 @@
         <v>8241700</v>
       </c>
       <c r="I96">
-        <v>135959296000</v>
+        <v>123601466200</v>
       </c>
       <c r="J96" t="str">
         <v>2023-01-18T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>6670421211000</v>
+        <v>6152557493100</v>
       </c>
       <c r="L96">
         <v>382280800</v>
@@ -5193,13 +5193,13 @@
         <v>5445700</v>
       </c>
       <c r="N96">
-        <v>92237197000</v>
+        <v>82332112000</v>
       </c>
       <c r="O96">
         <v>32002800</v>
       </c>
       <c r="P96">
-        <v>779030075000</v>
+        <v>582530071700</v>
       </c>
     </row>
     <row r="97">
@@ -5216,10 +5216,10 @@
         <v>25100</v>
       </c>
       <c r="E97">
-        <v>28861203000</v>
+        <v>28485678900</v>
       </c>
       <c r="F97">
-        <v>76283022000</v>
+        <v>72359649300</v>
       </c>
       <c r="G97">
         <v>390651000</v>
@@ -5228,13 +5228,13 @@
         <v>6574100</v>
       </c>
       <c r="I97">
-        <v>105534876000</v>
+        <v>101235979200</v>
       </c>
       <c r="J97" t="str">
         <v>2023-01-18T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>6775956087000</v>
+        <v>6253793472300</v>
       </c>
       <c r="L97">
         <v>388854900</v>
@@ -5243,13 +5243,13 @@
         <v>2547200</v>
       </c>
       <c r="N97">
-        <v>47421819000</v>
+        <v>43873970400</v>
       </c>
       <c r="O97">
         <v>34550000</v>
       </c>
       <c r="P97">
-        <v>826451894000</v>
+        <v>626404042100</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>3700</v>
       </c>
       <c r="E98">
-        <v>37017573000</v>
+        <v>35055836700</v>
       </c>
       <c r="F98">
-        <v>61543418000</v>
+        <v>57914350700</v>
       </c>
       <c r="G98">
         <v>77710000</v>
@@ -5278,13 +5278,13 @@
         <v>5450700</v>
       </c>
       <c r="I98">
-        <v>98638701000</v>
+        <v>93047897400</v>
       </c>
       <c r="J98" t="str">
         <v>2023-01-18T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>6874594788000</v>
+        <v>6346841369700</v>
       </c>
       <c r="L98">
         <v>394305600</v>
@@ -5293,13 +5293,13 @@
         <v>1206000</v>
       </c>
       <c r="N98">
-        <v>24525845000</v>
+        <v>22858514000</v>
       </c>
       <c r="O98">
         <v>35756000</v>
       </c>
       <c r="P98">
-        <v>850977739000</v>
+        <v>649262556100</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>22100</v>
       </c>
       <c r="E99">
-        <v>35944545000</v>
+        <v>35359730400</v>
       </c>
       <c r="F99">
-        <v>45984616000</v>
+        <v>44584817200</v>
       </c>
       <c r="G99">
         <v>496974000</v>
@@ -5328,13 +5328,13 @@
         <v>4923000</v>
       </c>
       <c r="I99">
-        <v>82426135000</v>
+        <v>80441521600</v>
       </c>
       <c r="J99" t="str">
         <v>2023-01-18T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>6957020923000</v>
+        <v>6427282891300</v>
       </c>
       <c r="L99">
         <v>399228600</v>
@@ -5343,13 +5343,13 @@
         <v>202300</v>
       </c>
       <c r="N99">
-        <v>10040071000</v>
+        <v>9225086800</v>
       </c>
       <c r="O99">
         <v>35958300</v>
       </c>
       <c r="P99">
-        <v>861017810000</v>
+        <v>658487642900</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>1600</v>
       </c>
       <c r="E100">
-        <v>41051269000</v>
+        <v>40882238200</v>
       </c>
       <c r="F100">
-        <v>49255209000</v>
+        <v>47385780300</v>
       </c>
       <c r="G100">
         <v>17883000</v>
@@ -5378,13 +5378,13 @@
         <v>5121700</v>
       </c>
       <c r="I100">
-        <v>90324361000</v>
+        <v>88285901500</v>
       </c>
       <c r="J100" t="str">
         <v>2023-01-18T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>7047345284000</v>
+        <v>6515568792800</v>
       </c>
       <c r="L100">
         <v>404350300</v>
@@ -5393,13 +5393,13 @@
         <v>27700</v>
       </c>
       <c r="N100">
-        <v>8203940000</v>
+        <v>6503542100</v>
       </c>
       <c r="O100">
         <v>35986000</v>
       </c>
       <c r="P100">
-        <v>869221750000</v>
+        <v>664991185000</v>
       </c>
     </row>
     <row r="101">
@@ -5416,10 +5416,10 @@
         <v>55400</v>
       </c>
       <c r="E101">
-        <v>39565592000</v>
+        <v>38647710800</v>
       </c>
       <c r="F101">
-        <v>55185214000</v>
+        <v>52398303700</v>
       </c>
       <c r="G101">
         <v>1373175000</v>
@@ -5428,13 +5428,13 @@
         <v>5400600</v>
       </c>
       <c r="I101">
-        <v>96123981000</v>
+        <v>92419189500</v>
       </c>
       <c r="J101" t="str">
         <v>2023-01-18T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>7143469265000</v>
+        <v>6607987982300</v>
       </c>
       <c r="L101">
         <v>409750900</v>
@@ -5443,13 +5443,13 @@
         <v>671800</v>
       </c>
       <c r="N101">
-        <v>15619622000</v>
+        <v>13750592900</v>
       </c>
       <c r="O101">
         <v>36657800</v>
       </c>
       <c r="P101">
-        <v>884841372000</v>
+        <v>678741777900</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>1000</v>
       </c>
       <c r="E102">
-        <v>33951791000</v>
+        <v>32428815500</v>
       </c>
       <c r="F102">
-        <v>48112319000</v>
+        <v>43751084600</v>
       </c>
       <c r="G102">
         <v>10373000</v>
@@ -5478,13 +5478,13 @@
         <v>4700900</v>
       </c>
       <c r="I102">
-        <v>82074483000</v>
+        <v>76190273100</v>
       </c>
       <c r="J102" t="str">
         <v>2023-01-18T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>7225543748000</v>
+        <v>6684178255400</v>
       </c>
       <c r="L102">
         <v>414451800</v>
@@ -5493,13 +5493,13 @@
         <v>626100</v>
       </c>
       <c r="N102">
-        <v>14160528000</v>
+        <v>11322269100</v>
       </c>
       <c r="O102">
         <v>37283900</v>
       </c>
       <c r="P102">
-        <v>899001900000</v>
+        <v>690064047000</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>1400</v>
       </c>
       <c r="E103">
-        <v>36049986000</v>
+        <v>33049189800</v>
       </c>
       <c r="F103">
-        <v>56266464000</v>
+        <v>53911221600</v>
       </c>
       <c r="G103">
         <v>14721000</v>
@@ -5528,13 +5528,13 @@
         <v>5400900</v>
       </c>
       <c r="I103">
-        <v>92331171000</v>
+        <v>86975132400</v>
       </c>
       <c r="J103" t="str">
         <v>2023-01-18T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>7317874919000</v>
+        <v>6771153387800</v>
       </c>
       <c r="L103">
         <v>419852700</v>
@@ -5543,13 +5543,13 @@
         <v>848700</v>
       </c>
       <c r="N103">
-        <v>20216478000</v>
+        <v>20862031800</v>
       </c>
       <c r="O103">
         <v>38132600</v>
       </c>
       <c r="P103">
-        <v>919218378000</v>
+        <v>710926078800</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>30100</v>
       </c>
       <c r="E104">
-        <v>50799061000</v>
+        <v>47518145200</v>
       </c>
       <c r="F104">
-        <v>55352314000</v>
+        <v>51537332800</v>
       </c>
       <c r="G104">
         <v>436951000</v>
@@ -5578,13 +5578,13 @@
         <v>6199300</v>
       </c>
       <c r="I104">
-        <v>106588326000</v>
+        <v>99492429000</v>
       </c>
       <c r="J104" t="str">
         <v>2023-01-18T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>7424463245000</v>
+        <v>6870645816800</v>
       </c>
       <c r="L104">
         <v>426052000</v>
@@ -5593,13 +5593,13 @@
         <v>667400</v>
       </c>
       <c r="N104">
-        <v>4553253000</v>
+        <v>4019187600</v>
       </c>
       <c r="O104">
         <v>38800000</v>
       </c>
       <c r="P104">
-        <v>923771631000</v>
+        <v>714945266400</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>20100</v>
       </c>
       <c r="E105">
-        <v>61133376000</v>
+        <v>57246067200</v>
       </c>
       <c r="F105">
-        <v>65846227000</v>
+        <v>63247628200</v>
       </c>
       <c r="G105">
         <v>295193000</v>
@@ -5628,13 +5628,13 @@
         <v>7502500</v>
       </c>
       <c r="I105">
-        <v>127274796000</v>
+        <v>120788888400</v>
       </c>
       <c r="J105" t="str">
         <v>2023-01-18T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>7551738041000</v>
+        <v>6991434705200</v>
       </c>
       <c r="L105">
         <v>433554500</v>
@@ -5643,13 +5643,13 @@
         <v>1017400</v>
       </c>
       <c r="N105">
-        <v>4712851000</v>
+        <v>6001561000</v>
       </c>
       <c r="O105">
         <v>39817400</v>
       </c>
       <c r="P105">
-        <v>928484482000</v>
+        <v>720946827400</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>15600</v>
       </c>
       <c r="E106">
-        <v>62902214000</v>
+        <v>61926191000</v>
       </c>
       <c r="F106">
-        <v>54405009000</v>
+        <v>51311305800</v>
       </c>
       <c r="G106">
         <v>266931000</v>
@@ -5678,13 +5678,13 @@
         <v>7156900</v>
       </c>
       <c r="I106">
-        <v>117574154000</v>
+        <v>113504427800</v>
       </c>
       <c r="J106" t="str">
         <v>2023-01-18T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>7669312195000</v>
+        <v>7104939133000</v>
       </c>
       <c r="L106">
         <v>440711400</v>
@@ -5693,13 +5693,13 @@
         <v>-1354900</v>
       </c>
       <c r="N106">
-        <v>-8497205000</v>
+        <v>-10614885200</v>
       </c>
       <c r="O106">
         <v>38462500</v>
       </c>
       <c r="P106">
-        <v>919987277000</v>
+        <v>710331942200</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>21400</v>
       </c>
       <c r="E107">
-        <v>35740032000</v>
+        <v>34380792600</v>
       </c>
       <c r="F107">
-        <v>100574482000</v>
+        <v>94703958400</v>
       </c>
       <c r="G107">
         <v>373097000</v>
@@ -5728,13 +5728,13 @@
         <v>7278000</v>
       </c>
       <c r="I107">
-        <v>136687611000</v>
+        <v>129457848000</v>
       </c>
       <c r="J107" t="str">
         <v>2023-01-18T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>7805999806000</v>
+        <v>7234396981000</v>
       </c>
       <c r="L107">
         <v>447989400</v>
@@ -5743,13 +5743,13 @@
         <v>2600800</v>
       </c>
       <c r="N107">
-        <v>64834450000</v>
+        <v>60323165800</v>
       </c>
       <c r="O107">
         <v>41063300</v>
       </c>
       <c r="P107">
-        <v>984821727000</v>
+        <v>770655108000</v>
       </c>
     </row>
     <row r="108">
@@ -5766,10 +5766,10 @@
         <v>14300</v>
       </c>
       <c r="E108">
-        <v>38692123000</v>
+        <v>37747268800</v>
       </c>
       <c r="F108">
-        <v>76978496000</v>
+        <v>75592083800</v>
       </c>
       <c r="G108">
         <v>219499000</v>
@@ -5778,13 +5778,13 @@
         <v>5986900</v>
       </c>
       <c r="I108">
-        <v>115890118000</v>
+        <v>113558851600</v>
       </c>
       <c r="J108" t="str">
         <v>2023-01-18T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>7921889924000</v>
+        <v>7347955832600</v>
       </c>
       <c r="L108">
         <v>453976300</v>
@@ -5793,13 +5793,13 @@
         <v>1536200</v>
       </c>
       <c r="N108">
-        <v>38286373000</v>
+        <v>37844815000</v>
       </c>
       <c r="O108">
         <v>42599500</v>
       </c>
       <c r="P108">
-        <v>1023108100000</v>
+        <v>808499923000</v>
       </c>
     </row>
     <row r="109">
@@ -5816,10 +5816,10 @@
         <v>14900</v>
       </c>
       <c r="E109">
-        <v>40978659000</v>
+        <v>40476361800</v>
       </c>
       <c r="F109">
-        <v>96455766000</v>
+        <v>82844391000</v>
       </c>
       <c r="G109">
         <v>155556000</v>
@@ -5828,13 +5828,13 @@
         <v>6986900</v>
       </c>
       <c r="I109">
-        <v>137589981000</v>
+        <v>123476308800</v>
       </c>
       <c r="J109" t="str">
         <v>2023-01-18T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>8059479905000</v>
+        <v>7471432141400</v>
       </c>
       <c r="L109">
         <v>460963200</v>
@@ -5843,13 +5843,13 @@
         <v>2064600</v>
       </c>
       <c r="N109">
-        <v>55477107000</v>
+        <v>42368029200</v>
       </c>
       <c r="O109">
         <v>44664100</v>
       </c>
       <c r="P109">
-        <v>1078585207000</v>
+        <v>850867952200</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>25800</v>
       </c>
       <c r="E110">
-        <v>39828301000</v>
+        <v>37778852500</v>
       </c>
       <c r="F110">
-        <v>81130676000</v>
+        <v>75134777900</v>
       </c>
       <c r="G110">
         <v>735385000</v>
@@ -5878,13 +5878,13 @@
         <v>6912500</v>
       </c>
       <c r="I110">
-        <v>121694362000</v>
+        <v>113649015400</v>
       </c>
       <c r="J110" t="str">
         <v>2023-01-18T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>8181174267000</v>
+        <v>7585081156800</v>
       </c>
       <c r="L110">
         <v>467875700</v>
@@ -5893,13 +5893,13 @@
         <v>2146300</v>
       </c>
       <c r="N110">
-        <v>41302375000</v>
+        <v>37355925400</v>
       </c>
       <c r="O110">
         <v>46810400</v>
       </c>
       <c r="P110">
-        <v>1119887582000</v>
+        <v>888223877600</v>
       </c>
     </row>
     <row r="111">
@@ -5916,25 +5916,25 @@
         <v>13100</v>
       </c>
       <c r="E111">
-        <v>50004368000</v>
+        <v>47372502500</v>
       </c>
       <c r="F111">
-        <v>73219369000</v>
+        <v>67058336200</v>
       </c>
       <c r="G111">
-        <v>200727000</v>
+        <v>172755000</v>
       </c>
       <c r="H111">
         <v>7232900</v>
       </c>
       <c r="I111">
-        <v>123424464000</v>
+        <v>114603593700</v>
       </c>
       <c r="J111" t="str">
         <v>2023-01-18T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>8304598731000</v>
+        <v>7699684750500</v>
       </c>
       <c r="L111">
         <v>475108600</v>
@@ -5943,13 +5943,13 @@
         <v>1063400</v>
       </c>
       <c r="N111">
-        <v>23215001000</v>
+        <v>19685833700</v>
       </c>
       <c r="O111">
         <v>47873800</v>
       </c>
       <c r="P111">
-        <v>1143102583000</v>
+        <v>907909711300</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>8900</v>
       </c>
       <c r="E112">
-        <v>62154416000</v>
+        <v>54958718900</v>
       </c>
       <c r="F112">
-        <v>53426854000</v>
+        <v>51050532700</v>
       </c>
       <c r="G112">
         <v>67585000</v>
@@ -5978,13 +5978,13 @@
         <v>6752800</v>
       </c>
       <c r="I112">
-        <v>115648855000</v>
+        <v>106076836600</v>
       </c>
       <c r="J112" t="str">
         <v>2023-01-18T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>8420247586000</v>
+        <v>7805761587100</v>
       </c>
       <c r="L112">
         <v>481861400</v>
@@ -5993,13 +5993,13 @@
         <v>-1091100</v>
       </c>
       <c r="N112">
-        <v>-8727562000</v>
+        <v>-3908186200</v>
       </c>
       <c r="O112">
         <v>46782700</v>
       </c>
       <c r="P112">
-        <v>1134375021000</v>
+        <v>904001525100</v>
       </c>
     </row>
     <row r="113">
@@ -6016,25 +6016,25 @@
         <v>90500</v>
       </c>
       <c r="E113">
-        <v>61159096000</v>
+        <v>57499259500</v>
       </c>
       <c r="F113">
-        <v>60786459000</v>
+        <v>54813138300</v>
       </c>
       <c r="G113">
-        <v>6312494000</v>
+        <v>143469200</v>
       </c>
       <c r="H113">
         <v>6618000</v>
       </c>
       <c r="I113">
-        <v>128258049000</v>
+        <v>112455867000</v>
       </c>
       <c r="J113" t="str">
         <v>2023-01-18T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>8548505635000</v>
+        <v>7918217454100</v>
       </c>
       <c r="L113">
         <v>488479400</v>
@@ -6043,13 +6043,13 @@
         <v>-508900</v>
       </c>
       <c r="N113">
-        <v>-372637000</v>
+        <v>-2686121200</v>
       </c>
       <c r="O113">
         <v>46273800</v>
       </c>
       <c r="P113">
-        <v>1134002384000</v>
+        <v>901315403900</v>
       </c>
     </row>
     <row r="114">
@@ -6066,25 +6066,25 @@
         <v>17900</v>
       </c>
       <c r="E114">
-        <v>90536653000</v>
+        <v>85912282000</v>
       </c>
       <c r="F114">
-        <v>46333239000</v>
+        <v>44113760700</v>
       </c>
       <c r="G114">
-        <v>164768000</v>
+        <v>157775000</v>
       </c>
       <c r="H114">
         <v>7752100</v>
       </c>
       <c r="I114">
-        <v>137034660000</v>
+        <v>130183817700</v>
       </c>
       <c r="J114" t="str">
         <v>2023-01-18T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>8685540295000</v>
+        <v>8048401271800</v>
       </c>
       <c r="L114">
         <v>496231500</v>
@@ -6093,13 +6093,13 @@
         <v>-2727000</v>
       </c>
       <c r="N114">
-        <v>-44203414000</v>
+        <v>-41798521300</v>
       </c>
       <c r="O114">
         <v>43546800</v>
       </c>
       <c r="P114">
-        <v>1089798970000</v>
+        <v>859516882600</v>
       </c>
     </row>
     <row r="115">
@@ -6116,10 +6116,10 @@
         <v>27500</v>
       </c>
       <c r="E115">
-        <v>111700491000</v>
+        <v>108519175500</v>
       </c>
       <c r="F115">
-        <v>47557695000</v>
+        <v>43712444100</v>
       </c>
       <c r="G115">
         <v>475855000</v>
@@ -6128,13 +6128,13 @@
         <v>9565300</v>
       </c>
       <c r="I115">
-        <v>159734041000</v>
+        <v>152707474600</v>
       </c>
       <c r="J115" t="str">
         <v>2023-01-18T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>8845274336000</v>
+        <v>8201108746400</v>
       </c>
       <c r="L115">
         <v>505796800</v>
@@ -6143,13 +6143,13 @@
         <v>-3793800</v>
       </c>
       <c r="N115">
-        <v>-64142796000</v>
+        <v>-64806731400</v>
       </c>
       <c r="O115">
         <v>39753000</v>
       </c>
       <c r="P115">
-        <v>1025656174000</v>
+        <v>794710151200</v>
       </c>
     </row>
     <row r="116">
@@ -6184,7 +6184,7 @@
         <v>2023-01-18T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>8846028019000</v>
+        <v>8201862429400</v>
       </c>
       <c r="L116">
         <v>505836500</v>
@@ -6199,7 +6199,7 @@
         <v>39726900</v>
       </c>
       <c r="P116">
-        <v>1025003947000</v>
+        <v>794057924200</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>22953300</v>
       </c>
       <c r="E117">
-        <v>2704260000</v>
+        <v>2503161300</v>
       </c>
       <c r="F117">
-        <v>16639136000</v>
+        <v>16371004400</v>
       </c>
       <c r="G117">
-        <v>480617961000</v>
+        <v>445463350800</v>
       </c>
       <c r="H117">
         <v>24374100</v>
       </c>
       <c r="I117">
-        <v>499961357000</v>
+        <v>464337516500</v>
       </c>
       <c r="J117" t="str">
         <v>2023-01-18T14:44:00.000Z</v>
       </c>
       <c r="K117">
-        <v>9345989376000</v>
+        <v>8666199945900</v>
       </c>
       <c r="L117">
         <v>530210600</v>
@@ -6243,13 +6243,13 @@
         <v>965800</v>
       </c>
       <c r="N117">
-        <v>13934876000</v>
+        <v>13867843100</v>
       </c>
       <c r="O117">
         <v>40692700</v>
       </c>
       <c r="P117">
-        <v>1038938823000</v>
+        <v>807925767300</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230118/VNINDEX_HOSE_5p_20230118.xlsx
+++ b/name/vnindex/20230118/VNINDEX_HOSE_5p_20230118.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P117"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>-2314129200</v>
       </c>
+      <c r="Q2">
+        <v>40942445400</v>
+      </c>
+      <c r="R2">
+        <v>43256574600</v>
+      </c>
+      <c r="S2">
+        <v>2738100</v>
+      </c>
+      <c r="T2">
+        <v>2795400</v>
+      </c>
+      <c r="U2">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V2">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W2">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X2">
+        <v>4570781</v>
+      </c>
+      <c r="Y2">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z2">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA2">
+        <v>350799.1</v>
+      </c>
+      <c r="AB2">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC2">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>12018019500</v>
       </c>
+      <c r="Q3">
+        <v>87892200700</v>
+      </c>
+      <c r="R3">
+        <v>75874181200</v>
+      </c>
+      <c r="S3">
+        <v>5945400</v>
+      </c>
+      <c r="T3">
+        <v>4993400</v>
+      </c>
+      <c r="U3">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V3">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W3">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X3">
+        <v>4570781</v>
+      </c>
+      <c r="Y3">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z3">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA3">
+        <v>350799.1</v>
+      </c>
+      <c r="AB3">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC3">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>21043959000</v>
       </c>
+      <c r="Q4">
+        <v>137788537300</v>
+      </c>
+      <c r="R4">
+        <v>116744578300</v>
+      </c>
+      <c r="S4">
+        <v>9205800</v>
+      </c>
+      <c r="T4">
+        <v>7645800</v>
+      </c>
+      <c r="U4">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V4">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W4">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X4">
+        <v>4570781</v>
+      </c>
+      <c r="Y4">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z4">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA4">
+        <v>350799.1</v>
+      </c>
+      <c r="AB4">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC4">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>17688471200</v>
       </c>
+      <c r="Q5">
+        <v>174499137200</v>
+      </c>
+      <c r="R5">
+        <v>156810666000</v>
+      </c>
+      <c r="S5">
+        <v>11575600</v>
+      </c>
+      <c r="T5">
+        <v>10476500</v>
+      </c>
+      <c r="U5">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V5">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W5">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X5">
+        <v>4570781</v>
+      </c>
+      <c r="Y5">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z5">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA5">
+        <v>350799.1</v>
+      </c>
+      <c r="AB5">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>15038218100</v>
       </c>
+      <c r="Q6">
+        <v>212510799100</v>
+      </c>
+      <c r="R6">
+        <v>197472581000</v>
+      </c>
+      <c r="S6">
+        <v>14017600</v>
+      </c>
+      <c r="T6">
+        <v>13033900</v>
+      </c>
+      <c r="U6">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V6">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W6">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X6">
+        <v>4570781</v>
+      </c>
+      <c r="Y6">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z6">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA6">
+        <v>350799.1</v>
+      </c>
+      <c r="AB6">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC6">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>26131481500</v>
       </c>
+      <c r="Q7">
+        <v>260507253900</v>
+      </c>
+      <c r="R7">
+        <v>234375772400</v>
+      </c>
+      <c r="S7">
+        <v>16495900</v>
+      </c>
+      <c r="T7">
+        <v>15324300</v>
+      </c>
+      <c r="U7">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V7">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W7">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X7">
+        <v>4570781</v>
+      </c>
+      <c r="Y7">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z7">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA7">
+        <v>350799.1</v>
+      </c>
+      <c r="AB7">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC7">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>28163989000</v>
       </c>
+      <c r="Q8">
+        <v>302045528900</v>
+      </c>
+      <c r="R8">
+        <v>273881539900</v>
+      </c>
+      <c r="S8">
+        <v>18802900</v>
+      </c>
+      <c r="T8">
+        <v>17965400</v>
+      </c>
+      <c r="U8">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V8">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W8">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X8">
+        <v>4570781</v>
+      </c>
+      <c r="Y8">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z8">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA8">
+        <v>350799.1</v>
+      </c>
+      <c r="AB8">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC8">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-3321682100</v>
       </c>
+      <c r="Q9">
+        <v>332091969200</v>
+      </c>
+      <c r="R9">
+        <v>335413651300</v>
+      </c>
+      <c r="S9">
+        <v>20288600</v>
+      </c>
+      <c r="T9">
+        <v>21847200</v>
+      </c>
+      <c r="U9">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V9">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W9">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X9">
+        <v>4570781</v>
+      </c>
+      <c r="Y9">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z9">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA9">
+        <v>350799.1</v>
+      </c>
+      <c r="AB9">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC9">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>-29802967400</v>
       </c>
+      <c r="Q10">
+        <v>363982332700</v>
+      </c>
+      <c r="R10">
+        <v>393785300100</v>
+      </c>
+      <c r="S10">
+        <v>22056100</v>
+      </c>
+      <c r="T10">
+        <v>26160900</v>
+      </c>
+      <c r="U10">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V10">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W10">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X10">
+        <v>4570781</v>
+      </c>
+      <c r="Y10">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z10">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA10">
+        <v>350799.1</v>
+      </c>
+      <c r="AB10">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC10">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>-26532349800</v>
       </c>
+      <c r="Q11">
+        <v>399487235000</v>
+      </c>
+      <c r="R11">
+        <v>426019584800</v>
+      </c>
+      <c r="S11">
+        <v>23910700</v>
+      </c>
+      <c r="T11">
+        <v>27991400</v>
+      </c>
+      <c r="U11">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V11">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W11">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X11">
+        <v>4570781</v>
+      </c>
+      <c r="Y11">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z11">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA11">
+        <v>350799.1</v>
+      </c>
+      <c r="AB11">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>-32421181500</v>
       </c>
+      <c r="Q12">
+        <v>429336885600</v>
+      </c>
+      <c r="R12">
+        <v>461758067100</v>
+      </c>
+      <c r="S12">
+        <v>25657400</v>
+      </c>
+      <c r="T12">
+        <v>29989200</v>
+      </c>
+      <c r="U12">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V12">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W12">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X12">
+        <v>4570781</v>
+      </c>
+      <c r="Y12">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z12">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA12">
+        <v>350799.1</v>
+      </c>
+      <c r="AB12">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC12">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>-45928975900</v>
       </c>
+      <c r="Q13">
+        <v>455215151700</v>
+      </c>
+      <c r="R13">
+        <v>501144127600</v>
+      </c>
+      <c r="S13">
+        <v>27156700</v>
+      </c>
+      <c r="T13">
+        <v>32148300</v>
+      </c>
+      <c r="U13">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V13">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W13">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X13">
+        <v>4570781</v>
+      </c>
+      <c r="Y13">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z13">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA13">
+        <v>350799.1</v>
+      </c>
+      <c r="AB13">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC13">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>-52610670700</v>
       </c>
+      <c r="Q14">
+        <v>486820819800</v>
+      </c>
+      <c r="R14">
+        <v>539431490500</v>
+      </c>
+      <c r="S14">
+        <v>29147400</v>
+      </c>
+      <c r="T14">
+        <v>34230600</v>
+      </c>
+      <c r="U14">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V14">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W14">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X14">
+        <v>4570781</v>
+      </c>
+      <c r="Y14">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z14">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA14">
+        <v>350799.1</v>
+      </c>
+      <c r="AB14">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>-44216670800</v>
       </c>
+      <c r="Q15">
+        <v>529034311800</v>
+      </c>
+      <c r="R15">
+        <v>573250982600</v>
+      </c>
+      <c r="S15">
+        <v>31586000</v>
+      </c>
+      <c r="T15">
+        <v>36233300</v>
+      </c>
+      <c r="U15">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V15">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W15">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X15">
+        <v>4570781</v>
+      </c>
+      <c r="Y15">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z15">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA15">
+        <v>350799.1</v>
+      </c>
+      <c r="AB15">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC15">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>-11548391300</v>
       </c>
+      <c r="Q16">
+        <v>578910118900</v>
+      </c>
+      <c r="R16">
+        <v>590458510200</v>
+      </c>
+      <c r="S16">
+        <v>34769600</v>
+      </c>
+      <c r="T16">
+        <v>37473500</v>
+      </c>
+      <c r="U16">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V16">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W16">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X16">
+        <v>4570781</v>
+      </c>
+      <c r="Y16">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z16">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA16">
+        <v>350799.1</v>
+      </c>
+      <c r="AB16">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC16">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>31882772100</v>
       </c>
+      <c r="Q17">
+        <v>642066705100</v>
+      </c>
+      <c r="R17">
+        <v>610183933000</v>
+      </c>
+      <c r="S17">
+        <v>38630200</v>
+      </c>
+      <c r="T17">
+        <v>38725200</v>
+      </c>
+      <c r="U17">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V17">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W17">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X17">
+        <v>4570781</v>
+      </c>
+      <c r="Y17">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z17">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA17">
+        <v>350799.1</v>
+      </c>
+      <c r="AB17">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC17">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>80218723100</v>
       </c>
+      <c r="Q18">
+        <v>708525095600</v>
+      </c>
+      <c r="R18">
+        <v>628306372500</v>
+      </c>
+      <c r="S18">
+        <v>43067300</v>
+      </c>
+      <c r="T18">
+        <v>39777300</v>
+      </c>
+      <c r="U18">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V18">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W18">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X18">
+        <v>4570781</v>
+      </c>
+      <c r="Y18">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z18">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA18">
+        <v>350799.1</v>
+      </c>
+      <c r="AB18">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC18">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>103648483300</v>
       </c>
+      <c r="Q19">
+        <v>751383270100</v>
+      </c>
+      <c r="R19">
+        <v>647734786800</v>
+      </c>
+      <c r="S19">
+        <v>45998400</v>
+      </c>
+      <c r="T19">
+        <v>41183800</v>
+      </c>
+      <c r="U19">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V19">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W19">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X19">
+        <v>4570781</v>
+      </c>
+      <c r="Y19">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z19">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA19">
+        <v>350799.1</v>
+      </c>
+      <c r="AB19">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC19">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>111459806500</v>
       </c>
+      <c r="Q20">
+        <v>787589828000</v>
+      </c>
+      <c r="R20">
+        <v>676130021500</v>
+      </c>
+      <c r="S20">
+        <v>47827500</v>
+      </c>
+      <c r="T20">
+        <v>43138300</v>
+      </c>
+      <c r="U20">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V20">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W20">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X20">
+        <v>4570781</v>
+      </c>
+      <c r="Y20">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z20">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA20">
+        <v>350799.1</v>
+      </c>
+      <c r="AB20">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC20">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>111020106700</v>
       </c>
+      <c r="Q21">
+        <v>817131110700</v>
+      </c>
+      <c r="R21">
+        <v>706111004000</v>
+      </c>
+      <c r="S21">
+        <v>49579300</v>
+      </c>
+      <c r="T21">
+        <v>45081400</v>
+      </c>
+      <c r="U21">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V21">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W21">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X21">
+        <v>4570781</v>
+      </c>
+      <c r="Y21">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z21">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA21">
+        <v>350799.1</v>
+      </c>
+      <c r="AB21">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC21">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>117256659400</v>
       </c>
+      <c r="Q22">
+        <v>847326725700</v>
+      </c>
+      <c r="R22">
+        <v>730070066300</v>
+      </c>
+      <c r="S22">
+        <v>51430200</v>
+      </c>
+      <c r="T22">
+        <v>46724100</v>
+      </c>
+      <c r="U22">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V22">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W22">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X22">
+        <v>4570781</v>
+      </c>
+      <c r="Y22">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z22">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA22">
+        <v>350799.1</v>
+      </c>
+      <c r="AB22">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC22">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>121504525400</v>
       </c>
+      <c r="Q23">
+        <v>876978328800</v>
+      </c>
+      <c r="R23">
+        <v>755473803400</v>
+      </c>
+      <c r="S23">
+        <v>53073400</v>
+      </c>
+      <c r="T23">
+        <v>48636500</v>
+      </c>
+      <c r="U23">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V23">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W23">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X23">
+        <v>4570781</v>
+      </c>
+      <c r="Y23">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z23">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA23">
+        <v>350799.1</v>
+      </c>
+      <c r="AB23">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC23">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>146444650100</v>
       </c>
+      <c r="Q24">
+        <v>923166513200</v>
+      </c>
+      <c r="R24">
+        <v>776721863100</v>
+      </c>
+      <c r="S24">
+        <v>55464600</v>
+      </c>
+      <c r="T24">
+        <v>49958200</v>
+      </c>
+      <c r="U24">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V24">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W24">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X24">
+        <v>4570781</v>
+      </c>
+      <c r="Y24">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z24">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA24">
+        <v>350799.1</v>
+      </c>
+      <c r="AB24">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC24">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>135585794900</v>
       </c>
+      <c r="Q25">
+        <v>944368685300</v>
+      </c>
+      <c r="R25">
+        <v>808782890400</v>
+      </c>
+      <c r="S25">
+        <v>56619000</v>
+      </c>
+      <c r="T25">
+        <v>51790000</v>
+      </c>
+      <c r="U25">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V25">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W25">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X25">
+        <v>4570781</v>
+      </c>
+      <c r="Y25">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z25">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA25">
+        <v>350799.1</v>
+      </c>
+      <c r="AB25">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC25">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>108276101300</v>
       </c>
+      <c r="Q26">
+        <v>964177503900</v>
+      </c>
+      <c r="R26">
+        <v>855901402600</v>
+      </c>
+      <c r="S26">
+        <v>57762100</v>
+      </c>
+      <c r="T26">
+        <v>54437900</v>
+      </c>
+      <c r="U26">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V26">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W26">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X26">
+        <v>4570781</v>
+      </c>
+      <c r="Y26">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z26">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA26">
+        <v>350799.1</v>
+      </c>
+      <c r="AB26">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC26">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>74511837100</v>
       </c>
+      <c r="Q27">
+        <v>984571159500</v>
+      </c>
+      <c r="R27">
+        <v>910059322400</v>
+      </c>
+      <c r="S27">
+        <v>58822700</v>
+      </c>
+      <c r="T27">
+        <v>57555000</v>
+      </c>
+      <c r="U27">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V27">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W27">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X27">
+        <v>4570781</v>
+      </c>
+      <c r="Y27">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z27">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA27">
+        <v>350799.1</v>
+      </c>
+      <c r="AB27">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC27">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>59592662700</v>
       </c>
+      <c r="Q28">
+        <v>1008226713600</v>
+      </c>
+      <c r="R28">
+        <v>948634050900</v>
+      </c>
+      <c r="S28">
+        <v>60073700</v>
+      </c>
+      <c r="T28">
+        <v>59711500</v>
+      </c>
+      <c r="U28">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V28">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W28">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X28">
+        <v>4570781</v>
+      </c>
+      <c r="Y28">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z28">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA28">
+        <v>350799.1</v>
+      </c>
+      <c r="AB28">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC28">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>46180958000</v>
       </c>
+      <c r="Q29">
+        <v>1029098546700</v>
+      </c>
+      <c r="R29">
+        <v>982917588700</v>
+      </c>
+      <c r="S29">
+        <v>61362300</v>
+      </c>
+      <c r="T29">
+        <v>61698000</v>
+      </c>
+      <c r="U29">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V29">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W29">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X29">
+        <v>4570781</v>
+      </c>
+      <c r="Y29">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z29">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA29">
+        <v>350799.1</v>
+      </c>
+      <c r="AB29">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC29">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>46894312500</v>
       </c>
+      <c r="Q30">
+        <v>1062826502200</v>
+      </c>
+      <c r="R30">
+        <v>1015932189700</v>
+      </c>
+      <c r="S30">
+        <v>63022600</v>
+      </c>
+      <c r="T30">
+        <v>63549400</v>
+      </c>
+      <c r="U30">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V30">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W30">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X30">
+        <v>4570781</v>
+      </c>
+      <c r="Y30">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z30">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA30">
+        <v>350799.1</v>
+      </c>
+      <c r="AB30">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC30">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>28060263300</v>
       </c>
+      <c r="Q31">
+        <v>1082860921900</v>
+      </c>
+      <c r="R31">
+        <v>1054800658600</v>
+      </c>
+      <c r="S31">
+        <v>64187900</v>
+      </c>
+      <c r="T31">
+        <v>65622200</v>
+      </c>
+      <c r="U31">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V31">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W31">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X31">
+        <v>4570781</v>
+      </c>
+      <c r="Y31">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z31">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA31">
+        <v>350799.1</v>
+      </c>
+      <c r="AB31">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC31">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>19581789500</v>
       </c>
+      <c r="Q32">
+        <v>1108505685100</v>
+      </c>
+      <c r="R32">
+        <v>1088923895600</v>
+      </c>
+      <c r="S32">
+        <v>65494800</v>
+      </c>
+      <c r="T32">
+        <v>67582600</v>
+      </c>
+      <c r="U32">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V32">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W32">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X32">
+        <v>4570781</v>
+      </c>
+      <c r="Y32">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z32">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA32">
+        <v>350799.1</v>
+      </c>
+      <c r="AB32">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC32">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>30321320300</v>
       </c>
+      <c r="Q33">
+        <v>1154813371700</v>
+      </c>
+      <c r="R33">
+        <v>1124492051400</v>
+      </c>
+      <c r="S33">
+        <v>68121400</v>
+      </c>
+      <c r="T33">
+        <v>69349900</v>
+      </c>
+      <c r="U33">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V33">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W33">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X33">
+        <v>4570781</v>
+      </c>
+      <c r="Y33">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z33">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA33">
+        <v>350799.1</v>
+      </c>
+      <c r="AB33">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC33">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>40709693800</v>
       </c>
+      <c r="Q34">
+        <v>1188646630500</v>
+      </c>
+      <c r="R34">
+        <v>1147936936700</v>
+      </c>
+      <c r="S34">
+        <v>70062500</v>
+      </c>
+      <c r="T34">
+        <v>70585200</v>
+      </c>
+      <c r="U34">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V34">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W34">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X34">
+        <v>4570781</v>
+      </c>
+      <c r="Y34">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z34">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA34">
+        <v>350799.1</v>
+      </c>
+      <c r="AB34">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC34">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>35232304900</v>
       </c>
+      <c r="Q35">
+        <v>1208210795500</v>
+      </c>
+      <c r="R35">
+        <v>1172978490600</v>
+      </c>
+      <c r="S35">
+        <v>71355300</v>
+      </c>
+      <c r="T35">
+        <v>71971500</v>
+      </c>
+      <c r="U35">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V35">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W35">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X35">
+        <v>4570781</v>
+      </c>
+      <c r="Y35">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z35">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA35">
+        <v>350799.1</v>
+      </c>
+      <c r="AB35">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC35">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>34552036300</v>
       </c>
+      <c r="Q36">
+        <v>1228695987000</v>
+      </c>
+      <c r="R36">
+        <v>1194143950700</v>
+      </c>
+      <c r="S36">
+        <v>72542500</v>
+      </c>
+      <c r="T36">
+        <v>73175700</v>
+      </c>
+      <c r="U36">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V36">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W36">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X36">
+        <v>4570781</v>
+      </c>
+      <c r="Y36">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z36">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA36">
+        <v>350799.1</v>
+      </c>
+      <c r="AB36">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC36">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>23526242700</v>
       </c>
+      <c r="Q37">
+        <v>1247541644100</v>
+      </c>
+      <c r="R37">
+        <v>1224015401400</v>
+      </c>
+      <c r="S37">
+        <v>73550100</v>
+      </c>
+      <c r="T37">
+        <v>74776300</v>
+      </c>
+      <c r="U37">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V37">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W37">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X37">
+        <v>4570781</v>
+      </c>
+      <c r="Y37">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z37">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA37">
+        <v>350799.1</v>
+      </c>
+      <c r="AB37">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC37">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>20220842300</v>
       </c>
+      <c r="Q38">
+        <v>1264573415700</v>
+      </c>
+      <c r="R38">
+        <v>1244352573400</v>
+      </c>
+      <c r="S38">
+        <v>74521100</v>
+      </c>
+      <c r="T38">
+        <v>75895000</v>
+      </c>
+      <c r="U38">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V38">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W38">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X38">
+        <v>4570781</v>
+      </c>
+      <c r="Y38">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z38">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA38">
+        <v>350799.1</v>
+      </c>
+      <c r="AB38">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>12837227400</v>
       </c>
+      <c r="Q39">
+        <v>1280863536500</v>
+      </c>
+      <c r="R39">
+        <v>1268026309100</v>
+      </c>
+      <c r="S39">
+        <v>75495400</v>
+      </c>
+      <c r="T39">
+        <v>77213200</v>
+      </c>
+      <c r="U39">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V39">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W39">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X39">
+        <v>4570781</v>
+      </c>
+      <c r="Y39">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z39">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA39">
+        <v>350799.1</v>
+      </c>
+      <c r="AB39">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC39">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>13090468200</v>
       </c>
+      <c r="Q40">
+        <v>1298682682400</v>
+      </c>
+      <c r="R40">
+        <v>1285592214200</v>
+      </c>
+      <c r="S40">
+        <v>76574900</v>
+      </c>
+      <c r="T40">
+        <v>78332200</v>
+      </c>
+      <c r="U40">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V40">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W40">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X40">
+        <v>4570781</v>
+      </c>
+      <c r="Y40">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z40">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA40">
+        <v>350799.1</v>
+      </c>
+      <c r="AB40">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>16258899400</v>
       </c>
+      <c r="Q41">
+        <v>1318077914800</v>
+      </c>
+      <c r="R41">
+        <v>1301819015400</v>
+      </c>
+      <c r="S41">
+        <v>77783200</v>
+      </c>
+      <c r="T41">
+        <v>79399000</v>
+      </c>
+      <c r="U41">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V41">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W41">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X41">
+        <v>4570781</v>
+      </c>
+      <c r="Y41">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z41">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA41">
+        <v>350799.1</v>
+      </c>
+      <c r="AB41">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC41">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>39300790400</v>
       </c>
+      <c r="Q42">
+        <v>1354079573600</v>
+      </c>
+      <c r="R42">
+        <v>1314778783200</v>
+      </c>
+      <c r="S42">
+        <v>79548800</v>
+      </c>
+      <c r="T42">
+        <v>80181500</v>
+      </c>
+      <c r="U42">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V42">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W42">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X42">
+        <v>4570781</v>
+      </c>
+      <c r="Y42">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z42">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA42">
+        <v>350799.1</v>
+      </c>
+      <c r="AB42">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC42">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>78943608100</v>
       </c>
+      <c r="Q43">
+        <v>1408500807500</v>
+      </c>
+      <c r="R43">
+        <v>1329557199400</v>
+      </c>
+      <c r="S43">
+        <v>81985500</v>
+      </c>
+      <c r="T43">
+        <v>81256900</v>
+      </c>
+      <c r="U43">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V43">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W43">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X43">
+        <v>4570781</v>
+      </c>
+      <c r="Y43">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z43">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA43">
+        <v>350799.1</v>
+      </c>
+      <c r="AB43">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC43">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>128113150400</v>
       </c>
+      <c r="Q44">
+        <v>1466315975800</v>
+      </c>
+      <c r="R44">
+        <v>1338202825400</v>
+      </c>
+      <c r="S44">
+        <v>85125300</v>
+      </c>
+      <c r="T44">
+        <v>81805900</v>
+      </c>
+      <c r="U44">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V44">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W44">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X44">
+        <v>4570781</v>
+      </c>
+      <c r="Y44">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z44">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA44">
+        <v>350799.1</v>
+      </c>
+      <c r="AB44">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC44">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>183954169600</v>
       </c>
+      <c r="Q45">
+        <v>1533124188000</v>
+      </c>
+      <c r="R45">
+        <v>1349170018400</v>
+      </c>
+      <c r="S45">
+        <v>89459800</v>
+      </c>
+      <c r="T45">
+        <v>82564900</v>
+      </c>
+      <c r="U45">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V45">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W45">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X45">
+        <v>4570781</v>
+      </c>
+      <c r="Y45">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z45">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA45">
+        <v>350799.1</v>
+      </c>
+      <c r="AB45">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC45">
+        <v>8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>209591640100</v>
       </c>
+      <c r="Q46">
+        <v>1573885127800</v>
+      </c>
+      <c r="R46">
+        <v>1364293487700</v>
+      </c>
+      <c r="S46">
+        <v>91877200</v>
+      </c>
+      <c r="T46">
+        <v>83623500</v>
+      </c>
+      <c r="U46">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V46">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W46">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X46">
+        <v>4570781</v>
+      </c>
+      <c r="Y46">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z46">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA46">
+        <v>350799.1</v>
+      </c>
+      <c r="AB46">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC46">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>225665867700</v>
       </c>
+      <c r="Q47">
+        <v>1607165231900</v>
+      </c>
+      <c r="R47">
+        <v>1381499364200</v>
+      </c>
+      <c r="S47">
+        <v>93847700</v>
+      </c>
+      <c r="T47">
+        <v>84631100</v>
+      </c>
+      <c r="U47">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V47">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W47">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X47">
+        <v>4570781</v>
+      </c>
+      <c r="Y47">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z47">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA47">
+        <v>350799.1</v>
+      </c>
+      <c r="AB47">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC47">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>259120629500</v>
       </c>
+      <c r="Q48">
+        <v>1662852305200</v>
+      </c>
+      <c r="R48">
+        <v>1403731675700</v>
+      </c>
+      <c r="S48">
+        <v>97855200</v>
+      </c>
+      <c r="T48">
+        <v>85850100</v>
+      </c>
+      <c r="U48">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V48">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W48">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X48">
+        <v>4570781</v>
+      </c>
+      <c r="Y48">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z48">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA48">
+        <v>350799.1</v>
+      </c>
+      <c r="AB48">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC48">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>266424219900</v>
       </c>
+      <c r="Q49">
+        <v>1693283183700</v>
+      </c>
+      <c r="R49">
+        <v>1426858963800</v>
+      </c>
+      <c r="S49">
+        <v>99852000</v>
+      </c>
+      <c r="T49">
+        <v>87356700</v>
+      </c>
+      <c r="U49">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V49">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W49">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X49">
+        <v>4570781</v>
+      </c>
+      <c r="Y49">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z49">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA49">
+        <v>350799.1</v>
+      </c>
+      <c r="AB49">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC49">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>304501984200</v>
       </c>
+      <c r="Q50">
+        <v>1751573182300</v>
+      </c>
+      <c r="R50">
+        <v>1447071198100</v>
+      </c>
+      <c r="S50">
+        <v>103199900</v>
+      </c>
+      <c r="T50">
+        <v>88659600</v>
+      </c>
+      <c r="U50">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V50">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W50">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X50">
+        <v>4570781</v>
+      </c>
+      <c r="Y50">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z50">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA50">
+        <v>350799.1</v>
+      </c>
+      <c r="AB50">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC50">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>339554600900</v>
       </c>
+      <c r="Q51">
+        <v>1807188923600</v>
+      </c>
+      <c r="R51">
+        <v>1467634322700</v>
+      </c>
+      <c r="S51">
+        <v>106355800</v>
+      </c>
+      <c r="T51">
+        <v>89939600</v>
+      </c>
+      <c r="U51">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V51">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W51">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X51">
+        <v>4570781</v>
+      </c>
+      <c r="Y51">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z51">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA51">
+        <v>350799.1</v>
+      </c>
+      <c r="AB51">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC51">
+        <v>5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>344994637800</v>
       </c>
+      <c r="Q52">
+        <v>1839982042600</v>
+      </c>
+      <c r="R52">
+        <v>1494987404800</v>
+      </c>
+      <c r="S52">
+        <v>108653100</v>
+      </c>
+      <c r="T52">
+        <v>91576100</v>
+      </c>
+      <c r="U52">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V52">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W52">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X52">
+        <v>4570781</v>
+      </c>
+      <c r="Y52">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z52">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA52">
+        <v>350799.1</v>
+      </c>
+      <c r="AB52">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC52">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>330201232800</v>
       </c>
+      <c r="Q53">
+        <v>1861432883700</v>
+      </c>
+      <c r="R53">
+        <v>1531231650900</v>
+      </c>
+      <c r="S53">
+        <v>110520900</v>
+      </c>
+      <c r="T53">
+        <v>93838900</v>
+      </c>
+      <c r="U53">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V53">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W53">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X53">
+        <v>4570781</v>
+      </c>
+      <c r="Y53">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z53">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA53">
+        <v>350799.1</v>
+      </c>
+      <c r="AB53">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC53">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>320178505300</v>
       </c>
+      <c r="Q54">
+        <v>1880518083800</v>
+      </c>
+      <c r="R54">
+        <v>1560339578500</v>
+      </c>
+      <c r="S54">
+        <v>112227200</v>
+      </c>
+      <c r="T54">
+        <v>95680100</v>
+      </c>
+      <c r="U54">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V54">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W54">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X54">
+        <v>4570781</v>
+      </c>
+      <c r="Y54">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z54">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA54">
+        <v>350799.1</v>
+      </c>
+      <c r="AB54">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC54">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>311296767100</v>
       </c>
+      <c r="Q55">
+        <v>1902522942100</v>
+      </c>
+      <c r="R55">
+        <v>1591226175000</v>
+      </c>
+      <c r="S55">
+        <v>113582100</v>
+      </c>
+      <c r="T55">
+        <v>97875500</v>
+      </c>
+      <c r="U55">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V55">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W55">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X55">
+        <v>4570781</v>
+      </c>
+      <c r="Y55">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z55">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA55">
+        <v>350799.1</v>
+      </c>
+      <c r="AB55">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC55">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>300731240700</v>
       </c>
+      <c r="Q56">
+        <v>1924122261800</v>
+      </c>
+      <c r="R56">
+        <v>1623391021100</v>
+      </c>
+      <c r="S56">
+        <v>115201000</v>
+      </c>
+      <c r="T56">
+        <v>99795300</v>
+      </c>
+      <c r="U56">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V56">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W56">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X56">
+        <v>4570781</v>
+      </c>
+      <c r="Y56">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z56">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA56">
+        <v>350799.1</v>
+      </c>
+      <c r="AB56">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC56">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>290854826000</v>
       </c>
+      <c r="Q57">
+        <v>1942811656000</v>
+      </c>
+      <c r="R57">
+        <v>1651956830000</v>
+      </c>
+      <c r="S57">
+        <v>116850600</v>
+      </c>
+      <c r="T57">
+        <v>101642400</v>
+      </c>
+      <c r="U57">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V57">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W57">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X57">
+        <v>4570781</v>
+      </c>
+      <c r="Y57">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z57">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA57">
+        <v>350799.1</v>
+      </c>
+      <c r="AB57">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC57">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>293876253600</v>
       </c>
+      <c r="Q58">
+        <v>1973533998700</v>
+      </c>
+      <c r="R58">
+        <v>1679657745100</v>
+      </c>
+      <c r="S58">
+        <v>119076200</v>
+      </c>
+      <c r="T58">
+        <v>103351100</v>
+      </c>
+      <c r="U58">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V58">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W58">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X58">
+        <v>4570781</v>
+      </c>
+      <c r="Y58">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z58">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA58">
+        <v>350799.1</v>
+      </c>
+      <c r="AB58">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC58">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>307194388300</v>
       </c>
+      <c r="Q59">
+        <v>2009870727400</v>
+      </c>
+      <c r="R59">
+        <v>1702676339100</v>
+      </c>
+      <c r="S59">
+        <v>122380400</v>
+      </c>
+      <c r="T59">
+        <v>104732800</v>
+      </c>
+      <c r="U59">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V59">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W59">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X59">
+        <v>4570781</v>
+      </c>
+      <c r="Y59">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z59">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA59">
+        <v>350799.1</v>
+      </c>
+      <c r="AB59">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC59">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>312931984600</v>
       </c>
+      <c r="Q60">
+        <v>2033221990900</v>
+      </c>
+      <c r="R60">
+        <v>1720290006300</v>
+      </c>
+      <c r="S60">
+        <v>124457000</v>
+      </c>
+      <c r="T60">
+        <v>106026400</v>
+      </c>
+      <c r="U60">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V60">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W60">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X60">
+        <v>4570781</v>
+      </c>
+      <c r="Y60">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z60">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA60">
+        <v>350799.1</v>
+      </c>
+      <c r="AB60">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC60">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>312436222600</v>
       </c>
+      <c r="Q61">
+        <v>2056584722200</v>
+      </c>
+      <c r="R61">
+        <v>1744148499600</v>
+      </c>
+      <c r="S61">
+        <v>126138500</v>
+      </c>
+      <c r="T61">
+        <v>107463400</v>
+      </c>
+      <c r="U61">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V61">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W61">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X61">
+        <v>4570781</v>
+      </c>
+      <c r="Y61">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z61">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA61">
+        <v>350799.1</v>
+      </c>
+      <c r="AB61">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC61">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>330730416900</v>
       </c>
+      <c r="Q62">
+        <v>2093837634400</v>
+      </c>
+      <c r="R62">
+        <v>1763107217500</v>
+      </c>
+      <c r="S62">
+        <v>128570700</v>
+      </c>
+      <c r="T62">
+        <v>108718800</v>
+      </c>
+      <c r="U62">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V62">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W62">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X62">
+        <v>4570781</v>
+      </c>
+      <c r="Y62">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z62">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA62">
+        <v>350799.1</v>
+      </c>
+      <c r="AB62">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC62">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>342624798800</v>
       </c>
+      <c r="Q63">
+        <v>2124633602700</v>
+      </c>
+      <c r="R63">
+        <v>1782008803900</v>
+      </c>
+      <c r="S63">
+        <v>130494300</v>
+      </c>
+      <c r="T63">
+        <v>109870100</v>
+      </c>
+      <c r="U63">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V63">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W63">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X63">
+        <v>4570781</v>
+      </c>
+      <c r="Y63">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z63">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA63">
+        <v>350799.1</v>
+      </c>
+      <c r="AB63">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC63">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>356985308700</v>
       </c>
+      <c r="Q64">
+        <v>2159921241100</v>
+      </c>
+      <c r="R64">
+        <v>1802935932400</v>
+      </c>
+      <c r="S64">
+        <v>132571200</v>
+      </c>
+      <c r="T64">
+        <v>111061900</v>
+      </c>
+      <c r="U64">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V64">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W64">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X64">
+        <v>4570781</v>
+      </c>
+      <c r="Y64">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z64">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA64">
+        <v>350799.1</v>
+      </c>
+      <c r="AB64">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC64">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>376484436000</v>
       </c>
+      <c r="Q65">
+        <v>2195691939100</v>
+      </c>
+      <c r="R65">
+        <v>1819207503100</v>
+      </c>
+      <c r="S65">
+        <v>134602900</v>
+      </c>
+      <c r="T65">
+        <v>112031000</v>
+      </c>
+      <c r="U65">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V65">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W65">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X65">
+        <v>4570781</v>
+      </c>
+      <c r="Y65">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z65">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA65">
+        <v>350799.1</v>
+      </c>
+      <c r="AB65">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC65">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>387717970500</v>
       </c>
+      <c r="Q66">
+        <v>2220171465800</v>
+      </c>
+      <c r="R66">
+        <v>1832453495300</v>
+      </c>
+      <c r="S66">
+        <v>136134000</v>
+      </c>
+      <c r="T66">
+        <v>112915600</v>
+      </c>
+      <c r="U66">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V66">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W66">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X66">
+        <v>4570781</v>
+      </c>
+      <c r="Y66">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z66">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA66">
+        <v>350799.1</v>
+      </c>
+      <c r="AB66">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC66">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>385701234900</v>
       </c>
+      <c r="Q67">
+        <v>2234371378800</v>
+      </c>
+      <c r="R67">
+        <v>1848670143900</v>
+      </c>
+      <c r="S67">
+        <v>136945300</v>
+      </c>
+      <c r="T67">
+        <v>113899200</v>
+      </c>
+      <c r="U67">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V67">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W67">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X67">
+        <v>4570781</v>
+      </c>
+      <c r="Y67">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z67">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA67">
+        <v>350799.1</v>
+      </c>
+      <c r="AB67">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC67">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>399578385000</v>
       </c>
+      <c r="Q68">
+        <v>2261506104100</v>
+      </c>
+      <c r="R68">
+        <v>1861927719100</v>
+      </c>
+      <c r="S68">
+        <v>138410600</v>
+      </c>
+      <c r="T68">
+        <v>114789600</v>
+      </c>
+      <c r="U68">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V68">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W68">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X68">
+        <v>4570781</v>
+      </c>
+      <c r="Y68">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z68">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA68">
+        <v>350799.1</v>
+      </c>
+      <c r="AB68">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC68">
+        <v>2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>396720973900</v>
       </c>
+      <c r="Q69">
+        <v>2276794585000</v>
+      </c>
+      <c r="R69">
+        <v>1880073611100</v>
+      </c>
+      <c r="S69">
+        <v>139725400</v>
+      </c>
+      <c r="T69">
+        <v>115848600</v>
+      </c>
+      <c r="U69">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V69">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W69">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X69">
+        <v>4570781</v>
+      </c>
+      <c r="Y69">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z69">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA69">
+        <v>350799.1</v>
+      </c>
+      <c r="AB69">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC69">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>396717705500</v>
       </c>
+      <c r="Q70">
+        <v>2276794602600</v>
+      </c>
+      <c r="R70">
+        <v>1880076897100</v>
+      </c>
+      <c r="S70">
+        <v>139726500</v>
+      </c>
+      <c r="T70">
+        <v>115848900</v>
+      </c>
+      <c r="U70">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V70">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W70">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X70">
+        <v>4570781</v>
+      </c>
+      <c r="Y70">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z70">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA70">
+        <v>350799.1</v>
+      </c>
+      <c r="AB70">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>398767511500</v>
       </c>
+      <c r="Q71">
+        <v>2353048945200</v>
+      </c>
+      <c r="R71">
+        <v>1954281433700</v>
+      </c>
+      <c r="S71">
+        <v>144640300</v>
+      </c>
+      <c r="T71">
+        <v>121071200</v>
+      </c>
+      <c r="U71">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V71">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W71">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X71">
+        <v>4570781</v>
+      </c>
+      <c r="Y71">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z71">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA71">
+        <v>350799.1</v>
+      </c>
+      <c r="AB71">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC71">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>391872971500</v>
       </c>
+      <c r="Q72">
+        <v>2379321597200</v>
+      </c>
+      <c r="R72">
+        <v>1987448625700</v>
+      </c>
+      <c r="S72">
+        <v>146544400</v>
+      </c>
+      <c r="T72">
+        <v>123273700</v>
+      </c>
+      <c r="U72">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V72">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W72">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X72">
+        <v>4570781</v>
+      </c>
+      <c r="Y72">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z72">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA72">
+        <v>350799.1</v>
+      </c>
+      <c r="AB72">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC72">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>362047716400</v>
       </c>
+      <c r="Q73">
+        <v>2396691753100</v>
+      </c>
+      <c r="R73">
+        <v>2034644036700</v>
+      </c>
+      <c r="S73">
+        <v>147515100</v>
+      </c>
+      <c r="T73">
+        <v>126464900</v>
+      </c>
+      <c r="U73">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V73">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W73">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X73">
+        <v>4570781</v>
+      </c>
+      <c r="Y73">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z73">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA73">
+        <v>350799.1</v>
+      </c>
+      <c r="AB73">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC73">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>350105694300</v>
       </c>
+      <c r="Q74">
+        <v>2417122120000</v>
+      </c>
+      <c r="R74">
+        <v>2067016425700</v>
+      </c>
+      <c r="S74">
+        <v>148976800</v>
+      </c>
+      <c r="T74">
+        <v>128530700</v>
+      </c>
+      <c r="U74">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V74">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W74">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X74">
+        <v>4570781</v>
+      </c>
+      <c r="Y74">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z74">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA74">
+        <v>350799.1</v>
+      </c>
+      <c r="AB74">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC74">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>338979017800</v>
       </c>
+      <c r="Q75">
+        <v>2442580204700</v>
+      </c>
+      <c r="R75">
+        <v>2103601186900</v>
+      </c>
+      <c r="S75">
+        <v>150617000</v>
+      </c>
+      <c r="T75">
+        <v>130922000</v>
+      </c>
+      <c r="U75">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V75">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W75">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X75">
+        <v>4570781</v>
+      </c>
+      <c r="Y75">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z75">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA75">
+        <v>350799.1</v>
+      </c>
+      <c r="AB75">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC75">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>326758679000</v>
       </c>
+      <c r="Q76">
+        <v>2472376529000</v>
+      </c>
+      <c r="R76">
+        <v>2145617850000</v>
+      </c>
+      <c r="S76">
+        <v>152382000</v>
+      </c>
+      <c r="T76">
+        <v>133514800</v>
+      </c>
+      <c r="U76">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V76">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W76">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X76">
+        <v>4570781</v>
+      </c>
+      <c r="Y76">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z76">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA76">
+        <v>350799.1</v>
+      </c>
+      <c r="AB76">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC76">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>311598336700</v>
       </c>
+      <c r="Q77">
+        <v>2495681801100</v>
+      </c>
+      <c r="R77">
+        <v>2184083464400</v>
+      </c>
+      <c r="S77">
+        <v>153743500</v>
+      </c>
+      <c r="T77">
+        <v>135869300</v>
+      </c>
+      <c r="U77">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V77">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W77">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X77">
+        <v>4570781</v>
+      </c>
+      <c r="Y77">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z77">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA77">
+        <v>350799.1</v>
+      </c>
+      <c r="AB77">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC77">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>306520393900</v>
       </c>
+      <c r="Q78">
+        <v>2520870027200</v>
+      </c>
+      <c r="R78">
+        <v>2214349633300</v>
+      </c>
+      <c r="S78">
+        <v>155272300</v>
+      </c>
+      <c r="T78">
+        <v>137841300</v>
+      </c>
+      <c r="U78">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V78">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W78">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X78">
+        <v>4570781</v>
+      </c>
+      <c r="Y78">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z78">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA78">
+        <v>350799.1</v>
+      </c>
+      <c r="AB78">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC78">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>309749461200</v>
       </c>
+      <c r="Q79">
+        <v>2542250856400</v>
+      </c>
+      <c r="R79">
+        <v>2232501395200</v>
+      </c>
+      <c r="S79">
+        <v>156983900</v>
+      </c>
+      <c r="T79">
+        <v>139301100</v>
+      </c>
+      <c r="U79">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V79">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W79">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X79">
+        <v>4570781</v>
+      </c>
+      <c r="Y79">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z79">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA79">
+        <v>350799.1</v>
+      </c>
+      <c r="AB79">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC79">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>308529739200</v>
       </c>
+      <c r="Q80">
+        <v>2561718867500</v>
+      </c>
+      <c r="R80">
+        <v>2253189128300</v>
+      </c>
+      <c r="S80">
+        <v>158334800</v>
+      </c>
+      <c r="T80">
+        <v>140471900</v>
+      </c>
+      <c r="U80">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V80">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W80">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X80">
+        <v>4570781</v>
+      </c>
+      <c r="Y80">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z80">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA80">
+        <v>350799.1</v>
+      </c>
+      <c r="AB80">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC80">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>260671275200</v>
       </c>
+      <c r="Q81">
+        <v>2581958147200</v>
+      </c>
+      <c r="R81">
+        <v>2321286872000</v>
+      </c>
+      <c r="S81">
+        <v>159470800</v>
+      </c>
+      <c r="T81">
+        <v>144665100</v>
+      </c>
+      <c r="U81">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V81">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W81">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X81">
+        <v>4570781</v>
+      </c>
+      <c r="Y81">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z81">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA81">
+        <v>350799.1</v>
+      </c>
+      <c r="AB81">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC81">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>233438322000</v>
       </c>
+      <c r="Q82">
+        <v>2608772313700</v>
+      </c>
+      <c r="R82">
+        <v>2375333991700</v>
+      </c>
+      <c r="S82">
+        <v>160945800</v>
+      </c>
+      <c r="T82">
+        <v>148381600</v>
+      </c>
+      <c r="U82">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V82">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W82">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X82">
+        <v>4570781</v>
+      </c>
+      <c r="Y82">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z82">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA82">
+        <v>350799.1</v>
+      </c>
+      <c r="AB82">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC82">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>240287939200</v>
       </c>
+      <c r="Q83">
+        <v>2648536543800</v>
+      </c>
+      <c r="R83">
+        <v>2408248604600</v>
+      </c>
+      <c r="S83">
+        <v>162971100</v>
+      </c>
+      <c r="T83">
+        <v>150667600</v>
+      </c>
+      <c r="U83">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V83">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W83">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X83">
+        <v>4570781</v>
+      </c>
+      <c r="Y83">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z83">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA83">
+        <v>350799.1</v>
+      </c>
+      <c r="AB83">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC83">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>294498461800</v>
       </c>
+      <c r="Q84">
+        <v>2723866781400</v>
+      </c>
+      <c r="R84">
+        <v>2429368319600</v>
+      </c>
+      <c r="S84">
+        <v>166855000</v>
+      </c>
+      <c r="T84">
+        <v>152142100</v>
+      </c>
+      <c r="U84">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V84">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W84">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X84">
+        <v>4570781</v>
+      </c>
+      <c r="Y84">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z84">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA84">
+        <v>350799.1</v>
+      </c>
+      <c r="AB84">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC84">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>321880847300</v>
       </c>
+      <c r="Q85">
+        <v>2778579682100</v>
+      </c>
+      <c r="R85">
+        <v>2456698834800</v>
+      </c>
+      <c r="S85">
+        <v>169870500</v>
+      </c>
+      <c r="T85">
+        <v>153896900</v>
+      </c>
+      <c r="U85">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V85">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W85">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X85">
+        <v>4570781</v>
+      </c>
+      <c r="Y85">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z85">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA85">
+        <v>350799.1</v>
+      </c>
+      <c r="AB85">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC85">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>333571246300</v>
       </c>
+      <c r="Q86">
+        <v>2822064623500</v>
+      </c>
+      <c r="R86">
+        <v>2488493377200</v>
+      </c>
+      <c r="S86">
+        <v>172277400</v>
+      </c>
+      <c r="T86">
+        <v>155870600</v>
+      </c>
+      <c r="U86">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V86">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W86">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X86">
+        <v>4570781</v>
+      </c>
+      <c r="Y86">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z86">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA86">
+        <v>350799.1</v>
+      </c>
+      <c r="AB86">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC86">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>327521558400</v>
       </c>
+      <c r="Q87">
+        <v>2858031545800</v>
+      </c>
+      <c r="R87">
+        <v>2530509987400</v>
+      </c>
+      <c r="S87">
+        <v>174388300</v>
+      </c>
+      <c r="T87">
+        <v>158282400</v>
+      </c>
+      <c r="U87">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V87">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W87">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X87">
+        <v>4570781</v>
+      </c>
+      <c r="Y87">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z87">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA87">
+        <v>350799.1</v>
+      </c>
+      <c r="AB87">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC87">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>340519112300</v>
       </c>
+      <c r="Q88">
+        <v>2890714859900</v>
+      </c>
+      <c r="R88">
+        <v>2550195747600</v>
+      </c>
+      <c r="S88">
+        <v>176779600</v>
+      </c>
+      <c r="T88">
+        <v>159518700</v>
+      </c>
+      <c r="U88">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V88">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W88">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X88">
+        <v>4570781</v>
+      </c>
+      <c r="Y88">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z88">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA88">
+        <v>350799.1</v>
+      </c>
+      <c r="AB88">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC88">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>343452549000</v>
       </c>
+      <c r="Q89">
+        <v>2921035466100</v>
+      </c>
+      <c r="R89">
+        <v>2577582917100</v>
+      </c>
+      <c r="S89">
+        <v>178318600</v>
+      </c>
+      <c r="T89">
+        <v>161260600</v>
+      </c>
+      <c r="U89">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V89">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W89">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X89">
+        <v>4570781</v>
+      </c>
+      <c r="Y89">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z89">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA89">
+        <v>350799.1</v>
+      </c>
+      <c r="AB89">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC89">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>384843448300</v>
       </c>
+      <c r="Q90">
+        <v>2987875937300</v>
+      </c>
+      <c r="R90">
+        <v>2603032489000</v>
+      </c>
+      <c r="S90">
+        <v>182059300</v>
+      </c>
+      <c r="T90">
+        <v>162861500</v>
+      </c>
+      <c r="U90">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V90">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W90">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X90">
+        <v>4570781</v>
+      </c>
+      <c r="Y90">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z90">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA90">
+        <v>350799.1</v>
+      </c>
+      <c r="AB90">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC90">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>402894043000</v>
       </c>
+      <c r="Q91">
+        <v>3034068491800</v>
+      </c>
+      <c r="R91">
+        <v>2631174448800</v>
+      </c>
+      <c r="S91">
+        <v>184915000</v>
+      </c>
+      <c r="T91">
+        <v>164762900</v>
+      </c>
+      <c r="U91">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V91">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W91">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X91">
+        <v>4570781</v>
+      </c>
+      <c r="Y91">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z91">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA91">
+        <v>350799.1</v>
+      </c>
+      <c r="AB91">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC91">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>416785288000</v>
       </c>
+      <c r="Q92">
+        <v>3073977407000</v>
+      </c>
+      <c r="R92">
+        <v>2657192119000</v>
+      </c>
+      <c r="S92">
+        <v>188066500</v>
+      </c>
+      <c r="T92">
+        <v>166501700</v>
+      </c>
+      <c r="U92">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V92">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W92">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X92">
+        <v>4570781</v>
+      </c>
+      <c r="Y92">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z92">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA92">
+        <v>350799.1</v>
+      </c>
+      <c r="AB92">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC92">
+        <v>2</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>420460932800</v>
       </c>
+      <c r="Q93">
+        <v>3098963985300</v>
+      </c>
+      <c r="R93">
+        <v>2678503052500</v>
+      </c>
+      <c r="S93">
+        <v>189696400</v>
+      </c>
+      <c r="T93">
+        <v>167858400</v>
+      </c>
+      <c r="U93">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V93">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W93">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X93">
+        <v>4570781</v>
+      </c>
+      <c r="Y93">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z93">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA93">
+        <v>350799.1</v>
+      </c>
+      <c r="AB93">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC93">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>445069057400</v>
       </c>
+      <c r="Q94">
+        <v>3151096560400</v>
+      </c>
+      <c r="R94">
+        <v>2706027503000</v>
+      </c>
+      <c r="S94">
+        <v>192905400</v>
+      </c>
+      <c r="T94">
+        <v>169522100</v>
+      </c>
+      <c r="U94">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V94">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W94">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X94">
+        <v>4570781</v>
+      </c>
+      <c r="Y94">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z94">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA94">
+        <v>350799.1</v>
+      </c>
+      <c r="AB94">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC94">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>500197959700</v>
       </c>
+      <c r="Q95">
+        <v>3226187384600</v>
+      </c>
+      <c r="R95">
+        <v>2725989424900</v>
+      </c>
+      <c r="S95">
+        <v>197396100</v>
+      </c>
+      <c r="T95">
+        <v>170839000</v>
+      </c>
+      <c r="U95">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V95">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W95">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X95">
+        <v>4570781</v>
+      </c>
+      <c r="Y95">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z95">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA95">
+        <v>350799.1</v>
+      </c>
+      <c r="AB95">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC95">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>582530071700</v>
       </c>
+      <c r="Q96">
+        <v>3328962934200</v>
+      </c>
+      <c r="R96">
+        <v>2746432862500</v>
+      </c>
+      <c r="S96">
+        <v>204227000</v>
+      </c>
+      <c r="T96">
+        <v>172224200</v>
+      </c>
+      <c r="U96">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V96">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W96">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X96">
+        <v>4570781</v>
+      </c>
+      <c r="Y96">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z96">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA96">
+        <v>350799.1</v>
+      </c>
+      <c r="AB96">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC96">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>626404042100</v>
       </c>
+      <c r="Q97">
+        <v>3401322583500</v>
+      </c>
+      <c r="R97">
+        <v>2774918541400</v>
+      </c>
+      <c r="S97">
+        <v>208775100</v>
+      </c>
+      <c r="T97">
+        <v>174225100</v>
+      </c>
+      <c r="U97">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V97">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W97">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X97">
+        <v>4570781</v>
+      </c>
+      <c r="Y97">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z97">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA97">
+        <v>350799.1</v>
+      </c>
+      <c r="AB97">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC97">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>649262556100</v>
       </c>
+      <c r="Q98">
+        <v>3459236934200</v>
+      </c>
+      <c r="R98">
+        <v>2809974378100</v>
+      </c>
+      <c r="S98">
+        <v>212101600</v>
+      </c>
+      <c r="T98">
+        <v>176345600</v>
+      </c>
+      <c r="U98">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V98">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W98">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X98">
+        <v>4570781</v>
+      </c>
+      <c r="Y98">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z98">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA98">
+        <v>350799.1</v>
+      </c>
+      <c r="AB98">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC98">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>658487642900</v>
       </c>
+      <c r="Q99">
+        <v>3503821751400</v>
+      </c>
+      <c r="R99">
+        <v>2845334108500</v>
+      </c>
+      <c r="S99">
+        <v>214653200</v>
+      </c>
+      <c r="T99">
+        <v>178694900</v>
+      </c>
+      <c r="U99">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V99">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W99">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X99">
+        <v>4570781</v>
+      </c>
+      <c r="Y99">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z99">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA99">
+        <v>350799.1</v>
+      </c>
+      <c r="AB99">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC99">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>664991185000</v>
       </c>
+      <c r="Q100">
+        <v>3551207531700</v>
+      </c>
+      <c r="R100">
+        <v>2886216346700</v>
+      </c>
+      <c r="S100">
+        <v>217227100</v>
+      </c>
+      <c r="T100">
+        <v>181241100</v>
+      </c>
+      <c r="U100">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V100">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W100">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X100">
+        <v>4570781</v>
+      </c>
+      <c r="Y100">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z100">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA100">
+        <v>350799.1</v>
+      </c>
+      <c r="AB100">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC100">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>678741777900</v>
       </c>
+      <c r="Q101">
+        <v>3603605835400</v>
+      </c>
+      <c r="R101">
+        <v>2924864057500</v>
+      </c>
+      <c r="S101">
+        <v>220235600</v>
+      </c>
+      <c r="T101">
+        <v>183577800</v>
+      </c>
+      <c r="U101">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V101">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W101">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X101">
+        <v>4570781</v>
+      </c>
+      <c r="Y101">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z101">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA101">
+        <v>350799.1</v>
+      </c>
+      <c r="AB101">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>690064047000</v>
       </c>
+      <c r="Q102">
+        <v>3647356920000</v>
+      </c>
+      <c r="R102">
+        <v>2957292873000</v>
+      </c>
+      <c r="S102">
+        <v>222898600</v>
+      </c>
+      <c r="T102">
+        <v>185614700</v>
+      </c>
+      <c r="U102">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V102">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W102">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X102">
+        <v>4570781</v>
+      </c>
+      <c r="Y102">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z102">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA102">
+        <v>350799.1</v>
+      </c>
+      <c r="AB102">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC102">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>710926078800</v>
       </c>
+      <c r="Q103">
+        <v>3701268141600</v>
+      </c>
+      <c r="R103">
+        <v>2990342062800</v>
+      </c>
+      <c r="S103">
+        <v>226022700</v>
+      </c>
+      <c r="T103">
+        <v>187890100</v>
+      </c>
+      <c r="U103">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V103">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W103">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X103">
+        <v>4570781</v>
+      </c>
+      <c r="Y103">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z103">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA103">
+        <v>350799.1</v>
+      </c>
+      <c r="AB103">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC103">
+        <v>3</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>714945266400</v>
       </c>
+      <c r="Q104">
+        <v>3752805474400</v>
+      </c>
+      <c r="R104">
+        <v>3037860208000</v>
+      </c>
+      <c r="S104">
+        <v>229441000</v>
+      </c>
+      <c r="T104">
+        <v>190641000</v>
+      </c>
+      <c r="U104">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V104">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W104">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X104">
+        <v>4570781</v>
+      </c>
+      <c r="Y104">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z104">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA104">
+        <v>350799.1</v>
+      </c>
+      <c r="AB104">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC104">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>720946827400</v>
       </c>
+      <c r="Q105">
+        <v>3816053102600</v>
+      </c>
+      <c r="R105">
+        <v>3095106275200</v>
+      </c>
+      <c r="S105">
+        <v>233690900</v>
+      </c>
+      <c r="T105">
+        <v>193873500</v>
+      </c>
+      <c r="U105">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V105">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W105">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X105">
+        <v>4570781</v>
+      </c>
+      <c r="Y105">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z105">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA105">
+        <v>350799.1</v>
+      </c>
+      <c r="AB105">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC105">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>710331942200</v>
       </c>
+      <c r="Q106">
+        <v>3867364408400</v>
+      </c>
+      <c r="R106">
+        <v>3157032466200</v>
+      </c>
+      <c r="S106">
+        <v>236584100</v>
+      </c>
+      <c r="T106">
+        <v>198121600</v>
+      </c>
+      <c r="U106">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V106">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W106">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X106">
+        <v>4570781</v>
+      </c>
+      <c r="Y106">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z106">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA106">
+        <v>350799.1</v>
+      </c>
+      <c r="AB106">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC106">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>770655108000</v>
       </c>
+      <c r="Q107">
+        <v>3962068366800</v>
+      </c>
+      <c r="R107">
+        <v>3191413258800</v>
+      </c>
+      <c r="S107">
+        <v>241512800</v>
+      </c>
+      <c r="T107">
+        <v>200449500</v>
+      </c>
+      <c r="U107">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V107">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W107">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X107">
+        <v>4570781</v>
+      </c>
+      <c r="Y107">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z107">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA107">
+        <v>350799.1</v>
+      </c>
+      <c r="AB107">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC107">
+        <v>8.7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>808499923000</v>
       </c>
+      <c r="Q108">
+        <v>4037660450600</v>
+      </c>
+      <c r="R108">
+        <v>3229160527600</v>
+      </c>
+      <c r="S108">
+        <v>245267200</v>
+      </c>
+      <c r="T108">
+        <v>202667700</v>
+      </c>
+      <c r="U108">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V108">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W108">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X108">
+        <v>4570781</v>
+      </c>
+      <c r="Y108">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z108">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA108">
+        <v>350799.1</v>
+      </c>
+      <c r="AB108">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC108">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>850867952200</v>
       </c>
+      <c r="Q109">
+        <v>4120504841600</v>
+      </c>
+      <c r="R109">
+        <v>3269636889400</v>
+      </c>
+      <c r="S109">
+        <v>249785500</v>
+      </c>
+      <c r="T109">
+        <v>205121400</v>
+      </c>
+      <c r="U109">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V109">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W109">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X109">
+        <v>4570781</v>
+      </c>
+      <c r="Y109">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z109">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA109">
+        <v>350799.1</v>
+      </c>
+      <c r="AB109">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC109">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>888223877600</v>
       </c>
+      <c r="Q110">
+        <v>4195639619500</v>
+      </c>
+      <c r="R110">
+        <v>3307415741900</v>
+      </c>
+      <c r="S110">
+        <v>254302000</v>
+      </c>
+      <c r="T110">
+        <v>207491600</v>
+      </c>
+      <c r="U110">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V110">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W110">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X110">
+        <v>4570781</v>
+      </c>
+      <c r="Y110">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z110">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA110">
+        <v>350799.1</v>
+      </c>
+      <c r="AB110">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC110">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>907909711300</v>
       </c>
+      <c r="Q111">
+        <v>4262697955700</v>
+      </c>
+      <c r="R111">
+        <v>3354788244400</v>
+      </c>
+      <c r="S111">
+        <v>258443600</v>
+      </c>
+      <c r="T111">
+        <v>210569800</v>
+      </c>
+      <c r="U111">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V111">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W111">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X111">
+        <v>4570781</v>
+      </c>
+      <c r="Y111">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z111">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA111">
+        <v>350799.1</v>
+      </c>
+      <c r="AB111">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC111">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>904001525100</v>
       </c>
+      <c r="Q112">
+        <v>4313748488400</v>
+      </c>
+      <c r="R112">
+        <v>3409746963300</v>
+      </c>
+      <c r="S112">
+        <v>261270000</v>
+      </c>
+      <c r="T112">
+        <v>214487300</v>
+      </c>
+      <c r="U112">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V112">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W112">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X112">
+        <v>4570781</v>
+      </c>
+      <c r="Y112">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z112">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA112">
+        <v>350799.1</v>
+      </c>
+      <c r="AB112">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC112">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>901315403900</v>
       </c>
+      <c r="Q113">
+        <v>4368561626700</v>
+      </c>
+      <c r="R113">
+        <v>3467246222800</v>
+      </c>
+      <c r="S113">
+        <v>264279300</v>
+      </c>
+      <c r="T113">
+        <v>218005500</v>
+      </c>
+      <c r="U113">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V113">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W113">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X113">
+        <v>4570781</v>
+      </c>
+      <c r="Y113">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z113">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA113">
+        <v>350799.1</v>
+      </c>
+      <c r="AB113">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC113">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>859516882600</v>
       </c>
+      <c r="Q114">
+        <v>4412675387400</v>
+      </c>
+      <c r="R114">
+        <v>3553158504800</v>
+      </c>
+      <c r="S114">
+        <v>266782900</v>
+      </c>
+      <c r="T114">
+        <v>223236100</v>
+      </c>
+      <c r="U114">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V114">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W114">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X114">
+        <v>4570781</v>
+      </c>
+      <c r="Y114">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z114">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA114">
+        <v>350799.1</v>
+      </c>
+      <c r="AB114">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC114">
+        <v>6</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>794710151200</v>
       </c>
+      <c r="Q115">
+        <v>4456387831500</v>
+      </c>
+      <c r="R115">
+        <v>3661677680300</v>
+      </c>
+      <c r="S115">
+        <v>269654900</v>
+      </c>
+      <c r="T115">
+        <v>229901900</v>
+      </c>
+      <c r="U115">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V115">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W115">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X115">
+        <v>4570781</v>
+      </c>
+      <c r="Y115">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z115">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA115">
+        <v>350799.1</v>
+      </c>
+      <c r="AB115">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC115">
+        <v>9.3</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>794057924200</v>
       </c>
+      <c r="Q116">
+        <v>4456438559500</v>
+      </c>
+      <c r="R116">
+        <v>3662380635300</v>
+      </c>
+      <c r="S116">
+        <v>269661700</v>
+      </c>
+      <c r="T116">
+        <v>229934800</v>
+      </c>
+      <c r="U116">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V116">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W116">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X116">
+        <v>4570781</v>
+      </c>
+      <c r="Y116">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z116">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA116">
+        <v>350799.1</v>
+      </c>
+      <c r="AB116">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC116">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,10 +10775,49 @@
       <c r="P117">
         <v>807925767300</v>
       </c>
+      <c r="Q117">
+        <v>4472809563900</v>
+      </c>
+      <c r="R117">
+        <v>3664883796600</v>
+      </c>
+      <c r="S117">
+        <v>270855000</v>
+      </c>
+      <c r="T117">
+        <v>230162300</v>
+      </c>
+      <c r="U117">
+        <v>38558703137.1</v>
+      </c>
+      <c r="V117">
+        <v>31593825832.8</v>
+      </c>
+      <c r="W117">
+        <v>74708620223.3</v>
+      </c>
+      <c r="X117">
+        <v>4570781</v>
+      </c>
+      <c r="Y117">
+        <v>2334956.9</v>
+      </c>
+      <c r="Z117">
+        <v>1984157.8</v>
+      </c>
+      <c r="AA117">
+        <v>350799.1</v>
+      </c>
+      <c r="AB117">
+        <v>6964877304.3</v>
+      </c>
+      <c r="AC117">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC117"/>
   </ignoredErrors>
 </worksheet>
 </file>